--- a/data/balance_sheet/3digits/total/592_BS_TOTAL.xlsx
+++ b/data/balance_sheet/3digits/total/592_BS_TOTAL.xlsx
@@ -3,656 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KBIL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KBIL!$A$1:$M$245</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KBIL'!$A$1:$N$245</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="209">
-  <si>
-    <t>592-Sound recording and music publishing activities</t>
-  </si>
-  <si>
-    <t>BALANCE SHEET (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>ASSETS</t>
-  </si>
-  <si>
-    <t>I-CURRENT ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A-Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Cash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Checks Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Banks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Customers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Receivable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Other Short-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Receivables from Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Receivables from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Receivables from Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Doubtful Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Work in Progress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Finished Goods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Merchandise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Advances on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
-  </si>
-  <si>
-    <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t>3- Advances to Subcontractors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  H- Other Current Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- V.A.T. Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other V.A.T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Business Related Advances </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Advances to employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
-  </si>
-  <si>
-    <t>II- FIXED ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Other Long-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Non-Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Land</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Land Improvements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Buildings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Motor Vehicles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Assets in Construction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Know-How</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Goodwill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Research and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Assets Subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Exploration Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Preparation and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Other Long-Term Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other V.A.T.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Prepaid taxes and funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Suspence Account</t>
-  </si>
-  <si>
-    <t>TOTAL ASSETS</t>
-  </si>
-  <si>
-    <t>LIABILITIES</t>
-  </si>
-  <si>
-    <t>I- SHORT-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Bank Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Financial Leasing Payables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Commercial Papers Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Creditors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Short-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Amounts Owed to Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Amounts Owed to Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Taxes and Funds Payable </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Social Security Costs Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Provisions for Severance Payments </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Provisions for Costs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Calculated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
-  </si>
-  <si>
-    <t>II- LONG-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Bonds Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Financial Liabilities </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Long-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D-Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Severance Payments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Provisions </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other </t>
-  </si>
-  <si>
-    <t>III- SHAREHOLDERS EQUITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Paid-in Capital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Subscribed Capital </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Share Premium Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation of Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Legal Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Extraordinary Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Profit Brought Forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Profit for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
-  </si>
-  <si>
-    <t>TOTAL LIABILITIES</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -899,178 +267,246 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="71">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="10" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1365,22 +801,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N245"/>
+  <dimension ref="A1:O245"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A202" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="B210" sqref="B210"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="12.75" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="20" width="0.625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="20" width="35.5"/>
-    <col customWidth="1" max="13" min="3" style="20" width="11.625"/>
-    <col customWidth="1" max="14" min="14" style="20" width="2"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="14"/>
+    <col width="0.625" customWidth="1" style="20" min="1" max="1"/>
+    <col width="35.5" bestFit="1" customWidth="1" style="20" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="20" min="3" max="14"/>
+    <col width="2" customWidth="1" style="20" min="15" max="15"/>
+    <col hidden="1" style="14" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="9.949999999999999" r="1" s="70" spans="1:14">
+    <row r="1" ht="9.949999999999999" customHeight="1" s="70">
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="29" t="n"/>
       <c r="C1" s="29" t="n"/>
@@ -1394,11 +830,14 @@
       <c r="K1" s="29" t="n"/>
       <c r="L1" s="29" t="n"/>
       <c r="M1" s="29" t="n"/>
-      <c r="N1" s="1" t="n"/>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
+      <c r="N1" s="29" t="n"/>
+      <c r="O1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>592-Sound recording and music publishing activities</t>
+        </is>
       </c>
       <c r="B2" s="27" t="n"/>
       <c r="C2" s="54" t="n"/>
@@ -1412,11 +851,14 @@
       <c r="K2" s="54" t="n"/>
       <c r="L2" s="54" t="n"/>
       <c r="M2" s="54" t="n"/>
-      <c r="N2" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.5" r="3" s="70" spans="1:14">
-      <c r="A3" s="55" t="s">
-        <v>1</v>
+      <c r="N2" s="54" t="n"/>
+      <c r="O2" s="10" t="n"/>
+    </row>
+    <row r="3" ht="13.5" customHeight="1" s="70">
+      <c r="A3" s="55" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B3" s="14" t="n"/>
       <c r="C3" s="29" t="n"/>
@@ -1430,12 +872,15 @@
       <c r="K3" s="29" t="n"/>
       <c r="L3" s="29" t="n"/>
       <c r="M3" s="29" t="n"/>
-      <c r="N3" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="4" s="70" spans="1:14">
+      <c r="N3" s="29" t="n"/>
+      <c r="O3" s="1" t="n"/>
+    </row>
+    <row r="4" ht="25.5" customHeight="1" s="70">
       <c r="A4" s="3" t="n"/>
-      <c r="B4" s="30" t="s">
-        <v>2</v>
+      <c r="B4" s="30" t="inlineStr">
+        <is>
+          <t>ASSETS</t>
+        </is>
       </c>
       <c r="C4" s="31" t="n">
         <v>2009</v>
@@ -1470,12 +915,17 @@
       <c r="M4" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N4" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="5" s="70" spans="1:14">
+      <c r="N4" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O4" s="10" t="n"/>
+    </row>
+    <row r="5" ht="12.6" customHeight="1" s="70">
       <c r="A5" s="5" t="n"/>
-      <c r="B5" s="56" t="s">
-        <v>3</v>
+      <c r="B5" s="56" t="inlineStr">
+        <is>
+          <t>I-CURRENT ASSETS</t>
+        </is>
       </c>
       <c r="C5" s="32" t="n">
         <v>84367.82828</v>
@@ -1496,26 +946,31 @@
         <v>174575.45573</v>
       </c>
       <c r="I5" s="32" t="n">
-        <v>191915.35812</v>
+        <v>205937.6221</v>
       </c>
       <c r="J5" s="33" t="n">
-        <v>239178.80102</v>
+        <v>239189.40894</v>
       </c>
       <c r="K5" s="32" t="n">
         <v>308272.58367</v>
       </c>
       <c r="L5" s="32" t="n">
-        <v>308995.11897</v>
+        <v>309836.36336</v>
       </c>
       <c r="M5" s="32" t="n">
-        <v>366494.51899</v>
-      </c>
-      <c r="N5" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="6" s="70" spans="1:14">
+        <v>374745.67385</v>
+      </c>
+      <c r="N5" s="32" t="n">
+        <v>570641.972</v>
+      </c>
+      <c r="O5" s="10" t="n"/>
+    </row>
+    <row r="6" ht="12.6" customHeight="1" s="70">
       <c r="A6" s="8" t="n"/>
-      <c r="B6" s="57" t="s">
-        <v>4</v>
+      <c r="B6" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A-Liquid Assets</t>
+        </is>
       </c>
       <c r="C6" s="23" t="n">
         <v>14316.22971</v>
@@ -1536,26 +991,31 @@
         <v>29257.2511</v>
       </c>
       <c r="I6" s="23" t="n">
-        <v>30824.35516</v>
+        <v>33116.01636</v>
       </c>
       <c r="J6" s="33" t="n">
-        <v>40483.83448</v>
+        <v>40489.04084</v>
       </c>
       <c r="K6" s="23" t="n">
-        <v>49199.31273999999</v>
+        <v>49199.31274</v>
       </c>
       <c r="L6" s="23" t="n">
-        <v>54569.63358</v>
+        <v>54656.80512</v>
       </c>
       <c r="M6" s="23" t="n">
-        <v>86646.51075</v>
-      </c>
-      <c r="N6" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="7" s="70" spans="1:14">
+        <v>87707.00029000001</v>
+      </c>
+      <c r="N6" s="23" t="n">
+        <v>161861.503</v>
+      </c>
+      <c r="O6" s="11" t="n"/>
+    </row>
+    <row r="7" ht="12.6" customHeight="1" s="70">
       <c r="A7" s="5" t="n"/>
-      <c r="B7" s="64" t="s">
-        <v>5</v>
+      <c r="B7" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Cash</t>
+        </is>
       </c>
       <c r="C7" s="22" t="n">
         <v>4835.28691</v>
@@ -1564,38 +1024,43 @@
         <v>11652.37217</v>
       </c>
       <c r="E7" s="22" t="n">
-        <v>4998.9453</v>
+        <v>4998.945299999998</v>
       </c>
       <c r="F7" s="21" t="n">
         <v>6690.160279999999</v>
       </c>
       <c r="G7" s="22" t="n">
-        <v>7959.55518</v>
+        <v>7959.555179999999</v>
       </c>
       <c r="H7" s="21" t="n">
-        <v>8131.303309999999</v>
+        <v>8131.30331</v>
       </c>
       <c r="I7" s="22" t="n">
-        <v>10441.88892</v>
+        <v>10661.57148</v>
       </c>
       <c r="J7" s="21" t="n">
-        <v>8668.203370000001</v>
+        <v>8673.047120000001</v>
       </c>
       <c r="K7" s="22" t="n">
         <v>10502.96231</v>
       </c>
       <c r="L7" s="22" t="n">
-        <v>8984.095780000001</v>
+        <v>9037.490699999998</v>
       </c>
       <c r="M7" s="22" t="n">
-        <v>10092.07184</v>
-      </c>
-      <c r="N7" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="8" s="70" spans="1:14">
+        <v>10412.83867</v>
+      </c>
+      <c r="N7" s="22" t="n">
+        <v>11963.92</v>
+      </c>
+      <c r="O7" s="10" t="n"/>
+    </row>
+    <row r="8" ht="12.6" customHeight="1" s="70">
       <c r="A8" s="5" t="n"/>
-      <c r="B8" s="64" t="s">
-        <v>6</v>
+      <c r="B8" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Checks Received</t>
+        </is>
       </c>
       <c r="C8" s="22" t="n">
         <v>3671.65942</v>
@@ -1616,26 +1081,31 @@
         <v>7732.80141</v>
       </c>
       <c r="I8" s="22" t="n">
-        <v>6152.72909</v>
+        <v>6159.42909</v>
       </c>
       <c r="J8" s="21" t="n">
-        <v>6237.93923</v>
+        <v>6237.939230000001</v>
       </c>
       <c r="K8" s="22" t="n">
         <v>6714.22367</v>
       </c>
       <c r="L8" s="22" t="n">
-        <v>7536.76985</v>
+        <v>7536.769850000001</v>
       </c>
       <c r="M8" s="22" t="n">
-        <v>4707.16396</v>
-      </c>
-      <c r="N8" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="9" s="70" spans="1:14">
+        <v>4710.16396</v>
+      </c>
+      <c r="N8" s="22" t="n">
+        <v>6142.985</v>
+      </c>
+      <c r="O8" s="10" t="n"/>
+    </row>
+    <row r="9" ht="12.6" customHeight="1" s="70">
       <c r="A9" s="5" t="n"/>
-      <c r="B9" s="64" t="s">
-        <v>7</v>
+      <c r="B9" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Banks</t>
+        </is>
       </c>
       <c r="C9" s="22" t="n">
         <v>7235.93612</v>
@@ -1656,26 +1126,31 @@
         <v>16767.08857</v>
       </c>
       <c r="I9" s="22" t="n">
-        <v>17100.46434</v>
+        <v>19150.74298</v>
       </c>
       <c r="J9" s="21" t="n">
-        <v>28473.56866</v>
+        <v>28473.93127</v>
       </c>
       <c r="K9" s="22" t="n">
-        <v>41536.63155000001</v>
+        <v>41536.63155</v>
       </c>
       <c r="L9" s="22" t="n">
-        <v>45219.68836</v>
+        <v>45253.46498</v>
       </c>
       <c r="M9" s="22" t="n">
-        <v>70790.29923999999</v>
-      </c>
-      <c r="N9" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="10" s="70" spans="1:14">
+        <v>71527.02195000001</v>
+      </c>
+      <c r="N9" s="22" t="n">
+        <v>146040.934</v>
+      </c>
+      <c r="O9" s="10" t="n"/>
+    </row>
+    <row r="10" ht="12.6" customHeight="1" s="70">
       <c r="A10" s="5" t="n"/>
-      <c r="B10" s="59" t="s">
-        <v>8</v>
+      <c r="B10" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
+        </is>
       </c>
       <c r="C10" s="22" t="n">
         <v>1537.64059</v>
@@ -1690,7 +1165,7 @@
         <v>6900.046939999999</v>
       </c>
       <c r="G10" s="22" t="n">
-        <v>3005.0324</v>
+        <v>3005.032400000001</v>
       </c>
       <c r="H10" s="21" t="n">
         <v>3799.04121</v>
@@ -1710,12 +1185,17 @@
       <c r="M10" s="22" t="n">
         <v>537.85</v>
       </c>
-      <c r="N10" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="11" s="70" spans="1:14">
+      <c r="N10" s="22" t="n">
+        <v>2570.465</v>
+      </c>
+      <c r="O10" s="10" t="n"/>
+    </row>
+    <row r="11" ht="12.6" customHeight="1" s="70">
       <c r="A11" s="5" t="n"/>
-      <c r="B11" s="64" t="s">
-        <v>9</v>
+      <c r="B11" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Liquid Assets</t>
+        </is>
       </c>
       <c r="C11" s="22" t="n">
         <v>110.98785</v>
@@ -1736,7 +1216,7 @@
         <v>425.09902</v>
       </c>
       <c r="I11" s="22" t="n">
-        <v>84.23405</v>
+        <v>99.23404999999998</v>
       </c>
       <c r="J11" s="21" t="n">
         <v>230.47972</v>
@@ -1750,12 +1230,17 @@
       <c r="M11" s="22" t="n">
         <v>1594.82571</v>
       </c>
-      <c r="N11" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="12" s="70" spans="1:14">
+      <c r="N11" s="22" t="n">
+        <v>284.129</v>
+      </c>
+      <c r="O11" s="10" t="n"/>
+    </row>
+    <row r="12" ht="12.6" customHeight="1" s="70">
       <c r="A12" s="8" t="n"/>
-      <c r="B12" s="60" t="s">
-        <v>10</v>
+      <c r="B12" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Marketable Securities</t>
+        </is>
       </c>
       <c r="C12" s="23" t="n">
         <v>1619.32798</v>
@@ -1770,13 +1255,13 @@
         <v>586.69596</v>
       </c>
       <c r="G12" s="23" t="n">
-        <v>6374.038890000001</v>
+        <v>6374.03889</v>
       </c>
       <c r="H12" s="33" t="n">
         <v>8562.922640000001</v>
       </c>
       <c r="I12" s="23" t="n">
-        <v>9797.35015</v>
+        <v>9854.63978</v>
       </c>
       <c r="J12" s="33" t="n">
         <v>3342.07292</v>
@@ -1790,12 +1275,17 @@
       <c r="M12" s="23" t="n">
         <v>2694.8602</v>
       </c>
-      <c r="N12" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="13" s="70" spans="1:14">
+      <c r="N12" s="23" t="n">
+        <v>2714.794</v>
+      </c>
+      <c r="O12" s="11" t="n"/>
+    </row>
+    <row r="13" ht="12.6" customHeight="1" s="70">
       <c r="A13" s="5" t="n"/>
-      <c r="B13" s="64" t="s">
-        <v>11</v>
+      <c r="B13" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Securities</t>
+        </is>
       </c>
       <c r="C13" s="22" t="n">
         <v>0</v>
@@ -1830,18 +1320,23 @@
       <c r="M13" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N13" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="14" s="70" spans="1:14">
+      <c r="N13" s="22" t="n">
+        <v>199.524</v>
+      </c>
+      <c r="O13" s="10" t="n"/>
+    </row>
+    <row r="14" ht="12.6" customHeight="1" s="70">
       <c r="A14" s="5" t="n"/>
-      <c r="B14" s="64" t="s">
-        <v>12</v>
+      <c r="B14" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C14" s="22" t="n">
         <v>1376.20278</v>
       </c>
       <c r="D14" s="22" t="n">
-        <v>316.4716999999999</v>
+        <v>316.4717</v>
       </c>
       <c r="E14" s="22" t="n">
         <v>830.1768000000001</v>
@@ -1870,12 +1365,17 @@
       <c r="M14" s="22" t="n">
         <v>889.1784299999999</v>
       </c>
-      <c r="N14" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="15" s="70" spans="1:14">
+      <c r="N14" s="22" t="n">
+        <v>649.671</v>
+      </c>
+      <c r="O14" s="10" t="n"/>
+    </row>
+    <row r="15" ht="12.6" customHeight="1" s="70">
       <c r="A15" s="5" t="n"/>
-      <c r="B15" s="64" t="s">
-        <v>13</v>
+      <c r="B15" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C15" s="22" t="n">
         <v>207.14291</v>
@@ -1896,7 +1396,7 @@
         <v>291.58837</v>
       </c>
       <c r="I15" s="22" t="n">
-        <v>0</v>
+        <v>57.28963</v>
       </c>
       <c r="J15" s="21" t="n">
         <v>46.95899</v>
@@ -1910,12 +1410,17 @@
       <c r="M15" s="22" t="n">
         <v>28.41085</v>
       </c>
-      <c r="N15" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="16" s="70" spans="1:14">
+      <c r="N15" s="22" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="O15" s="10" t="n"/>
+    </row>
+    <row r="16" ht="12.6" customHeight="1" s="70">
       <c r="A16" s="5" t="n"/>
-      <c r="B16" s="64" t="s">
-        <v>14</v>
+      <c r="B16" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Marketable Securities</t>
+        </is>
       </c>
       <c r="C16" s="22" t="n">
         <v>35.98229</v>
@@ -1930,13 +1435,13 @@
         <v>163.4089</v>
       </c>
       <c r="G16" s="22" t="n">
-        <v>5953.85002</v>
+        <v>5953.850020000001</v>
       </c>
       <c r="H16" s="21" t="n">
         <v>6657.477089999999</v>
       </c>
       <c r="I16" s="22" t="n">
-        <v>6635.33205</v>
+        <v>6635.332050000001</v>
       </c>
       <c r="J16" s="21" t="n">
         <v>1760.43411</v>
@@ -1950,12 +1455,17 @@
       <c r="M16" s="22" t="n">
         <v>1777.27092</v>
       </c>
-      <c r="N16" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="17" s="70" spans="1:14">
+      <c r="N16" s="22" t="n">
+        <v>1797.299</v>
+      </c>
+      <c r="O16" s="10" t="n"/>
+    </row>
+    <row r="17" ht="12.6" customHeight="1" s="70">
       <c r="A17" s="5" t="n"/>
-      <c r="B17" s="61" t="s">
-        <v>15</v>
+      <c r="B17" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C17" s="22" t="n">
         <v>0</v>
@@ -1990,12 +1500,17 @@
       <c r="M17" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N17" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="18" s="70" spans="1:14">
+      <c r="N17" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="10" t="n"/>
+    </row>
+    <row r="18" ht="12.6" customHeight="1" s="70">
       <c r="A18" s="8" t="n"/>
-      <c r="B18" s="60" t="s">
-        <v>16</v>
+      <c r="B18" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C18" s="23" t="n">
         <v>27404.80379</v>
@@ -2007,7 +1522,7 @@
         <v>41284.63492</v>
       </c>
       <c r="F18" s="33" t="n">
-        <v>50495.57144</v>
+        <v>50495.57144000001</v>
       </c>
       <c r="G18" s="23" t="n">
         <v>55340.62964</v>
@@ -2016,26 +1531,31 @@
         <v>60307.84449</v>
       </c>
       <c r="I18" s="23" t="n">
-        <v>67739.33921999999</v>
+        <v>78475.68399</v>
       </c>
       <c r="J18" s="33" t="n">
-        <v>92418.63631</v>
+        <v>92419.34431999999</v>
       </c>
       <c r="K18" s="23" t="n">
         <v>132340.41412</v>
       </c>
       <c r="L18" s="23" t="n">
-        <v>107975.65775</v>
+        <v>108626.45603</v>
       </c>
       <c r="M18" s="23" t="n">
-        <v>117208.50254</v>
-      </c>
-      <c r="N18" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="19" s="70" spans="1:14">
+        <v>121880.64113</v>
+      </c>
+      <c r="N18" s="23" t="n">
+        <v>138617.708</v>
+      </c>
+      <c r="O18" s="11" t="n"/>
+    </row>
+    <row r="19" ht="12.6" customHeight="1" s="70">
       <c r="A19" s="5" t="n"/>
-      <c r="B19" s="64" t="s">
-        <v>17</v>
+      <c r="B19" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C19" s="22" t="n">
         <v>21887.27935</v>
@@ -2053,29 +1573,34 @@
         <v>42948.32870000001</v>
       </c>
       <c r="H19" s="21" t="n">
-        <v>48641.07141999999</v>
+        <v>48641.07142</v>
       </c>
       <c r="I19" s="22" t="n">
-        <v>55596.10018</v>
+        <v>65459.69495</v>
       </c>
       <c r="J19" s="21" t="n">
-        <v>75722.22470999999</v>
+        <v>75722.93272</v>
       </c>
       <c r="K19" s="22" t="n">
         <v>99467.90936000001</v>
       </c>
       <c r="L19" s="22" t="n">
-        <v>81257.46137999999</v>
+        <v>81908.25966</v>
       </c>
       <c r="M19" s="22" t="n">
-        <v>100296.86182</v>
-      </c>
-      <c r="N19" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="20" s="70" spans="1:14">
+        <v>103658.64503</v>
+      </c>
+      <c r="N19" s="22" t="n">
+        <v>124899.667</v>
+      </c>
+      <c r="O19" s="10" t="n"/>
+    </row>
+    <row r="20" ht="12.6" customHeight="1" s="70">
       <c r="A20" s="5" t="n"/>
-      <c r="B20" s="61" t="s">
-        <v>18</v>
+      <c r="B20" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C20" s="22" t="n">
         <v>4125.526620000001</v>
@@ -2087,7 +1612,7 @@
         <v>4378.53523</v>
       </c>
       <c r="F20" s="21" t="n">
-        <v>7975.200269999999</v>
+        <v>7975.20027</v>
       </c>
       <c r="G20" s="22" t="n">
         <v>10330.51408</v>
@@ -2096,7 +1621,7 @@
         <v>9218.275820000001</v>
       </c>
       <c r="I20" s="22" t="n">
-        <v>9352.840840000001</v>
+        <v>10220.84084</v>
       </c>
       <c r="J20" s="21" t="n">
         <v>13637.84977</v>
@@ -2105,17 +1630,22 @@
         <v>15432.18794</v>
       </c>
       <c r="L20" s="22" t="n">
-        <v>7968.723180000001</v>
+        <v>7968.72318</v>
       </c>
       <c r="M20" s="22" t="n">
-        <v>8679.98517</v>
-      </c>
-      <c r="N20" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="21" s="70" spans="1:14">
+        <v>9989.625169999999</v>
+      </c>
+      <c r="N20" s="22" t="n">
+        <v>10682.884</v>
+      </c>
+      <c r="O20" s="10" t="n"/>
+    </row>
+    <row r="21" ht="12.6" customHeight="1" s="70">
       <c r="A21" s="5" t="n"/>
-      <c r="B21" s="64" t="s">
-        <v>19</v>
+      <c r="B21" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C21" s="22" t="n">
         <v>0</v>
@@ -2150,12 +1680,17 @@
       <c r="M21" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N21" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="22" s="70" spans="1:14">
+      <c r="N21" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" s="10" t="n"/>
+    </row>
+    <row r="22" ht="12.6" customHeight="1" s="70">
       <c r="A22" s="5" t="n"/>
-      <c r="B22" s="64" t="s">
-        <v>20</v>
+      <c r="B22" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C22" s="22" t="n">
         <v>0</v>
@@ -2190,21 +1725,26 @@
       <c r="M22" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N22" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="23" s="70" spans="1:14">
+      <c r="N22" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" s="10" t="n"/>
+    </row>
+    <row r="23" ht="12.6" customHeight="1" s="70">
       <c r="A23" s="5" t="n"/>
-      <c r="B23" s="61" t="s">
-        <v>21</v>
+      <c r="B23" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C23" s="22" t="n">
         <v>58.76106</v>
       </c>
       <c r="D23" s="22" t="n">
-        <v>60.98435</v>
+        <v>60.98435000000001</v>
       </c>
       <c r="E23" s="22" t="n">
-        <v>60.92854000000001</v>
+        <v>60.92854</v>
       </c>
       <c r="F23" s="21" t="n">
         <v>109.06974</v>
@@ -2216,7 +1756,7 @@
         <v>262.1427</v>
       </c>
       <c r="I23" s="22" t="n">
-        <v>221.46539</v>
+        <v>226.21539</v>
       </c>
       <c r="J23" s="21" t="n">
         <v>276.32752</v>
@@ -2230,12 +1770,17 @@
       <c r="M23" s="22" t="n">
         <v>1943.25329</v>
       </c>
-      <c r="N23" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="24" s="70" spans="1:14">
+      <c r="N23" s="22" t="n">
+        <v>2030.133</v>
+      </c>
+      <c r="O23" s="10" t="n"/>
+    </row>
+    <row r="24" ht="12.6" customHeight="1" s="70">
       <c r="A24" s="5" t="n"/>
-      <c r="B24" s="64" t="s">
-        <v>22</v>
+      <c r="B24" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C24" s="22" t="n">
         <v>194.15684</v>
@@ -2268,14 +1813,19 @@
         <v>14157.60345</v>
       </c>
       <c r="M24" s="22" t="n">
-        <v>5289.42271</v>
-      </c>
-      <c r="N24" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="25" s="70" spans="1:14">
+        <v>5290.138089999999</v>
+      </c>
+      <c r="N24" s="22" t="n">
+        <v>44.475</v>
+      </c>
+      <c r="O24" s="10" t="n"/>
+    </row>
+    <row r="25" ht="12.6" customHeight="1" s="70">
       <c r="A25" s="5" t="n"/>
-      <c r="B25" s="64" t="s">
-        <v>23</v>
+      <c r="B25" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
+        </is>
       </c>
       <c r="C25" s="22" t="n">
         <v>2954.7838</v>
@@ -2293,10 +1843,10 @@
         <v>3465.12738</v>
       </c>
       <c r="H25" s="21" t="n">
-        <v>4217.410619999999</v>
+        <v>4217.410620000001</v>
       </c>
       <c r="I25" s="22" t="n">
-        <v>4728.06589</v>
+        <v>4728.065890000001</v>
       </c>
       <c r="J25" s="21" t="n">
         <v>4605.0922</v>
@@ -2310,12 +1860,17 @@
       <c r="M25" s="22" t="n">
         <v>2815.11692</v>
       </c>
-      <c r="N25" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="26" s="70" spans="1:14">
+      <c r="N25" s="22" t="n">
+        <v>2966.064</v>
+      </c>
+      <c r="O25" s="10" t="n"/>
+    </row>
+    <row r="26" ht="12.6" customHeight="1" s="70">
       <c r="A26" s="8" t="n"/>
-      <c r="B26" s="64" t="s">
-        <v>24</v>
+      <c r="B26" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C26" s="22" t="n">
         <v>1815.70388</v>
@@ -2350,21 +1905,26 @@
       <c r="M26" s="22" t="n">
         <v>1816.13737</v>
       </c>
-      <c r="N26" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="27" s="70" spans="1:14">
+      <c r="N26" s="22" t="n">
+        <v>2005.515</v>
+      </c>
+      <c r="O26" s="11" t="n"/>
+    </row>
+    <row r="27" ht="12.6" customHeight="1" s="70">
       <c r="A27" s="5" t="n"/>
-      <c r="B27" s="57" t="s">
-        <v>25</v>
+      <c r="B27" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Other Short-Term Receivables</t>
+        </is>
       </c>
       <c r="C27" s="23" t="n">
         <v>19437.62784</v>
       </c>
       <c r="D27" s="23" t="n">
-        <v>6569.488250000001</v>
+        <v>6569.48825</v>
       </c>
       <c r="E27" s="23" t="n">
-        <v>7632.665819999999</v>
+        <v>7632.66582</v>
       </c>
       <c r="F27" s="33" t="n">
         <v>10177.47486</v>
@@ -2376,7 +1936,7 @@
         <v>12164.07343</v>
       </c>
       <c r="I27" s="23" t="n">
-        <v>11544.99249</v>
+        <v>11828.10906</v>
       </c>
       <c r="J27" s="33" t="n">
         <v>26754.49493</v>
@@ -2385,17 +1945,22 @@
         <v>39018.32737000001</v>
       </c>
       <c r="L27" s="23" t="n">
-        <v>34672.75154</v>
+        <v>34673.20817000001</v>
       </c>
       <c r="M27" s="23" t="n">
-        <v>44745.50717</v>
-      </c>
-      <c r="N27" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="28" s="70" spans="1:14">
+        <v>45969.53675</v>
+      </c>
+      <c r="N27" s="23" t="n">
+        <v>96179.723</v>
+      </c>
+      <c r="O27" s="10" t="n"/>
+    </row>
+    <row r="28" ht="12.6" customHeight="1" s="70">
       <c r="A28" s="5" t="n"/>
-      <c r="B28" s="64" t="s">
-        <v>26</v>
+      <c r="B28" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C28" s="22" t="n">
         <v>18016.59341</v>
@@ -2416,10 +1981,10 @@
         <v>8008.307150000001</v>
       </c>
       <c r="I28" s="22" t="n">
-        <v>7526.24455</v>
+        <v>7771.82383</v>
       </c>
       <c r="J28" s="21" t="n">
-        <v>8462.968209999999</v>
+        <v>8462.968210000001</v>
       </c>
       <c r="K28" s="22" t="n">
         <v>19107.06908</v>
@@ -2428,14 +1993,19 @@
         <v>15370.30606</v>
       </c>
       <c r="M28" s="22" t="n">
-        <v>23638.63505</v>
-      </c>
-      <c r="N28" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="29" s="70" spans="1:14">
+        <v>24856.24955</v>
+      </c>
+      <c r="N28" s="22" t="n">
+        <v>68339.962</v>
+      </c>
+      <c r="O28" s="10" t="n"/>
+    </row>
+    <row r="29" ht="12.6" customHeight="1" s="70">
       <c r="A29" s="5" t="n"/>
-      <c r="B29" s="59" t="s">
-        <v>27</v>
+      <c r="B29" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C29" s="22" t="n">
         <v>0</v>
@@ -2470,12 +2040,17 @@
       <c r="M29" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N29" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="30" s="70" spans="1:14">
+      <c r="N29" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" s="10" t="n"/>
+    </row>
+    <row r="30" ht="12.6" customHeight="1" s="70">
       <c r="A30" s="5" t="n"/>
-      <c r="B30" s="64" t="s">
-        <v>28</v>
+      <c r="B30" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C30" s="22" t="n">
         <v>62.43</v>
@@ -2510,12 +2085,17 @@
       <c r="M30" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N30" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="31" s="70" spans="1:14">
+      <c r="N30" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" s="10" t="n"/>
+    </row>
+    <row r="31" ht="12.6" customHeight="1" s="70">
       <c r="A31" s="5" t="n"/>
-      <c r="B31" s="64" t="s">
-        <v>29</v>
+      <c r="B31" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C31" s="22" t="n">
         <v>70</v>
@@ -2550,12 +2130,17 @@
       <c r="M31" s="22" t="n">
         <v>45.62275</v>
       </c>
-      <c r="N31" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="32" s="70" spans="1:14">
+      <c r="N31" s="22" t="n">
+        <v>57.358</v>
+      </c>
+      <c r="O31" s="10" t="n"/>
+    </row>
+    <row r="32" ht="12.6" customHeight="1" s="70">
       <c r="A32" s="5" t="n"/>
-      <c r="B32" s="64" t="s">
-        <v>30</v>
+      <c r="B32" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C32" s="22" t="n">
         <v>1288.60443</v>
@@ -2576,7 +2161,7 @@
         <v>4038.372519999999</v>
       </c>
       <c r="I32" s="22" t="n">
-        <v>3846.26736</v>
+        <v>3883.80465</v>
       </c>
       <c r="J32" s="21" t="n">
         <v>18058.84737</v>
@@ -2585,17 +2170,22 @@
         <v>19866.90002</v>
       </c>
       <c r="L32" s="22" t="n">
-        <v>19258.02491</v>
+        <v>19258.48154</v>
       </c>
       <c r="M32" s="22" t="n">
-        <v>21061.24937</v>
-      </c>
-      <c r="N32" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="33" s="70" spans="1:14">
+        <v>21067.66445</v>
+      </c>
+      <c r="N32" s="22" t="n">
+        <v>27782.403</v>
+      </c>
+      <c r="O32" s="10" t="n"/>
+    </row>
+    <row r="33" ht="12.6" customHeight="1" s="70">
       <c r="A33" s="5" t="n"/>
-      <c r="B33" s="64" t="s">
-        <v>31</v>
+      <c r="B33" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C33" s="22" t="n">
         <v>0</v>
@@ -2630,12 +2220,17 @@
       <c r="M33" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N33" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="34" s="70" spans="1:14">
+      <c r="N33" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" s="10" t="n"/>
+    </row>
+    <row r="34" ht="12.6" customHeight="1" s="70">
       <c r="A34" s="5" t="n"/>
-      <c r="B34" s="64" t="s">
-        <v>32</v>
+      <c r="B34" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Doubtful Receivables</t>
+        </is>
       </c>
       <c r="C34" s="22" t="n">
         <v>0</v>
@@ -2670,12 +2265,17 @@
       <c r="M34" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N34" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="35" s="70" spans="1:14">
+      <c r="N34" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" s="10" t="n"/>
+    </row>
+    <row r="35" ht="12.6" customHeight="1" s="70">
       <c r="A35" s="8" t="n"/>
-      <c r="B35" s="64" t="s">
-        <v>33</v>
+      <c r="B35" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C35" s="22" t="n">
         <v>0</v>
@@ -2710,12 +2310,17 @@
       <c r="M35" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N35" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="36" s="70" spans="1:14">
+      <c r="N35" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" s="11" t="n"/>
+    </row>
+    <row r="36" ht="12.6" customHeight="1" s="70">
       <c r="A36" s="5" t="n"/>
-      <c r="B36" s="60" t="s">
-        <v>34</v>
+      <c r="B36" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Inventories</t>
+        </is>
       </c>
       <c r="C36" s="23" t="n">
         <v>17461.92679</v>
@@ -2736,26 +2341,31 @@
         <v>47970.2175</v>
       </c>
       <c r="I36" s="23" t="n">
-        <v>54701.77448000001</v>
+        <v>54935.54368000001</v>
       </c>
       <c r="J36" s="33" t="n">
-        <v>54679.19352</v>
+        <v>54684.42174000001</v>
       </c>
       <c r="K36" s="23" t="n">
         <v>63690.01019</v>
       </c>
       <c r="L36" s="23" t="n">
-        <v>84972.74264</v>
+        <v>84975.5806</v>
       </c>
       <c r="M36" s="23" t="n">
-        <v>87476.10425999999</v>
-      </c>
-      <c r="N36" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="37" s="70" spans="1:14">
+        <v>88495.05106</v>
+      </c>
+      <c r="N36" s="23" t="n">
+        <v>127313.522</v>
+      </c>
+      <c r="O36" s="10" t="n"/>
+    </row>
+    <row r="37" ht="12.6" customHeight="1" s="70">
       <c r="A37" s="5" t="n"/>
-      <c r="B37" s="64" t="s">
-        <v>35</v>
+      <c r="B37" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
+        </is>
       </c>
       <c r="C37" s="22" t="n">
         <v>581.48677</v>
@@ -2776,7 +2386,7 @@
         <v>1788.56977</v>
       </c>
       <c r="I37" s="22" t="n">
-        <v>2971.2969</v>
+        <v>2980.6569</v>
       </c>
       <c r="J37" s="21" t="n">
         <v>3584.1366</v>
@@ -2788,14 +2398,19 @@
         <v>1361.26946</v>
       </c>
       <c r="M37" s="22" t="n">
-        <v>1223.61231</v>
-      </c>
-      <c r="N37" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="38" s="70" spans="1:14">
+        <v>1298.07111</v>
+      </c>
+      <c r="N37" s="22" t="n">
+        <v>1152.947</v>
+      </c>
+      <c r="O37" s="10" t="n"/>
+    </row>
+    <row r="38" ht="12.6" customHeight="1" s="70">
       <c r="A38" s="5" t="n"/>
-      <c r="B38" s="64" t="s">
-        <v>36</v>
+      <c r="B38" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Work in Progress</t>
+        </is>
       </c>
       <c r="C38" s="22" t="n">
         <v>1948.8935</v>
@@ -2816,10 +2431,10 @@
         <v>4335.71587</v>
       </c>
       <c r="I38" s="22" t="n">
-        <v>5778.60958</v>
+        <v>5781.009579999999</v>
       </c>
       <c r="J38" s="21" t="n">
-        <v>5634.497850000001</v>
+        <v>5634.49785</v>
       </c>
       <c r="K38" s="22" t="n">
         <v>5439.33913</v>
@@ -2828,20 +2443,25 @@
         <v>6110.24251</v>
       </c>
       <c r="M38" s="22" t="n">
-        <v>4825.036050000001</v>
-      </c>
-      <c r="N38" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="39" s="70" spans="1:14">
+        <v>4825.03605</v>
+      </c>
+      <c r="N38" s="22" t="n">
+        <v>6280.917</v>
+      </c>
+      <c r="O38" s="10" t="n"/>
+    </row>
+    <row r="39" ht="12.6" customHeight="1" s="70">
       <c r="A39" s="5" t="n"/>
-      <c r="B39" s="64" t="s">
-        <v>37</v>
+      <c r="B39" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Finished Goods</t>
+        </is>
       </c>
       <c r="C39" s="22" t="n">
         <v>4625.32789</v>
       </c>
       <c r="D39" s="22" t="n">
-        <v>5697.875639999999</v>
+        <v>5697.87564</v>
       </c>
       <c r="E39" s="22" t="n">
         <v>5811.239610000001</v>
@@ -2865,17 +2485,22 @@
         <v>3166.32322</v>
       </c>
       <c r="L39" s="22" t="n">
-        <v>3038.030119999999</v>
+        <v>3038.03012</v>
       </c>
       <c r="M39" s="22" t="n">
         <v>3787.8194</v>
       </c>
-      <c r="N39" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="40" s="70" spans="1:14">
+      <c r="N39" s="22" t="n">
+        <v>4711.091</v>
+      </c>
+      <c r="O39" s="10" t="n"/>
+    </row>
+    <row r="40" ht="12.6" customHeight="1" s="70">
       <c r="A40" s="5" t="n"/>
-      <c r="B40" s="64" t="s">
-        <v>38</v>
+      <c r="B40" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Merchandise</t>
+        </is>
       </c>
       <c r="C40" s="22" t="n">
         <v>5759.58573</v>
@@ -2905,29 +2530,34 @@
         <v>13713.44251</v>
       </c>
       <c r="L40" s="22" t="n">
-        <v>15509.28663</v>
+        <v>15512.12459</v>
       </c>
       <c r="M40" s="22" t="n">
-        <v>19757.33828</v>
-      </c>
-      <c r="N40" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="41" s="70" spans="1:14">
+        <v>20701.70024</v>
+      </c>
+      <c r="N40" s="22" t="n">
+        <v>22550.01</v>
+      </c>
+      <c r="O40" s="10" t="n"/>
+    </row>
+    <row r="41" ht="12.6" customHeight="1" s="70">
       <c r="A41" s="5" t="n"/>
-      <c r="B41" s="64" t="s">
-        <v>39</v>
+      <c r="B41" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Inventories</t>
+        </is>
       </c>
       <c r="C41" s="22" t="n">
         <v>272.89565</v>
       </c>
       <c r="D41" s="22" t="n">
-        <v>84.98501999999999</v>
+        <v>84.98502000000001</v>
       </c>
       <c r="E41" s="22" t="n">
-        <v>320.44032</v>
+        <v>320.4403199999999</v>
       </c>
       <c r="F41" s="21" t="n">
-        <v>615.66182</v>
+        <v>615.6618199999999</v>
       </c>
       <c r="G41" s="22" t="n">
         <v>1169.15877</v>
@@ -2936,7 +2566,7 @@
         <v>980.4747000000001</v>
       </c>
       <c r="I41" s="22" t="n">
-        <v>151.74962</v>
+        <v>152.35815</v>
       </c>
       <c r="J41" s="21" t="n">
         <v>299.34478</v>
@@ -2945,17 +2575,22 @@
         <v>422.50874</v>
       </c>
       <c r="L41" s="22" t="n">
-        <v>537.4456100000001</v>
+        <v>537.44561</v>
       </c>
       <c r="M41" s="22" t="n">
         <v>451.6578799999999</v>
       </c>
-      <c r="N41" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="42" s="70" spans="1:14">
+      <c r="N41" s="22" t="n">
+        <v>226.113</v>
+      </c>
+      <c r="O41" s="10" t="n"/>
+    </row>
+    <row r="42" ht="12.6" customHeight="1" s="70">
       <c r="A42" s="5" t="n"/>
-      <c r="B42" s="59" t="s">
-        <v>40</v>
+      <c r="B42" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
+        </is>
       </c>
       <c r="C42" s="22" t="n">
         <v>0</v>
@@ -2990,12 +2625,17 @@
       <c r="M42" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N42" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="43" s="70" spans="1:14">
+      <c r="N42" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" s="10" t="n"/>
+    </row>
+    <row r="43" ht="12.6" customHeight="1" s="70">
       <c r="A43" s="8" t="n"/>
-      <c r="B43" s="59" t="s">
-        <v>41</v>
+      <c r="B43" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Advances on Purchase Orders</t>
+        </is>
       </c>
       <c r="C43" s="22" t="n">
         <v>4273.73725</v>
@@ -3016,26 +2656,31 @@
         <v>22058.54966</v>
       </c>
       <c r="I43" s="22" t="n">
-        <v>25682.30195</v>
+        <v>25903.70262</v>
       </c>
       <c r="J43" s="21" t="n">
-        <v>27872.27983</v>
+        <v>27877.50805</v>
       </c>
       <c r="K43" s="22" t="n">
-        <v>39719.66031</v>
+        <v>39719.66030999999</v>
       </c>
       <c r="L43" s="22" t="n">
         <v>58416.46831</v>
       </c>
       <c r="M43" s="22" t="n">
-        <v>57430.64034</v>
-      </c>
-      <c r="N43" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="44" s="70" spans="1:14">
+        <v>57430.76638</v>
+      </c>
+      <c r="N43" s="22" t="n">
+        <v>92392.444</v>
+      </c>
+      <c r="O43" s="11" t="n"/>
+    </row>
+    <row r="44" ht="12.6" customHeight="1" s="70">
       <c r="A44" s="8" t="n"/>
-      <c r="B44" s="60" t="s">
-        <v>42</v>
+      <c r="B44" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
+        </is>
       </c>
       <c r="C44" s="23" t="n">
         <v>0</v>
@@ -3070,12 +2715,17 @@
       <c r="M44" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N44" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="45" s="70" spans="1:14">
+      <c r="N44" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" s="11" t="n"/>
+    </row>
+    <row r="45" ht="12.6" customHeight="1" s="70">
       <c r="A45" s="8" t="n"/>
-      <c r="B45" s="59" t="s">
-        <v>43</v>
+      <c r="B45" s="59" t="inlineStr">
+        <is>
+          <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C45" s="22" t="n">
         <v>0</v>
@@ -3110,12 +2760,17 @@
       <c r="M45" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N45" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="46" s="70" spans="1:14">
+      <c r="N45" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" s="11" t="n"/>
+    </row>
+    <row r="46" ht="12.6" customHeight="1" s="70">
       <c r="A46" s="8" t="n"/>
-      <c r="B46" s="59" t="s">
-        <v>44</v>
+      <c r="B46" s="59" t="inlineStr">
+        <is>
+          <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C46" s="22" t="n">
         <v>0</v>
@@ -3150,12 +2805,17 @@
       <c r="M46" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N46" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="47" s="70" spans="1:14">
+      <c r="N46" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" s="11" t="n"/>
+    </row>
+    <row r="47" ht="12.6" customHeight="1" s="70">
       <c r="A47" s="5" t="n"/>
-      <c r="B47" s="59" t="s">
-        <v>45</v>
+      <c r="B47" s="59" t="inlineStr">
+        <is>
+          <t>3- Advances to Subcontractors</t>
+        </is>
       </c>
       <c r="C47" s="22" t="n">
         <v>0</v>
@@ -3190,12 +2850,17 @@
       <c r="M47" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N47" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="48" s="70" spans="1:14">
+      <c r="N47" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" s="10" t="n"/>
+    </row>
+    <row r="48" ht="12.6" customHeight="1" s="70">
       <c r="A48" s="5" t="n"/>
-      <c r="B48" s="60" t="s">
-        <v>46</v>
+      <c r="B48" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>1571.63507</v>
@@ -3216,26 +2881,31 @@
         <v>6013.84053</v>
       </c>
       <c r="I48" s="46" t="n">
-        <v>5623.626899999999</v>
+        <v>5624.08024</v>
       </c>
       <c r="J48" s="45" t="n">
         <v>6027.44997</v>
       </c>
       <c r="K48" s="46" t="n">
-        <v>6188.135669999999</v>
+        <v>6188.13567</v>
       </c>
       <c r="L48" s="46" t="n">
         <v>8426.209560000001</v>
       </c>
       <c r="M48" s="46" t="n">
-        <v>10000.11135</v>
-      </c>
-      <c r="N48" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="49" s="70" spans="1:14">
+        <v>10001.01814</v>
+      </c>
+      <c r="N48" s="46" t="n">
+        <v>15605.347</v>
+      </c>
+      <c r="O48" s="10" t="n"/>
+    </row>
+    <row r="49" ht="12.6" customHeight="1" s="70">
       <c r="A49" s="8" t="n"/>
-      <c r="B49" s="64" t="s">
-        <v>47</v>
+      <c r="B49" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Months</t>
+        </is>
       </c>
       <c r="C49" s="22" t="n">
         <v>1132.52338</v>
@@ -3256,26 +2926,31 @@
         <v>4541.51957</v>
       </c>
       <c r="I49" s="22" t="n">
-        <v>3210.18012</v>
+        <v>3210.63346</v>
       </c>
       <c r="J49" s="21" t="n">
-        <v>4757.401800000001</v>
+        <v>4757.4018</v>
       </c>
       <c r="K49" s="22" t="n">
         <v>3240.24669</v>
       </c>
       <c r="L49" s="22" t="n">
-        <v>7082.535720000001</v>
+        <v>7082.53572</v>
       </c>
       <c r="M49" s="22" t="n">
-        <v>7564.45126</v>
-      </c>
-      <c r="N49" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="50" s="70" spans="1:14">
+        <v>7565.35805</v>
+      </c>
+      <c r="N49" s="22" t="n">
+        <v>7899.564</v>
+      </c>
+      <c r="O49" s="11" t="n"/>
+    </row>
+    <row r="50" ht="12.6" customHeight="1" s="70">
       <c r="A50" s="5" t="n"/>
-      <c r="B50" s="64" t="s">
-        <v>48</v>
+      <c r="B50" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C50" s="22" t="n">
         <v>439.11169</v>
@@ -3284,10 +2959,10 @@
         <v>726.1470099999999</v>
       </c>
       <c r="E50" s="22" t="n">
-        <v>572.09655</v>
+        <v>572.0965500000001</v>
       </c>
       <c r="F50" s="21" t="n">
-        <v>705.4562199999999</v>
+        <v>705.4562199999998</v>
       </c>
       <c r="G50" s="22" t="n">
         <v>776.67124</v>
@@ -3310,12 +2985,17 @@
       <c r="M50" s="22" t="n">
         <v>2435.66009</v>
       </c>
-      <c r="N50" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="51" s="70" spans="1:14">
+      <c r="N50" s="22" t="n">
+        <v>7705.783</v>
+      </c>
+      <c r="O50" s="10" t="n"/>
+    </row>
+    <row r="51" ht="12.6" customHeight="1" s="70">
       <c r="A51" s="5" t="n"/>
-      <c r="B51" s="57" t="s">
-        <v>49</v>
+      <c r="B51" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  H- Other Current Assets</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>2556.2771</v>
@@ -3330,32 +3010,37 @@
         <v>7004.60219</v>
       </c>
       <c r="G51" s="46" t="n">
-        <v>9149.526270000002</v>
+        <v>9149.52627</v>
       </c>
       <c r="H51" s="45" t="n">
         <v>10299.30604</v>
       </c>
       <c r="I51" s="46" t="n">
-        <v>10661.76999</v>
+        <v>11081.39926</v>
       </c>
       <c r="J51" s="45" t="n">
-        <v>13663.11889</v>
+        <v>13662.58422</v>
       </c>
       <c r="K51" s="46" t="n">
         <v>15366.28318</v>
       </c>
       <c r="L51" s="46" t="n">
-        <v>15894.55303</v>
+        <v>15994.53301</v>
       </c>
       <c r="M51" s="46" t="n">
-        <v>17722.92272</v>
-      </c>
-      <c r="N51" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="52" s="70" spans="1:14">
+        <v>17997.56628</v>
+      </c>
+      <c r="N51" s="46" t="n">
+        <v>28349.375</v>
+      </c>
+      <c r="O51" s="10" t="n"/>
+    </row>
+    <row r="52" ht="12.6" customHeight="1" s="70">
       <c r="A52" s="5" t="n"/>
-      <c r="B52" s="64" t="s">
-        <v>50</v>
+      <c r="B52" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
+        </is>
       </c>
       <c r="C52" s="22" t="n">
         <v>1332.68374</v>
@@ -3376,26 +3061,31 @@
         <v>5302.31513</v>
       </c>
       <c r="I52" s="22" t="n">
-        <v>4679.68514</v>
+        <v>4910.12184</v>
       </c>
       <c r="J52" s="21" t="n">
-        <v>5708.44253</v>
+        <v>5707.90786</v>
       </c>
       <c r="K52" s="22" t="n">
-        <v>5472.988189999999</v>
+        <v>5472.98819</v>
       </c>
       <c r="L52" s="22" t="n">
-        <v>7593.85164</v>
+        <v>7602.23123</v>
       </c>
       <c r="M52" s="22" t="n">
-        <v>8755.027229999998</v>
-      </c>
-      <c r="N52" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="53" s="70" spans="1:14">
+        <v>8849.01252</v>
+      </c>
+      <c r="N52" s="22" t="n">
+        <v>18387.057</v>
+      </c>
+      <c r="O52" s="10" t="n"/>
+    </row>
+    <row r="53" ht="12.6" customHeight="1" s="70">
       <c r="A53" s="5" t="n"/>
-      <c r="B53" s="64" t="s">
-        <v>51</v>
+      <c r="B53" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- V.A.T. Paid</t>
+        </is>
       </c>
       <c r="C53" s="22" t="n">
         <v>1.45671</v>
@@ -3425,17 +3115,22 @@
         <v>735.27072</v>
       </c>
       <c r="L53" s="22" t="n">
-        <v>1.663</v>
+        <v>4.63157</v>
       </c>
       <c r="M53" s="22" t="n">
-        <v>76.42940000000002</v>
-      </c>
-      <c r="N53" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="54" s="70" spans="1:14">
+        <v>121.20452</v>
+      </c>
+      <c r="N53" s="22" t="n">
+        <v>123.529</v>
+      </c>
+      <c r="O53" s="10" t="n"/>
+    </row>
+    <row r="54" ht="12.6" customHeight="1" s="70">
       <c r="A54" s="5" t="n"/>
-      <c r="B54" s="64" t="s">
-        <v>52</v>
+      <c r="B54" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other V.A.T</t>
+        </is>
       </c>
       <c r="C54" s="22" t="n">
         <v>8.96026</v>
@@ -3453,29 +3148,34 @@
         <v>9.496169999999999</v>
       </c>
       <c r="H54" s="21" t="n">
-        <v>7.43427</v>
+        <v>7.434270000000001</v>
       </c>
       <c r="I54" s="22" t="n">
         <v>7.54199</v>
       </c>
       <c r="J54" s="21" t="n">
-        <v>7.47385</v>
+        <v>7.473850000000001</v>
       </c>
       <c r="K54" s="22" t="n">
         <v>53.19462</v>
       </c>
       <c r="L54" s="22" t="n">
-        <v>87.84412999999999</v>
+        <v>87.84413000000001</v>
       </c>
       <c r="M54" s="22" t="n">
-        <v>66.97827000000001</v>
-      </c>
-      <c r="N54" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="55" s="70" spans="1:14">
+        <v>68.15183999999999</v>
+      </c>
+      <c r="N54" s="22" t="n">
+        <v>108.609</v>
+      </c>
+      <c r="O54" s="10" t="n"/>
+    </row>
+    <row r="55" ht="12.6" customHeight="1" s="70">
       <c r="A55" s="5" t="n"/>
-      <c r="B55" s="61" t="s">
-        <v>53</v>
+      <c r="B55" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
+        </is>
       </c>
       <c r="C55" s="22" t="n">
         <v>425.52554</v>
@@ -3487,7 +3187,7 @@
         <v>324.20682</v>
       </c>
       <c r="F55" s="21" t="n">
-        <v>719.8100900000001</v>
+        <v>719.8100899999999</v>
       </c>
       <c r="G55" s="22" t="n">
         <v>506.0338399999999</v>
@@ -3496,26 +3196,31 @@
         <v>660.21812</v>
       </c>
       <c r="I55" s="22" t="n">
-        <v>372.16855</v>
+        <v>402.2614</v>
       </c>
       <c r="J55" s="21" t="n">
-        <v>811.78516</v>
+        <v>811.7851599999999</v>
       </c>
       <c r="K55" s="22" t="n">
         <v>487.59658</v>
       </c>
       <c r="L55" s="22" t="n">
-        <v>1624.79638</v>
+        <v>1713.4282</v>
       </c>
       <c r="M55" s="22" t="n">
-        <v>764.3291399999999</v>
-      </c>
-      <c r="N55" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="56" s="70" spans="1:14">
+        <v>892.5919699999999</v>
+      </c>
+      <c r="N55" s="22" t="n">
+        <v>2339.128</v>
+      </c>
+      <c r="O55" s="10" t="n"/>
+    </row>
+    <row r="56" ht="12.6" customHeight="1" s="70">
       <c r="A56" s="5" t="n"/>
-      <c r="B56" s="59" t="s">
-        <v>54</v>
+      <c r="B56" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Business Related Advances </t>
+        </is>
       </c>
       <c r="C56" s="22" t="n">
         <v>755.7402</v>
@@ -3536,7 +3241,7 @@
         <v>4106.72795</v>
       </c>
       <c r="I56" s="22" t="n">
-        <v>5503.891610000001</v>
+        <v>5662.59133</v>
       </c>
       <c r="J56" s="21" t="n">
         <v>6934.30733</v>
@@ -3548,14 +3253,19 @@
         <v>6103.30066</v>
       </c>
       <c r="M56" s="22" t="n">
-        <v>7660.64319</v>
-      </c>
-      <c r="N56" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="57" s="70" spans="1:14">
+        <v>7667.08994</v>
+      </c>
+      <c r="N56" s="22" t="n">
+        <v>7124.285</v>
+      </c>
+      <c r="O56" s="10" t="n"/>
+    </row>
+    <row r="57" ht="12.6" customHeight="1" s="70">
       <c r="A57" s="5" t="n"/>
-      <c r="B57" s="61" t="s">
-        <v>55</v>
+      <c r="B57" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Advances to employees</t>
+        </is>
       </c>
       <c r="C57" s="22" t="n">
         <v>31.01268</v>
@@ -3576,7 +3286,7 @@
         <v>112.33249</v>
       </c>
       <c r="I57" s="22" t="n">
-        <v>72.53629999999998</v>
+        <v>72.9363</v>
       </c>
       <c r="J57" s="21" t="n">
         <v>200.09976</v>
@@ -3590,12 +3300,17 @@
       <c r="M57" s="22" t="n">
         <v>375.35049</v>
       </c>
-      <c r="N57" s="10" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="12.6" r="58" s="14" spans="1:14">
+      <c r="N57" s="22" t="n">
+        <v>266.726</v>
+      </c>
+      <c r="O57" s="10" t="n"/>
+    </row>
+    <row r="58" ht="12.6" customFormat="1" customHeight="1" s="14">
       <c r="A58" s="5" t="n"/>
-      <c r="B58" s="64" t="s">
-        <v>56</v>
+      <c r="B58" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
+        </is>
       </c>
       <c r="C58" s="22" t="n">
         <v>0</v>
@@ -3630,12 +3345,17 @@
       <c r="M58" s="22" t="n">
         <v>24.165</v>
       </c>
-      <c r="N58" s="10" t="n"/>
-    </row>
-    <row r="59" spans="1:14">
+      <c r="N58" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" s="10" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="10" t="n"/>
-      <c r="B59" s="59" t="s">
-        <v>57</v>
+      <c r="B59" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Other </t>
+        </is>
       </c>
       <c r="C59" s="22" t="n">
         <v>0.89797</v>
@@ -3670,11 +3390,16 @@
       <c r="M59" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N59" s="10" t="n"/>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="B60" s="62" t="s">
-        <v>58</v>
+      <c r="N59" s="22" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="O59" s="10" t="n"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
+        </is>
       </c>
       <c r="C60" s="35" t="n">
         <v>0</v>
@@ -3709,18 +3434,23 @@
       <c r="M60" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N60" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="61" s="70" spans="1:14">
+      <c r="N60" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" s="10" t="n"/>
+    </row>
+    <row r="61" ht="12.6" customHeight="1" s="70">
       <c r="A61" s="5" t="n"/>
-      <c r="B61" s="56" t="s">
-        <v>59</v>
+      <c r="B61" s="56" t="inlineStr">
+        <is>
+          <t>II- FIXED ASSETS</t>
+        </is>
       </c>
       <c r="C61" s="36" t="n">
         <v>45252.64157</v>
       </c>
       <c r="D61" s="36" t="n">
-        <v>58114.92629</v>
+        <v>58114.92628999999</v>
       </c>
       <c r="E61" s="36" t="n">
         <v>63790.96121</v>
@@ -3732,29 +3462,34 @@
         <v>63121.36928</v>
       </c>
       <c r="H61" s="37" t="n">
-        <v>56774.03868000001</v>
+        <v>56774.03868</v>
       </c>
       <c r="I61" s="36" t="n">
-        <v>83016.48162000001</v>
+        <v>83860.3763</v>
       </c>
       <c r="J61" s="37" t="n">
         <v>97181.74759</v>
       </c>
       <c r="K61" s="36" t="n">
-        <v>93630.71737</v>
+        <v>93630.71736999998</v>
       </c>
       <c r="L61" s="36" t="n">
-        <v>130525.70664</v>
+        <v>130555.73855</v>
       </c>
       <c r="M61" s="36" t="n">
-        <v>138418.11717</v>
-      </c>
-      <c r="N61" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="62" s="70" spans="1:14">
+        <v>139402.91369</v>
+      </c>
+      <c r="N61" s="36" t="n">
+        <v>205138.064</v>
+      </c>
+      <c r="O61" s="10" t="n"/>
+    </row>
+    <row r="62" ht="12.6" customHeight="1" s="70">
       <c r="A62" s="5" t="n"/>
-      <c r="B62" s="60" t="s">
-        <v>60</v>
+      <c r="B62" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C62" s="36" t="n">
         <v>59.77688</v>
@@ -3789,12 +3524,17 @@
       <c r="M62" s="36" t="n">
         <v>1600.32933</v>
       </c>
-      <c r="N62" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="63" s="70" spans="1:14">
+      <c r="N62" s="36" t="n">
+        <v>1948.635</v>
+      </c>
+      <c r="O62" s="10" t="n"/>
+    </row>
+    <row r="63" ht="12.6" customHeight="1" s="70">
       <c r="A63" s="5" t="n"/>
-      <c r="B63" s="64" t="s">
-        <v>17</v>
+      <c r="B63" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C63" s="22" t="n">
         <v>0</v>
@@ -3829,12 +3569,17 @@
       <c r="M63" s="22" t="n">
         <v>1236.73216</v>
       </c>
-      <c r="N63" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="64" s="70" spans="1:14">
+      <c r="N63" s="22" t="n">
+        <v>955.638</v>
+      </c>
+      <c r="O63" s="10" t="n"/>
+    </row>
+    <row r="64" ht="12.6" customHeight="1" s="70">
       <c r="A64" s="5" t="n"/>
-      <c r="B64" s="59" t="s">
-        <v>18</v>
+      <c r="B64" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C64" s="22" t="n">
         <v>5.5</v>
@@ -3869,12 +3614,17 @@
       <c r="M64" s="22" t="n">
         <v>155.5</v>
       </c>
-      <c r="N64" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="65" s="70" spans="1:14">
+      <c r="N64" s="22" t="n">
+        <v>582.907</v>
+      </c>
+      <c r="O64" s="10" t="n"/>
+    </row>
+    <row r="65" ht="12.6" customHeight="1" s="70">
       <c r="A65" s="5" t="n"/>
-      <c r="B65" s="64" t="s">
-        <v>19</v>
+      <c r="B65" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C65" s="22" t="n">
         <v>0</v>
@@ -3909,12 +3659,17 @@
       <c r="M65" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N65" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="66" s="70" spans="1:14">
+      <c r="N65" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" s="10" t="n"/>
+    </row>
+    <row r="66" ht="12.6" customHeight="1" s="70">
       <c r="A66" s="5" t="n"/>
-      <c r="B66" s="64" t="s">
-        <v>20</v>
+      <c r="B66" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C66" s="22" t="n">
         <v>0</v>
@@ -3949,15 +3704,20 @@
       <c r="M66" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N66" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="67" s="70" spans="1:14">
+      <c r="N66" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" s="10" t="n"/>
+    </row>
+    <row r="67" ht="12.6" customHeight="1" s="70">
       <c r="A67" s="5" t="n"/>
-      <c r="B67" s="59" t="s">
-        <v>21</v>
+      <c r="B67" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C67" s="22" t="n">
-        <v>54.27688</v>
+        <v>54.27688000000001</v>
       </c>
       <c r="D67" s="22" t="n">
         <v>81.85988999999999</v>
@@ -3989,12 +3749,17 @@
       <c r="M67" s="22" t="n">
         <v>208.09717</v>
       </c>
-      <c r="N67" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="68" s="70" spans="1:14">
+      <c r="N67" s="22" t="n">
+        <v>410.09</v>
+      </c>
+      <c r="O67" s="10" t="n"/>
+    </row>
+    <row r="68" ht="12.6" customHeight="1" s="70">
       <c r="A68" s="8" t="n"/>
-      <c r="B68" s="64" t="s">
-        <v>61</v>
+      <c r="B68" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C68" s="22" t="n">
         <v>0</v>
@@ -4029,12 +3794,17 @@
       <c r="M68" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N68" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="69" s="70" spans="1:14">
+      <c r="N68" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" s="10" t="n"/>
+    </row>
+    <row r="69" ht="12.6" customHeight="1" s="70">
       <c r="A69" s="5" t="n"/>
-      <c r="B69" s="57" t="s">
-        <v>62</v>
+      <c r="B69" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Other Long-Term Receivables</t>
+        </is>
       </c>
       <c r="C69" s="36" t="n">
         <v>474.16899</v>
@@ -4055,7 +3825,7 @@
         <v>1742.7883</v>
       </c>
       <c r="I69" s="36" t="n">
-        <v>2829.15426</v>
+        <v>2857.80426</v>
       </c>
       <c r="J69" s="37" t="n">
         <v>6632.26134</v>
@@ -4067,14 +3837,19 @@
         <v>653.85756</v>
       </c>
       <c r="M69" s="36" t="n">
-        <v>13582.24208</v>
-      </c>
-      <c r="N69" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="70" s="70" spans="1:14">
+        <v>13582.24198</v>
+      </c>
+      <c r="N69" s="36" t="n">
+        <v>13062.164</v>
+      </c>
+      <c r="O69" s="10" t="n"/>
+    </row>
+    <row r="70" ht="12.6" customHeight="1" s="70">
       <c r="A70" s="5" t="n"/>
-      <c r="B70" s="64" t="s">
-        <v>26</v>
+      <c r="B70" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C70" s="22" t="n">
         <v>385</v>
@@ -4107,14 +3882,19 @@
         <v>581.12739</v>
       </c>
       <c r="M70" s="22" t="n">
-        <v>802.63779</v>
-      </c>
-      <c r="N70" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="71" s="70" spans="1:14">
+        <v>802.6376899999999</v>
+      </c>
+      <c r="N70" s="22" t="n">
+        <v>350.92</v>
+      </c>
+      <c r="O70" s="10" t="n"/>
+    </row>
+    <row r="71" ht="12.6" customHeight="1" s="70">
       <c r="A71" s="8" t="n"/>
-      <c r="B71" s="59" t="s">
-        <v>27</v>
+      <c r="B71" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C71" s="22" t="n">
         <v>0</v>
@@ -4149,12 +3929,17 @@
       <c r="M71" s="22" t="n">
         <v>40</v>
       </c>
-      <c r="N71" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="72" s="70" spans="1:14">
+      <c r="N71" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" s="10" t="n"/>
+    </row>
+    <row r="72" ht="12.6" customHeight="1" s="70">
       <c r="A72" s="5" t="n"/>
-      <c r="B72" s="64" t="s">
-        <v>28</v>
+      <c r="B72" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C72" s="22" t="n">
         <v>66</v>
@@ -4175,7 +3960,7 @@
         <v>124</v>
       </c>
       <c r="I72" s="22" t="n">
-        <v>0</v>
+        <v>28.65</v>
       </c>
       <c r="J72" s="21" t="n">
         <v>28.65</v>
@@ -4189,12 +3974,17 @@
       <c r="M72" s="22" t="n">
         <v>12728.65</v>
       </c>
-      <c r="N72" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="73" s="70" spans="1:14">
+      <c r="N72" s="22" t="n">
+        <v>12710</v>
+      </c>
+      <c r="O72" s="10" t="n"/>
+    </row>
+    <row r="73" ht="12.6" customHeight="1" s="70">
       <c r="A73" s="5" t="n"/>
-      <c r="B73" s="64" t="s">
-        <v>29</v>
+      <c r="B73" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C73" s="22" t="n">
         <v>10</v>
@@ -4229,12 +4019,17 @@
       <c r="M73" s="22" t="n">
         <v>10.95429</v>
       </c>
-      <c r="N73" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="74" s="70" spans="1:14">
+      <c r="N73" s="22" t="n">
+        <v>1.244</v>
+      </c>
+      <c r="O73" s="10" t="n"/>
+    </row>
+    <row r="74" ht="12.6" customHeight="1" s="70">
       <c r="A74" s="5" t="n"/>
-      <c r="B74" s="64" t="s">
-        <v>30</v>
+      <c r="B74" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C74" s="22" t="n">
         <v>13.16899</v>
@@ -4269,12 +4064,17 @@
       <c r="M74" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N74" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="75" s="70" spans="1:14">
+      <c r="N74" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" s="10" t="n"/>
+    </row>
+    <row r="75" ht="12.6" customHeight="1" s="70">
       <c r="A75" s="5" t="n"/>
-      <c r="B75" s="64" t="s">
-        <v>63</v>
+      <c r="B75" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C75" s="22" t="n">
         <v>0</v>
@@ -4309,12 +4109,17 @@
       <c r="M75" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N75" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="76" s="70" spans="1:14">
+      <c r="N75" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" s="11" t="n"/>
+    </row>
+    <row r="76" ht="12.6" customHeight="1" s="70">
       <c r="A76" s="8" t="n"/>
-      <c r="B76" s="64" t="s">
-        <v>64</v>
+      <c r="B76" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C76" s="22" t="n">
         <v>0</v>
@@ -4349,12 +4154,17 @@
       <c r="M76" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N76" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="77" s="70" spans="1:14">
+      <c r="N76" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" s="10" t="n"/>
+    </row>
+    <row r="77" ht="12.6" customHeight="1" s="70">
       <c r="A77" s="5" t="n"/>
-      <c r="B77" s="60" t="s">
-        <v>65</v>
+      <c r="B77" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C77" s="23" t="n">
         <v>27022.43723</v>
@@ -4375,7 +4185,7 @@
         <v>2888.26077</v>
       </c>
       <c r="I77" s="23" t="n">
-        <v>18590.50152</v>
+        <v>18830.51077</v>
       </c>
       <c r="J77" s="33" t="n">
         <v>19131.50152</v>
@@ -4389,12 +4199,17 @@
       <c r="M77" s="23" t="n">
         <v>36220.80151999999</v>
       </c>
-      <c r="N77" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="78" s="70" spans="1:14">
+      <c r="N77" s="23" t="n">
+        <v>35960.802</v>
+      </c>
+      <c r="O77" s="10" t="n"/>
+    </row>
+    <row r="78" ht="12.6" customHeight="1" s="70">
       <c r="A78" s="5" t="n"/>
-      <c r="B78" s="64" t="s">
-        <v>66</v>
+      <c r="B78" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Non-Marketable Securities</t>
+        </is>
       </c>
       <c r="C78" s="22" t="n">
         <v>0.00925</v>
@@ -4415,7 +4230,7 @@
         <v>0.00925</v>
       </c>
       <c r="I78" s="22" t="n">
-        <v>0</v>
+        <v>0.00925</v>
       </c>
       <c r="J78" s="21" t="n">
         <v>0</v>
@@ -4429,12 +4244,17 @@
       <c r="M78" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N78" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="79" s="70" spans="1:14">
+      <c r="N78" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" s="10" t="n"/>
+    </row>
+    <row r="79" ht="12.6" customHeight="1" s="70">
       <c r="A79" s="5" t="n"/>
-      <c r="B79" s="59" t="s">
-        <v>67</v>
+      <c r="B79" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C79" s="22" t="n">
         <v>0</v>
@@ -4469,12 +4289,17 @@
       <c r="M79" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N79" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="80" s="70" spans="1:14">
+      <c r="N79" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" s="10" t="n"/>
+    </row>
+    <row r="80" ht="12.6" customHeight="1" s="70">
       <c r="A80" s="5" t="n"/>
-      <c r="B80" s="59" t="s">
-        <v>68</v>
+      <c r="B80" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Participations</t>
+        </is>
       </c>
       <c r="C80" s="22" t="n">
         <v>0</v>
@@ -4509,12 +4334,17 @@
       <c r="M80" s="22" t="n">
         <v>26054.57526</v>
       </c>
-      <c r="N80" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="81" s="70" spans="1:14">
+      <c r="N80" s="22" t="n">
+        <v>26054.575</v>
+      </c>
+      <c r="O80" s="10" t="n"/>
+    </row>
+    <row r="81" ht="12.6" customHeight="1" s="70">
       <c r="A81" s="5" t="n"/>
-      <c r="B81" s="59" t="s">
-        <v>69</v>
+      <c r="B81" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
+        </is>
       </c>
       <c r="C81" s="22" t="n">
         <v>0</v>
@@ -4549,12 +4379,17 @@
       <c r="M81" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N81" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="82" s="70" spans="1:14">
+      <c r="N81" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" s="10" t="n"/>
+    </row>
+    <row r="82" ht="12.6" customHeight="1" s="70">
       <c r="A82" s="8" t="n"/>
-      <c r="B82" s="59" t="s">
-        <v>70</v>
+      <c r="B82" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
+        </is>
       </c>
       <c r="C82" s="22" t="n">
         <v>0</v>
@@ -4589,12 +4424,17 @@
       <c r="M82" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N82" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="83" s="70" spans="1:14">
+      <c r="N82" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" s="10" t="n"/>
+    </row>
+    <row r="83" ht="12.6" customHeight="1" s="70">
       <c r="A83" s="5" t="n"/>
-      <c r="B83" s="64" t="s">
-        <v>71</v>
+      <c r="B83" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C83" s="22" t="n">
         <v>27021.98795</v>
@@ -4615,7 +4455,7 @@
         <v>1918.96953</v>
       </c>
       <c r="I83" s="22" t="n">
-        <v>8199.46953</v>
+        <v>8439.46953</v>
       </c>
       <c r="J83" s="21" t="n">
         <v>10739.44953</v>
@@ -4629,12 +4469,17 @@
       <c r="M83" s="22" t="n">
         <v>10726.94953</v>
       </c>
-      <c r="N83" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="84" s="70" spans="1:14">
+      <c r="N83" s="22" t="n">
+        <v>10466.95</v>
+      </c>
+      <c r="O83" s="10" t="n"/>
+    </row>
+    <row r="84" ht="12.6" customHeight="1" s="70">
       <c r="A84" s="5" t="n"/>
-      <c r="B84" s="59" t="s">
-        <v>72</v>
+      <c r="B84" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
+        </is>
       </c>
       <c r="C84" s="22" t="n">
         <v>0</v>
@@ -4669,12 +4514,17 @@
       <c r="M84" s="22" t="n">
         <v>899.98</v>
       </c>
-      <c r="N84" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="85" s="70" spans="1:14">
+      <c r="N84" s="22" t="n">
+        <v>899.98</v>
+      </c>
+      <c r="O84" s="10" t="n"/>
+    </row>
+    <row r="85" ht="12.6" customHeight="1" s="70">
       <c r="A85" s="5" t="n"/>
-      <c r="B85" s="59" t="s">
-        <v>73</v>
+      <c r="B85" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
+        </is>
       </c>
       <c r="C85" s="22" t="n">
         <v>0</v>
@@ -4709,12 +4559,17 @@
       <c r="M85" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N85" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="86" s="70" spans="1:14">
+      <c r="N85" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" s="10" t="n"/>
+    </row>
+    <row r="86" ht="12.6" customHeight="1" s="70">
       <c r="A86" s="5" t="n"/>
-      <c r="B86" s="64" t="s">
-        <v>74</v>
+      <c r="B86" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C86" s="22" t="n">
         <v>0.44003</v>
@@ -4723,38 +4578,43 @@
         <v>0.44003</v>
       </c>
       <c r="E86" s="22" t="n">
-        <v>339.2567300000001</v>
+        <v>339.25673</v>
       </c>
       <c r="F86" s="21" t="n">
-        <v>339.2567300000001</v>
+        <v>339.25673</v>
       </c>
       <c r="G86" s="22" t="n">
-        <v>339.2567300000001</v>
+        <v>339.25673</v>
       </c>
       <c r="H86" s="21" t="n">
-        <v>339.2567300000001</v>
+        <v>339.25673</v>
       </c>
       <c r="I86" s="22" t="n">
-        <v>339.2567300000001</v>
+        <v>339.25673</v>
       </c>
       <c r="J86" s="21" t="n">
-        <v>339.2567300000001</v>
+        <v>339.25673</v>
       </c>
       <c r="K86" s="22" t="n">
-        <v>339.2567300000001</v>
+        <v>339.25673</v>
       </c>
       <c r="L86" s="22" t="n">
-        <v>339.2567300000001</v>
+        <v>339.25673</v>
       </c>
       <c r="M86" s="22" t="n">
-        <v>339.2567300000001</v>
-      </c>
-      <c r="N86" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="87" s="70" spans="1:14">
+        <v>339.25673</v>
+      </c>
+      <c r="N86" s="22" t="n">
+        <v>339.257</v>
+      </c>
+      <c r="O86" s="11" t="n"/>
+    </row>
+    <row r="87" ht="12.6" customHeight="1" s="70">
       <c r="A87" s="8" t="n"/>
-      <c r="B87" s="59" t="s">
-        <v>75</v>
+      <c r="B87" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
+        </is>
       </c>
       <c r="C87" s="22" t="n">
         <v>0</v>
@@ -4789,12 +4649,17 @@
       <c r="M87" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N87" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="88" s="70" spans="1:14">
+      <c r="N87" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" s="10" t="n"/>
+    </row>
+    <row r="88" ht="12.6" customHeight="1" s="70">
       <c r="A88" s="8" t="n"/>
-      <c r="B88" s="60" t="s">
-        <v>76</v>
+      <c r="B88" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C88" s="23" t="n">
         <v>13258.71105</v>
@@ -4815,26 +4680,31 @@
         <v>36839.24736</v>
       </c>
       <c r="I88" s="23" t="n">
-        <v>47882.27669</v>
+        <v>48103.99788</v>
       </c>
       <c r="J88" s="33" t="n">
-        <v>50816.59555000001</v>
+        <v>50816.59555</v>
       </c>
       <c r="K88" s="23" t="n">
         <v>53235.88781</v>
       </c>
       <c r="L88" s="23" t="n">
-        <v>56986.2102</v>
+        <v>57013.22317999999</v>
       </c>
       <c r="M88" s="23" t="n">
-        <v>62088.88837</v>
-      </c>
-      <c r="N88" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="89" s="70" spans="1:14">
+        <v>62861.3988</v>
+      </c>
+      <c r="N88" s="23" t="n">
+        <v>81994.459</v>
+      </c>
+      <c r="O88" s="10" t="n"/>
+    </row>
+    <row r="89" ht="12.6" customHeight="1" s="70">
       <c r="A89" s="5" t="n"/>
-      <c r="B89" s="64" t="s">
-        <v>77</v>
+      <c r="B89" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Land</t>
+        </is>
       </c>
       <c r="C89" s="22" t="n">
         <v>21</v>
@@ -4869,12 +4739,17 @@
       <c r="M89" s="22" t="n">
         <v>2164.05393</v>
       </c>
-      <c r="N89" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="90" s="70" spans="1:14">
+      <c r="N89" s="22" t="n">
+        <v>2164.054</v>
+      </c>
+      <c r="O89" s="10" t="n"/>
+    </row>
+    <row r="90" ht="12.6" customHeight="1" s="70">
       <c r="A90" s="5" t="n"/>
-      <c r="B90" s="64" t="s">
-        <v>78</v>
+      <c r="B90" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Land Improvements</t>
+        </is>
       </c>
       <c r="C90" s="22" t="n">
         <v>0</v>
@@ -4909,12 +4784,17 @@
       <c r="M90" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N90" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="91" s="70" spans="1:14">
+      <c r="N90" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O90" s="10" t="n"/>
+    </row>
+    <row r="91" ht="12.6" customHeight="1" s="70">
       <c r="A91" s="5" t="n"/>
-      <c r="B91" s="64" t="s">
-        <v>79</v>
+      <c r="B91" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Buildings</t>
+        </is>
       </c>
       <c r="C91" s="22" t="n">
         <v>4637.48195</v>
@@ -4935,7 +4815,7 @@
         <v>10961.42195</v>
       </c>
       <c r="I91" s="22" t="n">
-        <v>15175.42398</v>
+        <v>15325.42398</v>
       </c>
       <c r="J91" s="21" t="n">
         <v>19944.53645</v>
@@ -4949,12 +4829,17 @@
       <c r="M91" s="22" t="n">
         <v>31103.32823</v>
       </c>
-      <c r="N91" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="92" s="70" spans="1:14">
+      <c r="N91" s="22" t="n">
+        <v>41258.165</v>
+      </c>
+      <c r="O91" s="10" t="n"/>
+    </row>
+    <row r="92" ht="12.6" customHeight="1" s="70">
       <c r="A92" s="5" t="n"/>
-      <c r="B92" s="64" t="s">
-        <v>80</v>
+      <c r="B92" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
+        </is>
       </c>
       <c r="C92" s="22" t="n">
         <v>2537.32706</v>
@@ -4981,20 +4866,25 @@
         <v>7036.1135</v>
       </c>
       <c r="K92" s="22" t="n">
-        <v>6930.10294</v>
+        <v>6930.102940000001</v>
       </c>
       <c r="L92" s="22" t="n">
         <v>6674.979220000001</v>
       </c>
       <c r="M92" s="22" t="n">
-        <v>7281.49626</v>
-      </c>
-      <c r="N92" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="93" s="70" spans="1:14">
+        <v>7301.629629999999</v>
+      </c>
+      <c r="N92" s="22" t="n">
+        <v>7477.455</v>
+      </c>
+      <c r="O92" s="10" t="n"/>
+    </row>
+    <row r="93" ht="12.6" customHeight="1" s="70">
       <c r="A93" s="5" t="n"/>
-      <c r="B93" s="64" t="s">
-        <v>81</v>
+      <c r="B93" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Motor Vehicles</t>
+        </is>
       </c>
       <c r="C93" s="22" t="n">
         <v>5591.21963</v>
@@ -5006,7 +4896,7 @@
         <v>7091.92686</v>
       </c>
       <c r="F93" s="21" t="n">
-        <v>8699.497059999998</v>
+        <v>8699.49706</v>
       </c>
       <c r="G93" s="22" t="n">
         <v>11107.19266</v>
@@ -5015,7 +4905,7 @@
         <v>11295.89423</v>
       </c>
       <c r="I93" s="22" t="n">
-        <v>11757.11932</v>
+        <v>11783.86154</v>
       </c>
       <c r="J93" s="21" t="n">
         <v>13699.45287</v>
@@ -5024,17 +4914,22 @@
         <v>14271.93225</v>
       </c>
       <c r="L93" s="22" t="n">
-        <v>14356.77088</v>
+        <v>14385.58444</v>
       </c>
       <c r="M93" s="22" t="n">
-        <v>14553.55583</v>
-      </c>
-      <c r="N93" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="94" s="70" spans="1:14">
+        <v>15361.18698</v>
+      </c>
+      <c r="N93" s="22" t="n">
+        <v>21510.346</v>
+      </c>
+      <c r="O93" s="10" t="n"/>
+    </row>
+    <row r="94" ht="12.6" customHeight="1" s="70">
       <c r="A94" s="5" t="n"/>
-      <c r="B94" s="59" t="s">
-        <v>82</v>
+      <c r="B94" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
+        </is>
       </c>
       <c r="C94" s="22" t="n">
         <v>11779.70385</v>
@@ -5055,7 +4950,7 @@
         <v>24416.87078</v>
       </c>
       <c r="I94" s="22" t="n">
-        <v>26515.45666</v>
+        <v>26639.51544</v>
       </c>
       <c r="J94" s="21" t="n">
         <v>28682.86058</v>
@@ -5064,17 +4959,22 @@
         <v>29680.3075</v>
       </c>
       <c r="L94" s="22" t="n">
-        <v>31600.35098</v>
+        <v>31606.55987999999</v>
       </c>
       <c r="M94" s="22" t="n">
-        <v>35667.32367000001</v>
-      </c>
-      <c r="N94" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="95" s="70" spans="1:14">
+        <v>36775.29257</v>
+      </c>
+      <c r="N94" s="22" t="n">
+        <v>43823.731</v>
+      </c>
+      <c r="O94" s="10" t="n"/>
+    </row>
+    <row r="95" ht="12.6" customHeight="1" s="70">
       <c r="A95" s="5" t="n"/>
-      <c r="B95" s="64" t="s">
-        <v>83</v>
+      <c r="B95" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C95" s="22" t="n">
         <v>3.56697</v>
@@ -5109,12 +5009,17 @@
       <c r="M95" s="22" t="n">
         <v>140.47469</v>
       </c>
-      <c r="N95" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="96" s="70" spans="1:14">
+      <c r="N95" s="22" t="n">
+        <v>111.524</v>
+      </c>
+      <c r="O95" s="10" t="n"/>
+    </row>
+    <row r="96" ht="12.6" customHeight="1" s="70">
       <c r="A96" s="5" t="n"/>
-      <c r="B96" s="59" t="s">
-        <v>84</v>
+      <c r="B96" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C96" s="22" t="n">
         <v>11394.0411</v>
@@ -5135,7 +5040,7 @@
         <v>24184.01664</v>
       </c>
       <c r="I96" s="22" t="n">
-        <v>26019.02811</v>
+        <v>26098.10792</v>
       </c>
       <c r="J96" s="21" t="n">
         <v>28331.81162</v>
@@ -5144,17 +5049,22 @@
         <v>30215.73135</v>
       </c>
       <c r="L96" s="22" t="n">
-        <v>30306.59729</v>
+        <v>30314.60677</v>
       </c>
       <c r="M96" s="22" t="n">
-        <v>33369.60051</v>
-      </c>
-      <c r="N96" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="97" s="70" spans="1:14">
+        <v>34596.13854</v>
+      </c>
+      <c r="N96" s="22" t="n">
+        <v>39396.189</v>
+      </c>
+      <c r="O96" s="10" t="n"/>
+    </row>
+    <row r="97" ht="12.6" customHeight="1" s="70">
       <c r="A97" s="5" t="n"/>
-      <c r="B97" s="64" t="s">
-        <v>85</v>
+      <c r="B97" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Assets in Construction</t>
+        </is>
       </c>
       <c r="C97" s="22" t="n">
         <v>6.68909</v>
@@ -5187,14 +5097,19 @@
         <v>4.56547</v>
       </c>
       <c r="M97" s="22" t="n">
-        <v>197.98258</v>
-      </c>
-      <c r="N97" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="98" s="70" spans="1:14">
+        <v>251.64925</v>
+      </c>
+      <c r="N97" s="22" t="n">
+        <v>301.743</v>
+      </c>
+      <c r="O97" s="11" t="n"/>
+    </row>
+    <row r="98" ht="12.6" customHeight="1" s="70">
       <c r="A98" s="8" t="n"/>
-      <c r="B98" s="64" t="s">
-        <v>86</v>
+      <c r="B98" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Advances Paid</t>
+        </is>
       </c>
       <c r="C98" s="22" t="n">
         <v>75.76360000000001</v>
@@ -5227,14 +5142,19 @@
         <v>4863.71272</v>
       </c>
       <c r="M98" s="22" t="n">
-        <v>4350.27369</v>
-      </c>
-      <c r="N98" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="99" s="70" spans="1:14">
+        <v>4359.922060000001</v>
+      </c>
+      <c r="N98" s="22" t="n">
+        <v>4743.63</v>
+      </c>
+      <c r="O98" s="10" t="n"/>
+    </row>
+    <row r="99" ht="12.6" customHeight="1" s="70">
       <c r="A99" s="5" t="n"/>
-      <c r="B99" s="60" t="s">
-        <v>87</v>
+      <c r="B99" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C99" s="23" t="n">
         <v>3986.00769</v>
@@ -5243,7 +5163,7 @@
         <v>5470.23622</v>
       </c>
       <c r="E99" s="23" t="n">
-        <v>7481.836389999999</v>
+        <v>7481.83639</v>
       </c>
       <c r="F99" s="33" t="n">
         <v>7144.8639</v>
@@ -5255,7 +5175,7 @@
         <v>9141.718370000001</v>
       </c>
       <c r="I99" s="23" t="n">
-        <v>8136.32479</v>
+        <v>8489.42971</v>
       </c>
       <c r="J99" s="33" t="n">
         <v>8422.58958</v>
@@ -5264,17 +5184,22 @@
         <v>8372.08007</v>
       </c>
       <c r="L99" s="23" t="n">
-        <v>8978.91635</v>
+        <v>8981.82382</v>
       </c>
       <c r="M99" s="23" t="n">
-        <v>10178.63325</v>
-      </c>
-      <c r="N99" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="100" s="70" spans="1:14">
+        <v>10195.60558</v>
+      </c>
+      <c r="N99" s="23" t="n">
+        <v>53074.425</v>
+      </c>
+      <c r="O99" s="10" t="n"/>
+    </row>
+    <row r="100" ht="12.6" customHeight="1" s="70">
       <c r="A100" s="5" t="n"/>
-      <c r="B100" s="64" t="s">
-        <v>88</v>
+      <c r="B100" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Know-How</t>
+        </is>
       </c>
       <c r="C100" s="22" t="n">
         <v>3448.41972</v>
@@ -5292,10 +5217,10 @@
         <v>6627.55865</v>
       </c>
       <c r="H100" s="21" t="n">
-        <v>8929.6394</v>
+        <v>8929.639399999998</v>
       </c>
       <c r="I100" s="22" t="n">
-        <v>7100.186970000001</v>
+        <v>7606.04591</v>
       </c>
       <c r="J100" s="21" t="n">
         <v>7855.777939999999</v>
@@ -5307,14 +5232,19 @@
         <v>8255.963659999999</v>
       </c>
       <c r="M100" s="22" t="n">
-        <v>8946.71501</v>
-      </c>
-      <c r="N100" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="101" s="70" spans="1:14">
+        <v>8954.143300000002</v>
+      </c>
+      <c r="N100" s="22" t="n">
+        <v>11478.82</v>
+      </c>
+      <c r="O100" s="10" t="n"/>
+    </row>
+    <row r="101" ht="12.6" customHeight="1" s="70">
       <c r="A101" s="5" t="n"/>
-      <c r="B101" s="64" t="s">
-        <v>89</v>
+      <c r="B101" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Goodwill</t>
+        </is>
       </c>
       <c r="C101" s="22" t="n">
         <v>642.50701</v>
@@ -5349,18 +5279,23 @@
       <c r="M101" s="22" t="n">
         <v>395.88864</v>
       </c>
-      <c r="N101" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="102" s="70" spans="1:14">
+      <c r="N101" s="22" t="n">
+        <v>15390.893</v>
+      </c>
+      <c r="O101" s="10" t="n"/>
+    </row>
+    <row r="102" ht="12.6" customHeight="1" s="70">
       <c r="A102" s="5" t="n"/>
-      <c r="B102" s="59" t="s">
-        <v>90</v>
+      <c r="B102" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
+        </is>
       </c>
       <c r="C102" s="22" t="n">
-        <v>67.95987</v>
+        <v>67.95987000000001</v>
       </c>
       <c r="D102" s="22" t="n">
-        <v>69.31688</v>
+        <v>69.31687999999998</v>
       </c>
       <c r="E102" s="22" t="n">
         <v>81.06425</v>
@@ -5378,23 +5313,28 @@
         <v>767.4601799999999</v>
       </c>
       <c r="J102" s="21" t="n">
-        <v>771.1162899999999</v>
+        <v>771.11629</v>
       </c>
       <c r="K102" s="22" t="n">
-        <v>779.9150199999999</v>
+        <v>779.91502</v>
       </c>
       <c r="L102" s="22" t="n">
-        <v>786.46987</v>
+        <v>789.37734</v>
       </c>
       <c r="M102" s="22" t="n">
-        <v>787.1745500000001</v>
-      </c>
-      <c r="N102" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="103" s="70" spans="1:14">
+        <v>791.7274999999998</v>
+      </c>
+      <c r="N102" s="22" t="n">
+        <v>807.186</v>
+      </c>
+      <c r="O102" s="10" t="n"/>
+    </row>
+    <row r="103" ht="12.6" customHeight="1" s="70">
       <c r="A103" s="8" t="n"/>
-      <c r="B103" s="59" t="s">
-        <v>91</v>
+      <c r="B103" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Research and Development Expenses</t>
+        </is>
       </c>
       <c r="C103" s="22" t="n">
         <v>0</v>
@@ -5429,12 +5369,17 @@
       <c r="M103" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N103" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="104" s="70" spans="1:14">
+      <c r="N103" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O103" s="10" t="n"/>
+    </row>
+    <row r="104" ht="12.6" customHeight="1" s="70">
       <c r="A104" s="5" t="n"/>
-      <c r="B104" s="66" t="s">
-        <v>92</v>
+      <c r="B104" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Expenses</t>
+        </is>
       </c>
       <c r="C104" s="22" t="n">
         <v>3220.03273</v>
@@ -5455,26 +5400,31 @@
         <v>7872.37233</v>
       </c>
       <c r="I104" s="22" t="n">
-        <v>8098.65016</v>
+        <v>8113.398480000001</v>
       </c>
       <c r="J104" s="21" t="n">
         <v>8510.69807</v>
       </c>
       <c r="K104" s="22" t="n">
-        <v>8764.469529999998</v>
+        <v>8764.46953</v>
       </c>
       <c r="L104" s="22" t="n">
         <v>9923.687519999999</v>
       </c>
       <c r="M104" s="22" t="n">
-        <v>12160.4682</v>
-      </c>
-      <c r="N104" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="105" s="70" spans="1:14">
+        <v>12202.44951</v>
+      </c>
+      <c r="N104" s="22" t="n">
+        <v>13689.075</v>
+      </c>
+      <c r="O104" s="10" t="n"/>
+    </row>
+    <row r="105" ht="12.6" customHeight="1" s="70">
       <c r="A105" s="5" t="n"/>
-      <c r="B105" s="66" t="s">
-        <v>93</v>
+      <c r="B105" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C105" s="22" t="n">
         <v>1400.45722</v>
@@ -5509,15 +5459,20 @@
       <c r="M105" s="22" t="n">
         <v>767.05403</v>
       </c>
-      <c r="N105" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="106" s="70" spans="1:14">
+      <c r="N105" s="22" t="n">
+        <v>42703.002</v>
+      </c>
+      <c r="O105" s="10" t="n"/>
+    </row>
+    <row r="106" ht="12.6" customHeight="1" s="70">
       <c r="A106" s="8" t="n"/>
-      <c r="B106" s="67" t="s">
-        <v>94</v>
+      <c r="B106" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C106" s="22" t="n">
-        <v>5050.069189999999</v>
+        <v>5050.06919</v>
       </c>
       <c r="D106" s="22" t="n">
         <v>6191.6382</v>
@@ -5532,10 +5487,10 @@
         <v>8932.807779999999</v>
       </c>
       <c r="H106" s="21" t="n">
-        <v>9856.53421</v>
+        <v>9856.534210000002</v>
       </c>
       <c r="I106" s="22" t="n">
-        <v>10438.24633</v>
+        <v>10605.74867</v>
       </c>
       <c r="J106" s="21" t="n">
         <v>11228.74432</v>
@@ -5547,14 +5502,19 @@
         <v>11177.15383</v>
       </c>
       <c r="M106" s="22" t="n">
-        <v>12930.93504</v>
-      </c>
-      <c r="N106" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="107" s="70" spans="1:14">
+        <v>12967.92526</v>
+      </c>
+      <c r="N106" s="22" t="n">
+        <v>31046.819</v>
+      </c>
+      <c r="O106" s="10" t="n"/>
+    </row>
+    <row r="107" ht="12.6" customHeight="1" s="70">
       <c r="A107" s="8" t="n"/>
-      <c r="B107" s="66" t="s">
-        <v>95</v>
+      <c r="B107" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Advances Paid</t>
+        </is>
       </c>
       <c r="C107" s="22" t="n">
         <v>256.70033</v>
@@ -5589,12 +5549,17 @@
       <c r="M107" s="22" t="n">
         <v>52.26786</v>
       </c>
-      <c r="N107" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="108" s="70" spans="1:14">
+      <c r="N107" s="22" t="n">
+        <v>52.268</v>
+      </c>
+      <c r="O107" s="10" t="n"/>
+    </row>
+    <row r="108" ht="12.6" customHeight="1" s="70">
       <c r="A108" s="5" t="n"/>
-      <c r="B108" s="68" t="s">
-        <v>96</v>
+      <c r="B108" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Assets Subject to Depletion</t>
+        </is>
       </c>
       <c r="C108" s="23" t="n">
         <v>15.15</v>
@@ -5629,12 +5594,17 @@
       <c r="M108" s="23" t="n">
         <v>15.15</v>
       </c>
-      <c r="N108" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="109" s="70" spans="1:14">
+      <c r="N108" s="23" t="n">
+        <v>15.15</v>
+      </c>
+      <c r="O108" s="10" t="n"/>
+    </row>
+    <row r="109" ht="12.6" customHeight="1" s="70">
       <c r="A109" s="5" t="n"/>
-      <c r="B109" s="66" t="s">
-        <v>97</v>
+      <c r="B109" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Exploration Expenses</t>
+        </is>
       </c>
       <c r="C109" s="22" t="n">
         <v>0</v>
@@ -5669,12 +5639,17 @@
       <c r="M109" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N109" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="110" s="70" spans="1:14">
+      <c r="N109" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O109" s="10" t="n"/>
+    </row>
+    <row r="110" ht="12.6" customHeight="1" s="70">
       <c r="A110" s="5" t="n"/>
-      <c r="B110" s="64" t="s">
-        <v>98</v>
+      <c r="B110" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Preparation and Development Expenses</t>
+        </is>
       </c>
       <c r="C110" s="22" t="n">
         <v>0</v>
@@ -5709,12 +5684,17 @@
       <c r="M110" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N110" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="111" s="70" spans="1:14">
+      <c r="N110" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O110" s="10" t="n"/>
+    </row>
+    <row r="111" ht="12.6" customHeight="1" s="70">
       <c r="A111" s="5" t="n"/>
-      <c r="B111" s="64" t="s">
-        <v>99</v>
+      <c r="B111" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
+        </is>
       </c>
       <c r="C111" s="22" t="n">
         <v>0</v>
@@ -5749,12 +5729,17 @@
       <c r="M111" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N111" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="112" s="70" spans="1:14">
+      <c r="N111" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O111" s="10" t="n"/>
+    </row>
+    <row r="112" ht="12.6" customHeight="1" s="70">
       <c r="A112" s="5" t="n"/>
-      <c r="B112" s="59" t="s">
-        <v>100</v>
+      <c r="B112" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
+        </is>
       </c>
       <c r="C112" s="22" t="n">
         <v>0</v>
@@ -5789,12 +5774,17 @@
       <c r="M112" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N112" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="113" s="70" spans="1:14">
+      <c r="N112" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O112" s="11" t="n"/>
+    </row>
+    <row r="113" ht="12.6" customHeight="1" s="70">
       <c r="A113" s="8" t="n"/>
-      <c r="B113" s="64" t="s">
-        <v>101</v>
+      <c r="B113" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Advances Paid</t>
+        </is>
       </c>
       <c r="C113" s="22" t="n">
         <v>15.15</v>
@@ -5829,12 +5819,17 @@
       <c r="M113" s="22" t="n">
         <v>15.15</v>
       </c>
-      <c r="N113" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="114" s="70" spans="1:14">
+      <c r="N113" s="22" t="n">
+        <v>15.15</v>
+      </c>
+      <c r="O113" s="10" t="n"/>
+    </row>
+    <row r="114" ht="12.6" customHeight="1" s="70">
       <c r="A114" s="5" t="n"/>
-      <c r="B114" s="60" t="s">
-        <v>102</v>
+      <c r="B114" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C114" s="23" t="n">
         <v>437.8876799999999</v>
@@ -5846,7 +5841,7 @@
         <v>1243.23464</v>
       </c>
       <c r="F114" s="33" t="n">
-        <v>6213.86595</v>
+        <v>6213.865950000001</v>
       </c>
       <c r="G114" s="23" t="n">
         <v>5996.981360000001</v>
@@ -5855,26 +5850,31 @@
         <v>4671.15519</v>
       </c>
       <c r="I114" s="23" t="n">
-        <v>3467.13834</v>
+        <v>3467.54766</v>
       </c>
       <c r="J114" s="33" t="n">
-        <v>4306.328199999999</v>
+        <v>4306.3282</v>
       </c>
       <c r="K114" s="23" t="n">
         <v>4109.19492</v>
       </c>
       <c r="L114" s="23" t="n">
-        <v>3537.29993</v>
+        <v>3537.41139</v>
       </c>
       <c r="M114" s="23" t="n">
-        <v>4118.64741</v>
-      </c>
-      <c r="N114" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="115" s="70" spans="1:14">
+        <v>4313.919900000001</v>
+      </c>
+      <c r="N114" s="23" t="n">
+        <v>8492.33</v>
+      </c>
+      <c r="O114" s="10" t="n"/>
+    </row>
+    <row r="115" ht="12.6" customHeight="1" s="70">
       <c r="A115" s="5" t="n"/>
-      <c r="B115" s="64" t="s">
-        <v>103</v>
+      <c r="B115" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Years</t>
+        </is>
       </c>
       <c r="C115" s="22" t="n">
         <v>437.8876799999999</v>
@@ -5886,7 +5886,7 @@
         <v>1243.23464</v>
       </c>
       <c r="F115" s="21" t="n">
-        <v>6213.86595</v>
+        <v>6213.865950000001</v>
       </c>
       <c r="G115" s="22" t="n">
         <v>5996.81762</v>
@@ -5895,26 +5895,31 @@
         <v>4671.15519</v>
       </c>
       <c r="I115" s="22" t="n">
-        <v>3467.13834</v>
+        <v>3467.54766</v>
       </c>
       <c r="J115" s="21" t="n">
-        <v>4306.328199999999</v>
+        <v>4306.3282</v>
       </c>
       <c r="K115" s="22" t="n">
         <v>4109.19492</v>
       </c>
       <c r="L115" s="22" t="n">
-        <v>3537.29993</v>
+        <v>3537.41139</v>
       </c>
       <c r="M115" s="22" t="n">
-        <v>4118.64741</v>
-      </c>
-      <c r="N115" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="116" s="70" spans="1:14">
+        <v>4313.9199</v>
+      </c>
+      <c r="N115" s="22" t="n">
+        <v>8492.33</v>
+      </c>
+      <c r="O115" s="11" t="n"/>
+    </row>
+    <row r="116" ht="12.6" customHeight="1" s="70">
       <c r="A116" s="8" t="n"/>
-      <c r="B116" s="64" t="s">
-        <v>48</v>
+      <c r="B116" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C116" s="22" t="n">
         <v>0</v>
@@ -5949,12 +5954,17 @@
       <c r="M116" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N116" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="117" s="70" spans="1:14">
+      <c r="N116" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O116" s="10" t="n"/>
+    </row>
+    <row r="117" ht="12.6" customHeight="1" s="70">
       <c r="A117" s="8" t="n"/>
-      <c r="B117" s="57" t="s">
-        <v>104</v>
+      <c r="B117" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Other Long-Term Assets</t>
+        </is>
       </c>
       <c r="C117" s="23" t="n">
         <v>-1.49795</v>
@@ -5987,14 +5997,19 @@
         <v>10894.07137</v>
       </c>
       <c r="M117" s="23" t="n">
-        <v>10613.42521</v>
-      </c>
-      <c r="N117" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="118" s="70" spans="1:14">
+        <v>10613.46658</v>
+      </c>
+      <c r="N117" s="23" t="n">
+        <v>10590.099</v>
+      </c>
+      <c r="O117" s="10" t="n"/>
+    </row>
+    <row r="118" ht="12.6" customHeight="1" s="70">
       <c r="A118" s="5" t="n"/>
-      <c r="B118" s="64" t="s">
-        <v>105</v>
+      <c r="B118" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
+        </is>
       </c>
       <c r="C118" s="22" t="n">
         <v>0</v>
@@ -6029,12 +6044,17 @@
       <c r="M118" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N118" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="119" s="70" spans="1:14">
+      <c r="N118" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O118" s="10" t="n"/>
+    </row>
+    <row r="119" ht="12.6" customHeight="1" s="70">
       <c r="A119" s="5" t="n"/>
-      <c r="B119" s="64" t="s">
-        <v>106</v>
+      <c r="B119" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C119" s="22" t="n">
         <v>0</v>
@@ -6069,12 +6089,17 @@
       <c r="M119" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N119" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="120" s="70" spans="1:14">
+      <c r="N119" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O119" s="10" t="n"/>
+    </row>
+    <row r="120" ht="12.6" customHeight="1" s="70">
       <c r="A120" s="5" t="n"/>
-      <c r="B120" s="64" t="s">
-        <v>107</v>
+      <c r="B120" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
+        </is>
       </c>
       <c r="C120" s="22" t="n">
         <v>0</v>
@@ -6109,12 +6134,17 @@
       <c r="M120" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N120" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="121" s="70" spans="1:14">
+      <c r="N120" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O120" s="10" t="n"/>
+    </row>
+    <row r="121" ht="12.6" customHeight="1" s="70">
       <c r="A121" s="5" t="n"/>
-      <c r="B121" s="64" t="s">
-        <v>108</v>
+      <c r="B121" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
+        </is>
       </c>
       <c r="C121" s="22" t="n">
         <v>0</v>
@@ -6149,12 +6179,17 @@
       <c r="M121" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N121" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="122" s="70" spans="1:14">
+      <c r="N121" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O121" s="10" t="n"/>
+    </row>
+    <row r="122" ht="12.6" customHeight="1" s="70">
       <c r="A122" s="5" t="n"/>
-      <c r="B122" s="59" t="s">
-        <v>109</v>
+      <c r="B122" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Prepaid taxes and funds</t>
+        </is>
       </c>
       <c r="C122" s="22" t="n">
         <v>0</v>
@@ -6187,14 +6222,19 @@
         <v>0</v>
       </c>
       <c r="M122" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N122" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="123" s="70" spans="1:14">
+        <v>0.04137</v>
+      </c>
+      <c r="N122" s="22" t="n">
+        <v>0.404</v>
+      </c>
+      <c r="O122" s="10" t="n"/>
+    </row>
+    <row r="123" ht="12.6" customHeight="1" s="70">
       <c r="A123" s="5" t="n"/>
-      <c r="B123" s="59" t="s">
-        <v>110</v>
+      <c r="B123" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other </t>
+        </is>
       </c>
       <c r="C123" s="22" t="n">
         <v>0</v>
@@ -6229,12 +6269,17 @@
       <c r="M123" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N123" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="124" s="70" spans="1:14">
+      <c r="N123" s="22" t="n">
+        <v>0.161</v>
+      </c>
+      <c r="O123" s="10" t="n"/>
+    </row>
+    <row r="124" ht="12.6" customHeight="1" s="70">
       <c r="A124" s="5" t="n"/>
-      <c r="B124" s="59" t="s">
-        <v>111</v>
+      <c r="B124" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
+        </is>
       </c>
       <c r="C124" s="22" t="n">
         <v>0</v>
@@ -6269,12 +6314,17 @@
       <c r="M124" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N124" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="125" s="70" spans="1:14">
+      <c r="N124" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O124" s="11" t="n"/>
+    </row>
+    <row r="125" ht="12.6" customHeight="1" s="70">
       <c r="A125" s="8" t="n"/>
-      <c r="B125" s="59" t="s">
-        <v>112</v>
+      <c r="B125" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
+        </is>
       </c>
       <c r="C125" s="22" t="n">
         <v>1.49795</v>
@@ -6309,12 +6359,17 @@
       <c r="M125" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N125" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="126" s="70" spans="1:14">
+      <c r="N125" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O125" s="10" t="n"/>
+    </row>
+    <row r="126" ht="12.6" customHeight="1" s="70">
       <c r="A126" s="8" t="n"/>
-      <c r="B126" s="59" t="s">
-        <v>113</v>
+      <c r="B126" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Suspence Account</t>
+        </is>
       </c>
       <c r="C126" s="22" t="n">
         <v>0</v>
@@ -6349,12 +6404,17 @@
       <c r="M126" s="22" t="n">
         <v>10613.42521</v>
       </c>
-      <c r="N126" s="10" t="n"/>
-    </row>
-    <row r="127" spans="1:14">
+      <c r="N126" s="22" t="n">
+        <v>10589.534</v>
+      </c>
+      <c r="O126" s="10" t="n"/>
+    </row>
+    <row r="127">
       <c r="A127" s="8" t="n"/>
-      <c r="B127" s="38" t="s">
-        <v>114</v>
+      <c r="B127" s="38" t="inlineStr">
+        <is>
+          <t>TOTAL ASSETS</t>
+        </is>
       </c>
       <c r="C127" s="23" t="n">
         <v>129620.46985</v>
@@ -6375,23 +6435,26 @@
         <v>231349.49441</v>
       </c>
       <c r="I127" s="23" t="n">
-        <v>274931.83974</v>
+        <v>289797.9984</v>
       </c>
       <c r="J127" s="33" t="n">
-        <v>336360.54861</v>
+        <v>336371.15653</v>
       </c>
       <c r="K127" s="23" t="n">
         <v>401903.30104</v>
       </c>
       <c r="L127" s="23" t="n">
-        <v>439520.8256099999</v>
+        <v>440392.10191</v>
       </c>
       <c r="M127" s="23" t="n">
-        <v>504912.63616</v>
-      </c>
-      <c r="N127" s="1" t="n"/>
-    </row>
-    <row r="128" spans="1:14">
+        <v>514148.58754</v>
+      </c>
+      <c r="N127" s="23" t="n">
+        <v>775780.036</v>
+      </c>
+      <c r="O127" s="1" t="n"/>
+    </row>
+    <row r="128">
       <c r="A128" s="18" t="n"/>
       <c r="B128" s="39" t="n"/>
       <c r="C128" s="40" t="n"/>
@@ -6405,11 +6468,14 @@
       <c r="K128" s="40" t="n"/>
       <c r="L128" s="40" t="n"/>
       <c r="M128" s="40" t="n"/>
-      <c r="N128" s="1" t="n"/>
-    </row>
-    <row r="129" spans="1:14">
-      <c r="A129" s="4" t="s">
-        <v>0</v>
+      <c r="N128" s="40" t="n"/>
+      <c r="O128" s="1" t="n"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="4" t="inlineStr">
+        <is>
+          <t>592-Sound recording and music publishing activities</t>
+        </is>
       </c>
       <c r="B129" s="29" t="n"/>
       <c r="C129" s="29" t="n"/>
@@ -6423,11 +6489,14 @@
       <c r="K129" s="29" t="n"/>
       <c r="L129" s="29" t="n"/>
       <c r="M129" s="29" t="n"/>
-      <c r="N129" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="130" s="70" spans="1:14">
-      <c r="A130" s="4" t="s">
-        <v>1</v>
+      <c r="N129" s="29" t="n"/>
+      <c r="O129" s="10" t="n"/>
+    </row>
+    <row r="130" ht="12.6" customHeight="1" s="70">
+      <c r="A130" s="4" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B130" s="63" t="n"/>
       <c r="C130" s="29" t="n"/>
@@ -6441,12 +6510,15 @@
       <c r="K130" s="29" t="n"/>
       <c r="L130" s="29" t="n"/>
       <c r="M130" s="29" t="n"/>
-      <c r="N130" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="131" s="70" spans="1:14">
+      <c r="N130" s="29" t="n"/>
+      <c r="O130" s="11" t="n"/>
+    </row>
+    <row r="131" ht="25.5" customHeight="1" s="70">
       <c r="A131" s="19" t="n"/>
-      <c r="B131" s="42" t="s">
-        <v>115</v>
+      <c r="B131" s="42" t="inlineStr">
+        <is>
+          <t>LIABILITIES</t>
+        </is>
       </c>
       <c r="C131" s="44" t="n">
         <v>2009</v>
@@ -6481,15 +6553,20 @@
       <c r="M131" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N131" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="132" s="70" spans="1:14">
+      <c r="N131" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O131" s="11" t="n"/>
+    </row>
+    <row r="132" ht="12.6" customHeight="1" s="70">
       <c r="A132" s="8" t="n"/>
-      <c r="B132" s="56" t="s">
-        <v>116</v>
+      <c r="B132" s="56" t="inlineStr">
+        <is>
+          <t>I- SHORT-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C132" s="23" t="n">
-        <v>62234.54963</v>
+        <v>62234.54962999999</v>
       </c>
       <c r="D132" s="23" t="n">
         <v>73295.31266</v>
@@ -6507,26 +6584,31 @@
         <v>146518.77597</v>
       </c>
       <c r="I132" s="23" t="n">
-        <v>168485.41493</v>
+        <v>183099.4825</v>
       </c>
       <c r="J132" s="33" t="n">
-        <v>213574.86207</v>
+        <v>213587.64595</v>
       </c>
       <c r="K132" s="23" t="n">
         <v>242998.86846</v>
       </c>
       <c r="L132" s="23" t="n">
-        <v>296355.37306</v>
+        <v>296877.40357</v>
       </c>
       <c r="M132" s="23" t="n">
-        <v>346160.75724</v>
-      </c>
-      <c r="N132" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="133" s="70" spans="1:14">
+        <v>353680.79602</v>
+      </c>
+      <c r="N132" s="23" t="n">
+        <v>419705.803</v>
+      </c>
+      <c r="O132" s="10" t="n"/>
+    </row>
+    <row r="133" ht="12.6" customHeight="1" s="70">
       <c r="A133" s="5" t="n"/>
-      <c r="B133" s="60" t="s">
-        <v>117</v>
+      <c r="B133" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C133" s="23" t="n">
         <v>3057.35903</v>
@@ -6535,7 +6617,7 @@
         <v>5840.49114</v>
       </c>
       <c r="E133" s="23" t="n">
-        <v>8525.940649999999</v>
+        <v>8525.94065</v>
       </c>
       <c r="F133" s="33" t="n">
         <v>8297.65799</v>
@@ -6547,7 +6629,7 @@
         <v>25595.13568</v>
       </c>
       <c r="I133" s="23" t="n">
-        <v>30983.43022</v>
+        <v>31181.94999</v>
       </c>
       <c r="J133" s="33" t="n">
         <v>35041.92772</v>
@@ -6559,14 +6641,19 @@
         <v>23073.86771</v>
       </c>
       <c r="M133" s="23" t="n">
-        <v>38388.71387000001</v>
-      </c>
-      <c r="N133" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="134" s="70" spans="1:14">
+        <v>38512.5897</v>
+      </c>
+      <c r="N133" s="23" t="n">
+        <v>52334.795</v>
+      </c>
+      <c r="O133" s="10" t="n"/>
+    </row>
+    <row r="134" ht="12.6" customHeight="1" s="70">
       <c r="A134" s="5" t="n"/>
-      <c r="B134" s="64" t="s">
-        <v>118</v>
+      <c r="B134" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C134" s="22" t="n">
         <v>3044.50988</v>
@@ -6587,7 +6674,7 @@
         <v>25364.55641</v>
       </c>
       <c r="I134" s="22" t="n">
-        <v>30014.48727</v>
+        <v>30213.00704</v>
       </c>
       <c r="J134" s="21" t="n">
         <v>34510.58299</v>
@@ -6599,14 +6686,19 @@
         <v>22247.05861</v>
       </c>
       <c r="M134" s="22" t="n">
-        <v>36887.52633</v>
-      </c>
-      <c r="N134" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="135" s="70" spans="1:14">
+        <v>37011.40216</v>
+      </c>
+      <c r="N134" s="22" t="n">
+        <v>50812.195</v>
+      </c>
+      <c r="O134" s="10" t="n"/>
+    </row>
+    <row r="135" ht="12.6" customHeight="1" s="70">
       <c r="A135" s="5" t="n"/>
-      <c r="B135" s="64" t="s">
-        <v>119</v>
+      <c r="B135" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C135" s="22" t="n">
         <v>4.16563</v>
@@ -6641,12 +6733,17 @@
       <c r="M135" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N135" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="136" s="70" spans="1:14">
+      <c r="N135" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O135" s="10" t="n"/>
+    </row>
+    <row r="136" ht="12.6" customHeight="1" s="70">
       <c r="A136" s="5" t="n"/>
-      <c r="B136" s="64" t="s">
-        <v>120</v>
+      <c r="B136" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C136" s="22" t="n">
         <v>4.16563</v>
@@ -6681,12 +6778,17 @@
       <c r="M136" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N136" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="137" s="70" spans="1:14">
+      <c r="N136" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O136" s="10" t="n"/>
+    </row>
+    <row r="137" ht="12.6" customHeight="1" s="70">
       <c r="A137" s="5" t="n"/>
-      <c r="B137" s="59" t="s">
-        <v>121</v>
+      <c r="B137" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
+        </is>
       </c>
       <c r="C137" s="22" t="n">
         <v>0</v>
@@ -6713,7 +6815,7 @@
         <v>372.88531</v>
       </c>
       <c r="K137" s="22" t="n">
-        <v>832.4855700000001</v>
+        <v>832.4855699999999</v>
       </c>
       <c r="L137" s="22" t="n">
         <v>727.68045</v>
@@ -6721,12 +6823,17 @@
       <c r="M137" s="22" t="n">
         <v>802.2381</v>
       </c>
-      <c r="N137" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="138" s="70" spans="1:14">
+      <c r="N137" s="22" t="n">
+        <v>616.977</v>
+      </c>
+      <c r="O137" s="10" t="n"/>
+    </row>
+    <row r="138" ht="12.6" customHeight="1" s="70">
       <c r="A138" s="5" t="n"/>
-      <c r="B138" s="59" t="s">
-        <v>122</v>
+      <c r="B138" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
+        </is>
       </c>
       <c r="C138" s="22" t="n">
         <v>0</v>
@@ -6761,12 +6868,17 @@
       <c r="M138" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N138" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="139" s="70" spans="1:14">
+      <c r="N138" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O138" s="10" t="n"/>
+    </row>
+    <row r="139" ht="12.6" customHeight="1" s="70">
       <c r="A139" s="5" t="n"/>
-      <c r="B139" s="59" t="s">
-        <v>123</v>
+      <c r="B139" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Commercial Papers Issued</t>
+        </is>
       </c>
       <c r="C139" s="22" t="n">
         <v>0</v>
@@ -6801,12 +6913,17 @@
       <c r="M139" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N139" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="140" s="70" spans="1:14">
+      <c r="N139" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O139" s="10" t="n"/>
+    </row>
+    <row r="140" ht="12.6" customHeight="1" s="70">
       <c r="A140" s="8" t="n"/>
-      <c r="B140" s="59" t="s">
-        <v>124</v>
+      <c r="B140" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C140" s="22" t="n">
         <v>0</v>
@@ -6841,12 +6958,17 @@
       <c r="M140" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N140" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="141" s="70" spans="1:14">
+      <c r="N140" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O140" s="10" t="n"/>
+    </row>
+    <row r="141" ht="12.6" customHeight="1" s="70">
       <c r="A141" s="5" t="n"/>
-      <c r="B141" s="59" t="s">
-        <v>125</v>
+      <c r="B141" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
+        </is>
       </c>
       <c r="C141" s="22" t="n">
         <v>0</v>
@@ -6881,12 +7003,17 @@
       <c r="M141" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N141" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="142" s="70" spans="1:14">
+      <c r="N141" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O141" s="11" t="n"/>
+    </row>
+    <row r="142" ht="12.6" customHeight="1" s="70">
       <c r="A142" s="8" t="n"/>
-      <c r="B142" s="59" t="s">
-        <v>126</v>
+      <c r="B142" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Liabilities</t>
+        </is>
       </c>
       <c r="C142" s="22" t="n">
         <v>12.84915</v>
@@ -6916,17 +7043,22 @@
         <v>242.97661</v>
       </c>
       <c r="L142" s="22" t="n">
-        <v>99.12865000000001</v>
+        <v>99.12864999999999</v>
       </c>
       <c r="M142" s="22" t="n">
-        <v>698.94944</v>
-      </c>
-      <c r="N142" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="143" s="70" spans="1:14">
+        <v>698.9494400000001</v>
+      </c>
+      <c r="N142" s="22" t="n">
+        <v>905.623</v>
+      </c>
+      <c r="O142" s="10" t="n"/>
+    </row>
+    <row r="143" ht="12.6" customHeight="1" s="70">
       <c r="A143" s="8" t="n"/>
-      <c r="B143" s="60" t="s">
-        <v>127</v>
+      <c r="B143" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C143" s="46" t="n">
         <v>24465.75569</v>
@@ -6935,38 +7067,43 @@
         <v>27426.65849</v>
       </c>
       <c r="E143" s="46" t="n">
-        <v>42895.11457</v>
+        <v>42895.11456999999</v>
       </c>
       <c r="F143" s="45" t="n">
         <v>59048.80316</v>
       </c>
       <c r="G143" s="46" t="n">
-        <v>63802.54929</v>
+        <v>63802.54929000001</v>
       </c>
       <c r="H143" s="45" t="n">
         <v>68640.63585999999</v>
       </c>
       <c r="I143" s="46" t="n">
-        <v>71679.41523999999</v>
+        <v>84166.95018000001</v>
       </c>
       <c r="J143" s="45" t="n">
-        <v>95824.80459999999</v>
+        <v>95824.80461000002</v>
       </c>
       <c r="K143" s="46" t="n">
         <v>104922.28306</v>
       </c>
       <c r="L143" s="46" t="n">
-        <v>105014.10492</v>
+        <v>105282.36626</v>
       </c>
       <c r="M143" s="46" t="n">
-        <v>135207.79019</v>
-      </c>
-      <c r="N143" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="144" s="70" spans="1:14">
+        <v>140098.42416</v>
+      </c>
+      <c r="N143" s="46" t="n">
+        <v>161842.092</v>
+      </c>
+      <c r="O143" s="10" t="n"/>
+    </row>
+    <row r="144" ht="12.6" customHeight="1" s="70">
       <c r="A144" s="8" t="n"/>
-      <c r="B144" s="64" t="s">
-        <v>128</v>
+      <c r="B144" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C144" s="25" t="n">
         <v>18086.54262</v>
@@ -6975,7 +7112,7 @@
         <v>18407.89719</v>
       </c>
       <c r="E144" s="25" t="n">
-        <v>34051.26777000001</v>
+        <v>34051.26777</v>
       </c>
       <c r="F144" s="24" t="n">
         <v>45155.40652</v>
@@ -6984,32 +7121,37 @@
         <v>43502.54303</v>
       </c>
       <c r="H144" s="24" t="n">
-        <v>55797.44646</v>
+        <v>55797.44645999999</v>
       </c>
       <c r="I144" s="25" t="n">
-        <v>63554.47397</v>
+        <v>76039.97291</v>
       </c>
       <c r="J144" s="24" t="n">
-        <v>84076.48727</v>
+        <v>84076.48728</v>
       </c>
       <c r="K144" s="25" t="n">
         <v>95405.87743000001</v>
       </c>
       <c r="L144" s="25" t="n">
-        <v>91102.61042</v>
+        <v>91332.06086</v>
       </c>
       <c r="M144" s="25" t="n">
-        <v>121956.27732</v>
-      </c>
-      <c r="N144" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="145" s="70" spans="1:14">
+        <v>124054.41631</v>
+      </c>
+      <c r="N144" s="25" t="n">
+        <v>151933.873</v>
+      </c>
+      <c r="O144" s="10" t="n"/>
+    </row>
+    <row r="145" ht="12.6" customHeight="1" s="70">
       <c r="A145" s="5" t="n"/>
-      <c r="B145" s="64" t="s">
-        <v>129</v>
+      <c r="B145" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C145" s="25" t="n">
-        <v>5863.93069</v>
+        <v>5863.930689999999</v>
       </c>
       <c r="D145" s="25" t="n">
         <v>8463.04083</v>
@@ -7027,7 +7169,7 @@
         <v>11055.60719</v>
       </c>
       <c r="I145" s="25" t="n">
-        <v>6806.00302</v>
+        <v>6807.89302</v>
       </c>
       <c r="J145" s="24" t="n">
         <v>8883.73508</v>
@@ -7039,14 +7181,19 @@
         <v>12000.32916</v>
       </c>
       <c r="M145" s="25" t="n">
-        <v>11631.50142</v>
-      </c>
-      <c r="N145" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="146" s="70" spans="1:14">
+        <v>14341.34142</v>
+      </c>
+      <c r="N145" s="25" t="n">
+        <v>8292.293</v>
+      </c>
+      <c r="O145" s="10" t="n"/>
+    </row>
+    <row r="146" ht="12.6" customHeight="1" s="70">
       <c r="A146" s="5" t="n"/>
-      <c r="B146" s="64" t="s">
-        <v>130</v>
+      <c r="B146" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C146" s="25" t="n">
         <v>0</v>
@@ -7081,12 +7228,17 @@
       <c r="M146" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="N146" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="147" s="70" spans="1:14">
+      <c r="N146" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O146" s="10" t="n"/>
+    </row>
+    <row r="147" ht="12.6" customHeight="1" s="70">
       <c r="A147" s="5" t="n"/>
-      <c r="B147" s="64" t="s">
-        <v>131</v>
+      <c r="B147" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C147" s="25" t="n">
         <v>0.0002</v>
@@ -7101,7 +7253,7 @@
         <v>751.25</v>
       </c>
       <c r="G147" s="25" t="n">
-        <v>950.9724100000001</v>
+        <v>950.97241</v>
       </c>
       <c r="H147" s="24" t="n">
         <v>329.72241</v>
@@ -7121,12 +7273,17 @@
       <c r="M147" s="25" t="n">
         <v>3.75</v>
       </c>
-      <c r="N147" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="148" s="70" spans="1:14">
+      <c r="N147" s="25" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O147" s="11" t="n"/>
+    </row>
+    <row r="148" ht="12.6" customHeight="1" s="70">
       <c r="A148" s="8" t="n"/>
-      <c r="B148" s="59" t="s">
-        <v>132</v>
+      <c r="B148" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C148" s="25" t="n">
         <v>515.28218</v>
@@ -7147,7 +7304,7 @@
         <v>1457.8598</v>
       </c>
       <c r="I148" s="25" t="n">
-        <v>1299.76131</v>
+        <v>1299.90731</v>
       </c>
       <c r="J148" s="24" t="n">
         <v>2860.83225</v>
@@ -7156,17 +7313,22 @@
         <v>1996.46866</v>
       </c>
       <c r="L148" s="25" t="n">
-        <v>1907.41534</v>
+        <v>1946.22624</v>
       </c>
       <c r="M148" s="25" t="n">
-        <v>1616.26145</v>
-      </c>
-      <c r="N148" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="149" s="70" spans="1:14">
+        <v>1698.91643</v>
+      </c>
+      <c r="N148" s="25" t="n">
+        <v>1612.176</v>
+      </c>
+      <c r="O148" s="10" t="n"/>
+    </row>
+    <row r="149" ht="12.6" customHeight="1" s="70">
       <c r="A149" s="8" t="n"/>
-      <c r="B149" s="57" t="s">
-        <v>133</v>
+      <c r="B149" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Short-Term Debts</t>
+        </is>
       </c>
       <c r="C149" s="23" t="n">
         <v>24398.93261</v>
@@ -7187,26 +7349,31 @@
         <v>22535.92314</v>
       </c>
       <c r="I149" s="23" t="n">
-        <v>26397.96393</v>
+        <v>27600.6294</v>
       </c>
       <c r="J149" s="33" t="n">
-        <v>30851.7993</v>
+        <v>30847.76561</v>
       </c>
       <c r="K149" s="23" t="n">
         <v>30140.95901</v>
       </c>
       <c r="L149" s="23" t="n">
-        <v>58306.37577999999</v>
+        <v>58332.28506</v>
       </c>
       <c r="M149" s="23" t="n">
-        <v>64712.90786</v>
-      </c>
-      <c r="N149" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="150" s="70" spans="1:14">
+        <v>65887.46991</v>
+      </c>
+      <c r="N149" s="23" t="n">
+        <v>69171.205</v>
+      </c>
+      <c r="O149" s="10" t="n"/>
+    </row>
+    <row r="150" ht="12.6" customHeight="1" s="70">
       <c r="A150" s="5" t="n"/>
-      <c r="B150" s="59" t="s">
-        <v>134</v>
+      <c r="B150" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C150" s="22" t="n">
         <v>12912.07901</v>
@@ -7227,26 +7394,31 @@
         <v>19187.36055</v>
       </c>
       <c r="I150" s="22" t="n">
-        <v>22393.67998</v>
+        <v>23533.79256</v>
       </c>
       <c r="J150" s="21" t="n">
-        <v>25784.53491</v>
+        <v>25776.45209</v>
       </c>
       <c r="K150" s="22" t="n">
-        <v>26067.04805999999</v>
+        <v>26067.04806</v>
       </c>
       <c r="L150" s="22" t="n">
-        <v>48723.4952</v>
+        <v>48746.50809999999</v>
       </c>
       <c r="M150" s="22" t="n">
-        <v>59113.34786</v>
-      </c>
-      <c r="N150" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="151" s="70" spans="1:14">
+        <v>60217.34884000001</v>
+      </c>
+      <c r="N150" s="22" t="n">
+        <v>56324.236</v>
+      </c>
+      <c r="O150" s="10" t="n"/>
+    </row>
+    <row r="151" ht="12.6" customHeight="1" s="70">
       <c r="A151" s="5" t="n"/>
-      <c r="B151" s="59" t="s">
-        <v>135</v>
+      <c r="B151" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C151" s="22" t="n">
         <v>417.1453</v>
@@ -7281,12 +7453,17 @@
       <c r="M151" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N151" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="152" s="70" spans="1:14">
+      <c r="N151" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O151" s="10" t="n"/>
+    </row>
+    <row r="152" ht="12.6" customHeight="1" s="70">
       <c r="A152" s="5" t="n"/>
-      <c r="B152" s="59" t="s">
-        <v>136</v>
+      <c r="B152" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C152" s="22" t="n">
         <v>0</v>
@@ -7321,12 +7498,17 @@
       <c r="M152" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N152" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="153" s="70" spans="1:14">
+      <c r="N152" s="22" t="n">
+        <v>121.82</v>
+      </c>
+      <c r="O152" s="10" t="n"/>
+    </row>
+    <row r="153" ht="12.6" customHeight="1" s="70">
       <c r="A153" s="5" t="n"/>
-      <c r="B153" s="59" t="s">
-        <v>137</v>
+      <c r="B153" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Amounts Owed to Employees</t>
+        </is>
       </c>
       <c r="C153" s="22" t="n">
         <v>151.53475</v>
@@ -7341,32 +7523,37 @@
         <v>408.60839</v>
       </c>
       <c r="G153" s="22" t="n">
-        <v>621.8282799999999</v>
+        <v>621.8282800000001</v>
       </c>
       <c r="H153" s="21" t="n">
         <v>1179.2547</v>
       </c>
       <c r="I153" s="22" t="n">
-        <v>1276.0397</v>
+        <v>1337.93956</v>
       </c>
       <c r="J153" s="21" t="n">
-        <v>1410.31044</v>
+        <v>1406.7424</v>
       </c>
       <c r="K153" s="22" t="n">
         <v>1599.82129</v>
       </c>
       <c r="L153" s="22" t="n">
-        <v>1931.28491</v>
+        <v>1932.88803</v>
       </c>
       <c r="M153" s="22" t="n">
-        <v>2078.99215</v>
-      </c>
-      <c r="N153" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="154" s="70" spans="1:14">
+        <v>2128.85225</v>
+      </c>
+      <c r="N153" s="22" t="n">
+        <v>2459.235</v>
+      </c>
+      <c r="O153" s="10" t="n"/>
+    </row>
+    <row r="154" ht="12.6" customHeight="1" s="70">
       <c r="A154" s="5" t="n"/>
-      <c r="B154" s="59" t="s">
-        <v>30</v>
+      <c r="B154" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C154" s="22" t="n">
         <v>10918.17355</v>
@@ -7387,26 +7574,31 @@
         <v>1796.40789</v>
       </c>
       <c r="I154" s="22" t="n">
-        <v>2728.24425</v>
+        <v>2728.89728</v>
       </c>
       <c r="J154" s="21" t="n">
-        <v>3656.953949999999</v>
+        <v>3664.57112</v>
       </c>
       <c r="K154" s="22" t="n">
         <v>2474.08966</v>
       </c>
       <c r="L154" s="22" t="n">
-        <v>7651.59567</v>
+        <v>7652.888930000001</v>
       </c>
       <c r="M154" s="22" t="n">
-        <v>3520.56785</v>
-      </c>
-      <c r="N154" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="155" s="70" spans="1:14">
+        <v>3541.26882</v>
+      </c>
+      <c r="N154" s="22" t="n">
+        <v>10265.914</v>
+      </c>
+      <c r="O154" s="11" t="n"/>
+    </row>
+    <row r="155" ht="12.6" customHeight="1" s="70">
       <c r="A155" s="8" t="n"/>
-      <c r="B155" s="64" t="s">
-        <v>138</v>
+      <c r="B155" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C155" s="22" t="n">
         <v>0</v>
@@ -7441,12 +7633,17 @@
       <c r="M155" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N155" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="156" s="70" spans="1:14">
+      <c r="N155" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O155" s="10" t="n"/>
+    </row>
+    <row r="156" ht="12.6" customHeight="1" s="70">
       <c r="A156" s="5" t="n"/>
-      <c r="B156" s="60" t="s">
-        <v>139</v>
+      <c r="B156" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Advances Received</t>
+        </is>
       </c>
       <c r="C156" s="23" t="n">
         <v>4785.6591</v>
@@ -7467,26 +7664,31 @@
         <v>10738.08234</v>
       </c>
       <c r="I156" s="23" t="n">
-        <v>15722.29087</v>
+        <v>15812.53713</v>
       </c>
       <c r="J156" s="33" t="n">
-        <v>20639.24805</v>
+        <v>20638.74105</v>
       </c>
       <c r="K156" s="23" t="n">
-        <v>33239.25281000001</v>
+        <v>33239.25281</v>
       </c>
       <c r="L156" s="23" t="n">
         <v>50931.0082</v>
       </c>
       <c r="M156" s="23" t="n">
-        <v>54009.58965</v>
-      </c>
-      <c r="N156" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="157" s="70" spans="1:14">
+        <v>54329.05517</v>
+      </c>
+      <c r="N156" s="23" t="n">
+        <v>62830.587</v>
+      </c>
+      <c r="O156" s="10" t="n"/>
+    </row>
+    <row r="157" ht="12.6" customHeight="1" s="70">
       <c r="A157" s="5" t="n"/>
-      <c r="B157" s="59" t="s">
-        <v>140</v>
+      <c r="B157" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C157" s="22" t="n">
         <v>3709.2882</v>
@@ -7507,26 +7709,31 @@
         <v>9306.58094</v>
       </c>
       <c r="I157" s="22" t="n">
-        <v>14083.63269</v>
+        <v>14172.80309</v>
       </c>
       <c r="J157" s="21" t="n">
-        <v>19211.44871</v>
+        <v>19210.94171</v>
       </c>
       <c r="K157" s="22" t="n">
         <v>30581.39584</v>
       </c>
       <c r="L157" s="22" t="n">
-        <v>49031.93108</v>
+        <v>49031.93107999999</v>
       </c>
       <c r="M157" s="22" t="n">
-        <v>51589.18462</v>
-      </c>
-      <c r="N157" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="158" s="70" spans="1:14">
+        <v>51892.78928</v>
+      </c>
+      <c r="N157" s="22" t="n">
+        <v>60931.702</v>
+      </c>
+      <c r="O157" s="6" t="n"/>
+    </row>
+    <row r="158" ht="12.6" customHeight="1" s="70">
       <c r="A158" s="15" t="n"/>
-      <c r="B158" s="64" t="s">
-        <v>141</v>
+      <c r="B158" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C158" s="22" t="n">
         <v>1076.3709</v>
@@ -7547,7 +7754,7 @@
         <v>1431.5014</v>
       </c>
       <c r="I158" s="22" t="n">
-        <v>1638.65818</v>
+        <v>1639.73404</v>
       </c>
       <c r="J158" s="21" t="n">
         <v>1427.79934</v>
@@ -7559,14 +7766,19 @@
         <v>1899.07712</v>
       </c>
       <c r="M158" s="22" t="n">
-        <v>2420.40503</v>
-      </c>
-      <c r="N158" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="159" s="70" spans="1:14">
+        <v>2436.26589</v>
+      </c>
+      <c r="N158" s="22" t="n">
+        <v>1898.885</v>
+      </c>
+      <c r="O158" s="11" t="n"/>
+    </row>
+    <row r="159" ht="12.6" customHeight="1" s="70">
       <c r="A159" s="8" t="n"/>
-      <c r="B159" s="60" t="s">
-        <v>142</v>
+      <c r="B159" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
+        </is>
       </c>
       <c r="C159" s="23" t="n">
         <v>0</v>
@@ -7601,12 +7813,17 @@
       <c r="M159" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N159" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="160" s="70" spans="1:14">
+      <c r="N159" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O159" s="10" t="n"/>
+    </row>
+    <row r="160" ht="12.6" customHeight="1" s="70">
       <c r="A160" s="8" t="n"/>
-      <c r="B160" s="64" t="s">
-        <v>143</v>
+      <c r="B160" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C160" s="22" t="n">
         <v>0</v>
@@ -7641,12 +7858,17 @@
       <c r="M160" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N160" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="161" s="70" spans="1:14">
+      <c r="N160" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O160" s="10" t="n"/>
+    </row>
+    <row r="161" ht="12.6" customHeight="1" s="70">
       <c r="A161" s="8" t="n"/>
-      <c r="B161" s="64" t="s">
-        <v>144</v>
+      <c r="B161" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C161" s="22" t="n">
         <v>0</v>
@@ -7681,24 +7903,29 @@
       <c r="M161" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N161" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="162" s="70" spans="1:14">
+      <c r="N161" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O161" s="10" t="n"/>
+    </row>
+    <row r="162" ht="12.6" customHeight="1" s="70">
       <c r="A162" s="5" t="n"/>
-      <c r="B162" s="60" t="s">
-        <v>145</v>
+      <c r="B162" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C162" s="23" t="n">
-        <v>3799.314290000001</v>
+        <v>3799.31429</v>
       </c>
       <c r="D162" s="23" t="n">
         <v>4929.53658</v>
       </c>
       <c r="E162" s="23" t="n">
-        <v>6401.423680000001</v>
+        <v>6401.42368</v>
       </c>
       <c r="F162" s="33" t="n">
-        <v>6551.761030000001</v>
+        <v>6551.76103</v>
       </c>
       <c r="G162" s="23" t="n">
         <v>8065.6637</v>
@@ -7707,29 +7934,34 @@
         <v>10060.24995</v>
       </c>
       <c r="I162" s="23" t="n">
-        <v>10262.51077</v>
+        <v>10897.6119</v>
       </c>
       <c r="J162" s="33" t="n">
-        <v>15560.67679</v>
+        <v>15578.00135</v>
       </c>
       <c r="K162" s="23" t="n">
         <v>16318.81768</v>
       </c>
       <c r="L162" s="23" t="n">
-        <v>16431.81406</v>
+        <v>16535.45449</v>
       </c>
       <c r="M162" s="23" t="n">
-        <v>20708.7354</v>
-      </c>
-      <c r="N162" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="163" s="70" spans="1:14">
+        <v>21438.39669</v>
+      </c>
+      <c r="N162" s="23" t="n">
+        <v>29280.603</v>
+      </c>
+      <c r="O162" s="10" t="n"/>
+    </row>
+    <row r="163" ht="12.6" customHeight="1" s="70">
       <c r="A163" s="5" t="n"/>
-      <c r="B163" s="59" t="s">
-        <v>146</v>
+      <c r="B163" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Taxes and Funds Payable </t>
+        </is>
       </c>
       <c r="C163" s="22" t="n">
-        <v>2481.175920000001</v>
+        <v>2481.17592</v>
       </c>
       <c r="D163" s="22" t="n">
         <v>2726.93627</v>
@@ -7744,29 +7976,34 @@
         <v>5127.458279999999</v>
       </c>
       <c r="H163" s="21" t="n">
-        <v>6256.810369999999</v>
+        <v>6256.81037</v>
       </c>
       <c r="I163" s="22" t="n">
-        <v>5998.470740000001</v>
+        <v>6324.65776</v>
       </c>
       <c r="J163" s="21" t="n">
-        <v>8832.9375</v>
+        <v>8843.552649999998</v>
       </c>
       <c r="K163" s="22" t="n">
-        <v>9649.492759999999</v>
+        <v>9649.492760000001</v>
       </c>
       <c r="L163" s="22" t="n">
-        <v>8879.032300000001</v>
+        <v>8980.658439999999</v>
       </c>
       <c r="M163" s="22" t="n">
-        <v>12892.20836</v>
-      </c>
-      <c r="N163" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="164" s="70" spans="1:14">
+        <v>13333.57261</v>
+      </c>
+      <c r="N163" s="22" t="n">
+        <v>19130.505</v>
+      </c>
+      <c r="O163" s="10" t="n"/>
+    </row>
+    <row r="164" ht="12.6" customHeight="1" s="70">
       <c r="A164" s="8" t="n"/>
-      <c r="B164" s="64" t="s">
-        <v>147</v>
+      <c r="B164" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Social Security Costs Payable</t>
+        </is>
       </c>
       <c r="C164" s="22" t="n">
         <v>362.61808</v>
@@ -7778,7 +8015,7 @@
         <v>784.82242</v>
       </c>
       <c r="F164" s="21" t="n">
-        <v>789.12252</v>
+        <v>789.1225199999999</v>
       </c>
       <c r="G164" s="22" t="n">
         <v>1136.18301</v>
@@ -7787,26 +8024,31 @@
         <v>1094.80502</v>
       </c>
       <c r="I164" s="22" t="n">
-        <v>1349.38901</v>
+        <v>1354.4964</v>
       </c>
       <c r="J164" s="21" t="n">
-        <v>1612.08314</v>
+        <v>1618.79255</v>
       </c>
       <c r="K164" s="22" t="n">
         <v>1767.96945</v>
       </c>
       <c r="L164" s="22" t="n">
-        <v>2153.5592</v>
+        <v>2155.57349</v>
       </c>
       <c r="M164" s="22" t="n">
-        <v>2981.88797</v>
-      </c>
-      <c r="N164" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="165" s="70" spans="1:14">
+        <v>3000.06759</v>
+      </c>
+      <c r="N164" s="22" t="n">
+        <v>3027.102</v>
+      </c>
+      <c r="O164" s="10" t="n"/>
+    </row>
+    <row r="165" ht="12.6" customHeight="1" s="70">
       <c r="A165" s="8" t="n"/>
-      <c r="B165" s="59" t="s">
-        <v>148</v>
+      <c r="B165" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
+        </is>
       </c>
       <c r="C165" s="22" t="n">
         <v>955.4583400000001</v>
@@ -7827,7 +8069,7 @@
         <v>2696.61521</v>
       </c>
       <c r="I165" s="22" t="n">
-        <v>2897.10532</v>
+        <v>3200.91204</v>
       </c>
       <c r="J165" s="21" t="n">
         <v>5091.82463</v>
@@ -7836,17 +8078,22 @@
         <v>4889.98074</v>
       </c>
       <c r="L165" s="22" t="n">
-        <v>5361.86854</v>
+        <v>5361.868539999999</v>
       </c>
       <c r="M165" s="22" t="n">
-        <v>4807.72772</v>
-      </c>
-      <c r="N165" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="166" s="70" spans="1:14">
+        <v>5077.84514</v>
+      </c>
+      <c r="N165" s="22" t="n">
+        <v>6971.288</v>
+      </c>
+      <c r="O165" s="10" t="n"/>
+    </row>
+    <row r="166" ht="12.6" customHeight="1" s="70">
       <c r="A166" s="8" t="n"/>
-      <c r="B166" s="59" t="s">
-        <v>149</v>
+      <c r="B166" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C166" s="22" t="n">
         <v>0.06195000000000001</v>
@@ -7881,12 +8128,17 @@
       <c r="M166" s="22" t="n">
         <v>26.91135</v>
       </c>
-      <c r="N166" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="167" s="70" spans="1:14">
+      <c r="N166" s="22" t="n">
+        <v>151.708</v>
+      </c>
+      <c r="O166" s="10" t="n"/>
+    </row>
+    <row r="167" ht="12.6" customHeight="1" s="70">
       <c r="A167" s="8" t="n"/>
-      <c r="B167" s="60" t="s">
-        <v>150</v>
+      <c r="B167" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C167" s="23" t="n">
         <v>1558.77807</v>
@@ -7913,20 +8165,25 @@
         <v>5321.82821</v>
       </c>
       <c r="K167" s="23" t="n">
-        <v>4954.36697</v>
+        <v>4954.366970000001</v>
       </c>
       <c r="L167" s="23" t="n">
-        <v>5461.542189999999</v>
+        <v>5573.76165</v>
       </c>
       <c r="M167" s="23" t="n">
-        <v>7456.070809999999</v>
-      </c>
-      <c r="N167" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="168" s="70" spans="1:14">
+        <v>7569.87122</v>
+      </c>
+      <c r="N167" s="23" t="n">
+        <v>8974.813</v>
+      </c>
+      <c r="O167" s="11" t="n"/>
+    </row>
+    <row r="168" ht="12.6" customHeight="1" s="70">
       <c r="A168" s="8" t="n"/>
-      <c r="B168" s="59" t="s">
-        <v>151</v>
+      <c r="B168" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
+        </is>
       </c>
       <c r="C168" s="22" t="n">
         <v>1336.83589</v>
@@ -7947,29 +8204,34 @@
         <v>3117.53773</v>
       </c>
       <c r="I168" s="22" t="n">
-        <v>2902.40841</v>
+        <v>3031.03628</v>
       </c>
       <c r="J168" s="21" t="n">
         <v>7432.665849999999</v>
       </c>
       <c r="K168" s="22" t="n">
-        <v>5660.77411</v>
+        <v>5660.774109999999</v>
       </c>
       <c r="L168" s="22" t="n">
-        <v>6001.94515</v>
+        <v>6118.116480000001</v>
       </c>
       <c r="M168" s="22" t="n">
-        <v>8813.594720000001</v>
-      </c>
-      <c r="N168" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="169" s="70" spans="1:14">
+        <v>8934.12941</v>
+      </c>
+      <c r="N168" s="22" t="n">
+        <v>16533.998</v>
+      </c>
+      <c r="O168" s="10" t="n"/>
+    </row>
+    <row r="169" ht="12.6" customHeight="1" s="70">
       <c r="A169" s="5" t="n"/>
-      <c r="B169" s="59" t="s">
-        <v>152</v>
+      <c r="B169" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
+        </is>
       </c>
       <c r="C169" s="22" t="n">
-        <v>748.62074</v>
+        <v>748.6207400000001</v>
       </c>
       <c r="D169" s="22" t="n">
         <v>1419.73905</v>
@@ -7987,26 +8249,31 @@
         <v>2430.00278</v>
       </c>
       <c r="I169" s="22" t="n">
-        <v>2012.9331</v>
+        <v>2141.56097</v>
       </c>
       <c r="J169" s="21" t="n">
-        <v>6664.798210000001</v>
+        <v>6664.79821</v>
       </c>
       <c r="K169" s="22" t="n">
         <v>4657.77618</v>
       </c>
       <c r="L169" s="22" t="n">
-        <v>5150.41876</v>
+        <v>5154.370629999999</v>
       </c>
       <c r="M169" s="22" t="n">
-        <v>7947.943429999999</v>
-      </c>
-      <c r="N169" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="170" s="70" spans="1:14">
+        <v>7954.677710000001</v>
+      </c>
+      <c r="N169" s="22" t="n">
+        <v>13977.213</v>
+      </c>
+      <c r="O169" s="10" t="n"/>
+    </row>
+    <row r="170" ht="12.6" customHeight="1" s="70">
       <c r="A170" s="5" t="n"/>
-      <c r="B170" s="59" t="s">
-        <v>153</v>
+      <c r="B170" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Provisions for Severance Payments </t>
+        </is>
       </c>
       <c r="C170" s="22" t="n">
         <v>0</v>
@@ -8041,15 +8308,20 @@
       <c r="M170" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N170" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="171" s="70" spans="1:14">
+      <c r="N170" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O170" s="10" t="n"/>
+    </row>
+    <row r="171" ht="12.6" customHeight="1" s="70">
       <c r="A171" s="5" t="n"/>
-      <c r="B171" s="59" t="s">
-        <v>154</v>
+      <c r="B171" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Provisions for Costs</t>
+        </is>
       </c>
       <c r="C171" s="22" t="n">
-        <v>967.86808</v>
+        <v>967.8680800000001</v>
       </c>
       <c r="D171" s="22" t="n">
         <v>1753.62342</v>
@@ -8081,12 +8353,17 @@
       <c r="M171" s="22" t="n">
         <v>6590.419519999999</v>
       </c>
-      <c r="N171" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="172" s="70" spans="1:14">
+      <c r="N171" s="22" t="n">
+        <v>6418.028</v>
+      </c>
+      <c r="O171" s="10" t="n"/>
+    </row>
+    <row r="172" ht="12.6" customHeight="1" s="70">
       <c r="A172" s="5" t="n"/>
-      <c r="B172" s="59" t="s">
-        <v>155</v>
+      <c r="B172" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C172" s="22" t="n">
         <v>2.69484</v>
@@ -8121,12 +8398,17 @@
       <c r="M172" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N172" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="173" s="70" spans="1:14">
+      <c r="N172" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O172" s="10" t="n"/>
+    </row>
+    <row r="173" ht="12.6" customHeight="1" s="70">
       <c r="A173" s="8" t="n"/>
-      <c r="B173" s="57" t="s">
-        <v>156</v>
+      <c r="B173" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
+        </is>
       </c>
       <c r="C173" s="23" t="n">
         <v>168.75084</v>
@@ -8147,7 +8429,7 @@
         <v>5540.36048</v>
       </c>
       <c r="I173" s="23" t="n">
-        <v>8078.23015</v>
+        <v>8078.230149999999</v>
       </c>
       <c r="J173" s="33" t="n">
         <v>10334.03793</v>
@@ -8156,17 +8438,22 @@
         <v>10240.0682</v>
       </c>
       <c r="L173" s="23" t="n">
-        <v>37128.94801</v>
+        <v>37140.94801</v>
       </c>
       <c r="M173" s="23" t="n">
-        <v>25591.17531</v>
-      </c>
-      <c r="N173" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="174" s="70" spans="1:14">
+        <v>25759.17531</v>
+      </c>
+      <c r="N173" s="23" t="n">
+        <v>35187.678</v>
+      </c>
+      <c r="O173" s="11" t="n"/>
+    </row>
+    <row r="174" ht="12.6" customHeight="1" s="70">
       <c r="A174" s="8" t="n"/>
-      <c r="B174" s="59" t="s">
-        <v>157</v>
+      <c r="B174" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
+        </is>
       </c>
       <c r="C174" s="22" t="n">
         <v>0</v>
@@ -8199,14 +8486,19 @@
         <v>26852.03607</v>
       </c>
       <c r="M174" s="22" t="n">
-        <v>5808.167280000001</v>
-      </c>
-      <c r="N174" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="175" s="70" spans="1:14">
+        <v>5928.167280000001</v>
+      </c>
+      <c r="N174" s="22" t="n">
+        <v>5273.639</v>
+      </c>
+      <c r="O174" s="10" t="n"/>
+    </row>
+    <row r="175" ht="12.6" customHeight="1" s="70">
       <c r="A175" s="5" t="n"/>
-      <c r="B175" s="64" t="s">
-        <v>158</v>
+      <c r="B175" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C175" s="22" t="n">
         <v>168.75084</v>
@@ -8230,23 +8522,28 @@
         <v>3844.92491</v>
       </c>
       <c r="J175" s="21" t="n">
-        <v>4738.60164</v>
+        <v>4738.601640000001</v>
       </c>
       <c r="K175" s="22" t="n">
         <v>7317.663759999999</v>
       </c>
       <c r="L175" s="22" t="n">
-        <v>10276.91194</v>
+        <v>10288.91194</v>
       </c>
       <c r="M175" s="22" t="n">
-        <v>19783.00803</v>
-      </c>
-      <c r="N175" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="176" s="70" spans="1:14">
+        <v>19831.00803</v>
+      </c>
+      <c r="N175" s="22" t="n">
+        <v>29914.039</v>
+      </c>
+      <c r="O175" s="10" t="n"/>
+    </row>
+    <row r="176" ht="12.6" customHeight="1" s="70">
       <c r="A176" s="5" t="n"/>
-      <c r="B176" s="57" t="s">
-        <v>159</v>
+      <c r="B176" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
+        </is>
       </c>
       <c r="C176" s="23" t="n">
         <v>0</v>
@@ -8279,14 +8576,19 @@
         <v>7.71219</v>
       </c>
       <c r="M176" s="23" t="n">
-        <v>85.77414999999999</v>
-      </c>
-      <c r="N176" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="177" s="70" spans="1:14">
+        <v>85.81386000000001</v>
+      </c>
+      <c r="N176" s="23" t="n">
+        <v>84.03</v>
+      </c>
+      <c r="O176" s="11" t="n"/>
+    </row>
+    <row r="177" ht="12.6" customHeight="1" s="70">
       <c r="A177" s="8" t="n"/>
-      <c r="B177" s="59" t="s">
-        <v>160</v>
+      <c r="B177" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Calculated</t>
+        </is>
       </c>
       <c r="C177" s="22" t="n">
         <v>0</v>
@@ -8298,7 +8600,7 @@
         <v>0.08618000000000001</v>
       </c>
       <c r="F177" s="21" t="n">
-        <v>61.74232000000001</v>
+        <v>61.74232</v>
       </c>
       <c r="G177" s="22" t="n">
         <v>0</v>
@@ -8319,14 +8621,19 @@
         <v>7.1097</v>
       </c>
       <c r="M177" s="22" t="n">
-        <v>85.77414999999999</v>
-      </c>
-      <c r="N177" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="178" s="70" spans="1:14">
+        <v>85.81386000000001</v>
+      </c>
+      <c r="N177" s="22" t="n">
+        <v>84.03</v>
+      </c>
+      <c r="O177" s="10" t="n"/>
+    </row>
+    <row r="178" ht="12.6" customHeight="1" s="70">
       <c r="A178" s="5" t="n"/>
-      <c r="B178" s="64" t="s">
-        <v>106</v>
+      <c r="B178" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C178" s="22" t="n">
         <v>0</v>
@@ -8361,12 +8668,17 @@
       <c r="M178" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N178" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="179" s="70" spans="1:14">
+      <c r="N178" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O178" s="10" t="n"/>
+    </row>
+    <row r="179" ht="12.6" customHeight="1" s="70">
       <c r="A179" s="8" t="n"/>
-      <c r="B179" s="64" t="s">
-        <v>161</v>
+      <c r="B179" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
+        </is>
       </c>
       <c r="C179" s="22" t="n">
         <v>0</v>
@@ -8401,12 +8713,17 @@
       <c r="M179" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N179" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="180" s="70" spans="1:14">
+      <c r="N179" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O179" s="10" t="n"/>
+    </row>
+    <row r="180" ht="12.6" customHeight="1" s="70">
       <c r="A180" s="5" t="n"/>
-      <c r="B180" s="64" t="s">
-        <v>162</v>
+      <c r="B180" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
+        </is>
       </c>
       <c r="C180" s="22" t="n">
         <v>0</v>
@@ -8441,12 +8758,17 @@
       <c r="M180" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N180" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="181" s="70" spans="1:14">
+      <c r="N180" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O180" s="10" t="n"/>
+    </row>
+    <row r="181" ht="12.6" customHeight="1" s="70">
       <c r="A181" s="5" t="n"/>
-      <c r="B181" s="65" t="s">
-        <v>30</v>
+      <c r="B181" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C181" s="35" t="n">
         <v>0</v>
@@ -8481,12 +8803,17 @@
       <c r="M181" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N181" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="182" s="70" spans="1:14">
+      <c r="N181" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O181" s="10" t="n"/>
+    </row>
+    <row r="182" ht="12.6" customHeight="1" s="70">
       <c r="A182" s="5" t="n"/>
-      <c r="B182" s="60" t="s">
-        <v>163</v>
+      <c r="B182" s="60" t="inlineStr">
+        <is>
+          <t>II- LONG-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C182" s="23" t="n">
         <v>34637.49917</v>
@@ -8495,10 +8822,10 @@
         <v>35602.90255999999</v>
       </c>
       <c r="E182" s="23" t="n">
-        <v>41969.08531999999</v>
+        <v>41969.08532</v>
       </c>
       <c r="F182" s="33" t="n">
-        <v>47470.30652</v>
+        <v>47470.30652000001</v>
       </c>
       <c r="G182" s="23" t="n">
         <v>17709.14825</v>
@@ -8519,14 +8846,19 @@
         <v>34261.70306</v>
       </c>
       <c r="M182" s="23" t="n">
-        <v>20833.20055</v>
-      </c>
-      <c r="N182" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="183" s="70" spans="1:14">
+        <v>20942.06113</v>
+      </c>
+      <c r="N182" s="23" t="n">
+        <v>31344.594</v>
+      </c>
+      <c r="O182" s="11" t="n"/>
+    </row>
+    <row r="183" ht="12.6" customHeight="1" s="70">
       <c r="A183" s="8" t="n"/>
-      <c r="B183" s="60" t="s">
-        <v>117</v>
+      <c r="B183" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C183" s="23" t="n">
         <v>31682.20786</v>
@@ -8559,14 +8891,19 @@
         <v>19815.57585</v>
       </c>
       <c r="M183" s="23" t="n">
-        <v>6594.900570000001</v>
-      </c>
-      <c r="N183" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="184" s="70" spans="1:14">
+        <v>6653.76114</v>
+      </c>
+      <c r="N183" s="23" t="n">
+        <v>13695.267</v>
+      </c>
+      <c r="O183" s="11" t="n"/>
+    </row>
+    <row r="184" ht="12.6" customHeight="1" s="70">
       <c r="A184" s="8" t="n"/>
-      <c r="B184" s="66" t="s">
-        <v>118</v>
+      <c r="B184" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C184" s="22" t="n">
         <v>30995.82733</v>
@@ -8599,14 +8936,19 @@
         <v>19815.57585</v>
       </c>
       <c r="M184" s="22" t="n">
-        <v>6594.900570000001</v>
-      </c>
-      <c r="N184" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="185" s="70" spans="1:14">
+        <v>6653.76114</v>
+      </c>
+      <c r="N184" s="22" t="n">
+        <v>13695.267</v>
+      </c>
+      <c r="O184" s="10" t="n"/>
+    </row>
+    <row r="185" ht="12.6" customHeight="1" s="70">
       <c r="A185" s="8" t="n"/>
-      <c r="B185" s="66" t="s">
-        <v>119</v>
+      <c r="B185" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C185" s="22" t="n">
         <v>869.07703</v>
@@ -8641,12 +8983,17 @@
       <c r="M185" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N185" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="186" s="70" spans="1:14">
+      <c r="N185" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O185" s="10" t="n"/>
+    </row>
+    <row r="186" ht="12" customHeight="1" s="70">
       <c r="A186" s="5" t="n"/>
-      <c r="B186" s="66" t="s">
-        <v>120</v>
+      <c r="B186" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C186" s="22" t="n">
         <v>182.6965</v>
@@ -8681,12 +9028,17 @@
       <c r="M186" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N186" s="10" t="n"/>
-    </row>
-    <row r="187" spans="1:14">
+      <c r="N186" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O186" s="10" t="n"/>
+    </row>
+    <row r="187">
       <c r="A187" s="5" t="n"/>
-      <c r="B187" s="67" t="s">
-        <v>164</v>
+      <c r="B187" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Bonds Issued</t>
+        </is>
       </c>
       <c r="C187" s="22" t="n">
         <v>0</v>
@@ -8721,12 +9073,17 @@
       <c r="M187" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N187" s="10" t="n"/>
-    </row>
-    <row r="188" spans="1:14">
+      <c r="N187" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O187" s="10" t="n"/>
+    </row>
+    <row r="188">
       <c r="A188" s="8" t="n"/>
-      <c r="B188" s="67" t="s">
-        <v>165</v>
+      <c r="B188" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C188" s="22" t="n">
         <v>0</v>
@@ -8761,12 +9118,17 @@
       <c r="M188" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N188" s="10" t="n"/>
-    </row>
-    <row r="189" spans="1:14">
+      <c r="N188" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O188" s="10" t="n"/>
+    </row>
+    <row r="189">
       <c r="A189" s="5" t="n"/>
-      <c r="B189" s="66" t="s">
-        <v>166</v>
+      <c r="B189" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
+        </is>
       </c>
       <c r="C189" s="22" t="n">
         <v>0</v>
@@ -8801,12 +9163,17 @@
       <c r="M189" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N189" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="190" s="70" spans="1:14">
+      <c r="N189" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O189" s="10" t="n"/>
+    </row>
+    <row r="190" ht="12.6" customHeight="1" s="70">
       <c r="A190" s="5" t="n"/>
-      <c r="B190" s="67" t="s">
-        <v>167</v>
+      <c r="B190" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Financial Liabilities </t>
+        </is>
       </c>
       <c r="C190" s="22" t="n">
         <v>0</v>
@@ -8841,12 +9208,17 @@
       <c r="M190" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N190" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="191" s="70" spans="1:14">
+      <c r="N190" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O190" s="1" t="n"/>
+    </row>
+    <row r="191" ht="12.6" customHeight="1" s="70">
       <c r="A191" s="5" t="n"/>
-      <c r="B191" s="68" t="s">
-        <v>127</v>
+      <c r="B191" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C191" s="23" t="n">
         <v>47.6622</v>
@@ -8881,12 +9253,17 @@
       <c r="M191" s="23" t="n">
         <v>1067.89</v>
       </c>
-      <c r="N191" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="192" s="70" spans="1:14">
+      <c r="N191" s="23" t="n">
+        <v>684.232</v>
+      </c>
+      <c r="O191" s="11" t="n"/>
+    </row>
+    <row r="192" ht="12.6" customHeight="1" s="70">
       <c r="A192" s="8" t="n"/>
-      <c r="B192" s="66" t="s">
-        <v>128</v>
+      <c r="B192" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C192" s="22" t="n">
         <v>47.6622</v>
@@ -8921,12 +9298,17 @@
       <c r="M192" s="22" t="n">
         <v>701.89</v>
       </c>
-      <c r="N192" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="193" s="70" spans="1:14">
+      <c r="N192" s="22" t="n">
+        <v>251.89</v>
+      </c>
+      <c r="O192" s="10" t="n"/>
+    </row>
+    <row r="193" ht="12.6" customHeight="1" s="70">
       <c r="A193" s="5" t="n"/>
-      <c r="B193" s="66" t="s">
-        <v>129</v>
+      <c r="B193" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C193" s="22" t="n">
         <v>0</v>
@@ -8961,12 +9343,17 @@
       <c r="M193" s="22" t="n">
         <v>366</v>
       </c>
-      <c r="N193" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="194" s="70" spans="1:14">
+      <c r="N193" s="22" t="n">
+        <v>429.525</v>
+      </c>
+      <c r="O193" s="10" t="n"/>
+    </row>
+    <row r="194" ht="12.6" customHeight="1" s="70">
       <c r="A194" s="5" t="n"/>
-      <c r="B194" s="66" t="s">
-        <v>130</v>
+      <c r="B194" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C194" s="22" t="n">
         <v>0</v>
@@ -9001,12 +9388,17 @@
       <c r="M194" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N194" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="195" s="70" spans="1:14">
+      <c r="N194" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O194" s="10" t="n"/>
+    </row>
+    <row r="195" ht="12.6" customHeight="1" s="70">
       <c r="A195" s="5" t="n"/>
-      <c r="B195" s="66" t="s">
-        <v>131</v>
+      <c r="B195" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C195" s="22" t="n">
         <v>0</v>
@@ -9041,12 +9433,17 @@
       <c r="M195" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N195" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="196" s="70" spans="1:14">
+      <c r="N195" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O195" s="10" t="n"/>
+    </row>
+    <row r="196" ht="12.6" customHeight="1" s="70">
       <c r="A196" s="5" t="n"/>
-      <c r="B196" s="59" t="s">
-        <v>132</v>
+      <c r="B196" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C196" s="22" t="n">
         <v>0</v>
@@ -9081,12 +9478,17 @@
       <c r="M196" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N196" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="197" s="70" spans="1:14">
+      <c r="N196" s="22" t="n">
+        <v>2.817</v>
+      </c>
+      <c r="O196" s="10" t="n"/>
+    </row>
+    <row r="197" ht="12.6" customHeight="1" s="70">
       <c r="A197" s="5" t="n"/>
-      <c r="B197" s="57" t="s">
-        <v>168</v>
+      <c r="B197" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Long-Term Debts</t>
+        </is>
       </c>
       <c r="C197" s="23" t="n">
         <v>2906.9452</v>
@@ -9116,17 +9518,22 @@
         <v>3165.67992</v>
       </c>
       <c r="L197" s="23" t="n">
-        <v>7679.01595</v>
+        <v>7679.015949999999</v>
       </c>
       <c r="M197" s="23" t="n">
-        <v>9114.907870000001</v>
-      </c>
-      <c r="N197" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="198" s="70" spans="1:14">
+        <v>9164.907879999999</v>
+      </c>
+      <c r="N197" s="23" t="n">
+        <v>10419.117</v>
+      </c>
+      <c r="O197" s="11" t="n"/>
+    </row>
+    <row r="198" ht="12.6" customHeight="1" s="70">
       <c r="A198" s="8" t="n"/>
-      <c r="B198" s="59" t="s">
-        <v>134</v>
+      <c r="B198" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C198" s="22" t="n">
         <v>2895.39644</v>
@@ -9159,14 +9566,19 @@
         <v>6470.14293</v>
       </c>
       <c r="M198" s="22" t="n">
-        <v>8224.29782</v>
-      </c>
-      <c r="N198" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="199" s="70" spans="1:14">
+        <v>8274.29783</v>
+      </c>
+      <c r="N198" s="22" t="n">
+        <v>9076.969999999999</v>
+      </c>
+      <c r="O198" s="10" t="n"/>
+    </row>
+    <row r="199" ht="12.6" customHeight="1" s="70">
       <c r="A199" s="5" t="n"/>
-      <c r="B199" s="59" t="s">
-        <v>135</v>
+      <c r="B199" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C199" s="22" t="n">
         <v>0</v>
@@ -9201,12 +9613,17 @@
       <c r="M199" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N199" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="200" s="70" spans="1:14">
+      <c r="N199" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O199" s="10" t="n"/>
+    </row>
+    <row r="200" ht="12.6" customHeight="1" s="70">
       <c r="A200" s="8" t="n"/>
-      <c r="B200" s="59" t="s">
-        <v>136</v>
+      <c r="B200" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C200" s="22" t="n">
         <v>0</v>
@@ -9241,12 +9658,17 @@
       <c r="M200" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N200" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="201" s="70" spans="1:14">
+      <c r="N200" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O200" s="10" t="n"/>
+    </row>
+    <row r="201" ht="12.6" customHeight="1" s="70">
       <c r="A201" s="8" t="n"/>
-      <c r="B201" s="59" t="s">
-        <v>169</v>
+      <c r="B201" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other </t>
+        </is>
       </c>
       <c r="C201" s="22" t="n">
         <v>0</v>
@@ -9281,12 +9703,17 @@
       <c r="M201" s="22" t="n">
         <v>370.09822</v>
       </c>
-      <c r="N201" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="202" s="70" spans="1:14">
+      <c r="N201" s="22" t="n">
+        <v>541.925</v>
+      </c>
+      <c r="O201" s="10" t="n"/>
+    </row>
+    <row r="202" ht="12.6" customHeight="1" s="70">
       <c r="A202" s="5" t="n"/>
-      <c r="B202" s="64" t="s">
-        <v>170</v>
+      <c r="B202" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C202" s="22" t="n">
         <v>0</v>
@@ -9321,12 +9748,17 @@
       <c r="M202" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N202" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="203" s="70" spans="1:14">
+      <c r="N202" s="22" t="n">
+        <v>4.992</v>
+      </c>
+      <c r="O202" s="10" t="n"/>
+    </row>
+    <row r="203" ht="12.6" customHeight="1" s="70">
       <c r="A203" s="5" t="n"/>
-      <c r="B203" s="59" t="s">
-        <v>171</v>
+      <c r="B203" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
+        </is>
       </c>
       <c r="C203" s="22" t="n">
         <v>11.54876</v>
@@ -9361,12 +9793,17 @@
       <c r="M203" s="22" t="n">
         <v>520.5118299999999</v>
       </c>
-      <c r="N203" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="204" s="70" spans="1:14">
+      <c r="N203" s="22" t="n">
+        <v>805.2140000000001</v>
+      </c>
+      <c r="O203" s="10" t="n"/>
+    </row>
+    <row r="204" ht="12.6" customHeight="1" s="70">
       <c r="A204" s="8" t="n"/>
-      <c r="B204" s="60" t="s">
-        <v>172</v>
+      <c r="B204" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D-Advances Received</t>
+        </is>
       </c>
       <c r="C204" s="23" t="n">
         <v>0</v>
@@ -9401,12 +9838,17 @@
       <c r="M204" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N204" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="205" s="70" spans="1:14">
+      <c r="N204" s="23" t="n">
+        <v>1138.905</v>
+      </c>
+      <c r="O204" s="11" t="n"/>
+    </row>
+    <row r="205" ht="12.6" customHeight="1" s="70">
       <c r="A205" s="8" t="n"/>
-      <c r="B205" s="59" t="s">
-        <v>140</v>
+      <c r="B205" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C205" s="22" t="n">
         <v>0</v>
@@ -9441,12 +9883,17 @@
       <c r="M205" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N205" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="206" s="70" spans="1:14">
+      <c r="N205" s="22" t="n">
+        <v>1138.905</v>
+      </c>
+      <c r="O205" s="10" t="n"/>
+    </row>
+    <row r="206" ht="12.6" customHeight="1" s="70">
       <c r="A206" s="5" t="n"/>
-      <c r="B206" s="64" t="s">
-        <v>141</v>
+      <c r="B206" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C206" s="22" t="n">
         <v>0</v>
@@ -9481,12 +9928,17 @@
       <c r="M206" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N206" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="207" s="70" spans="1:14">
+      <c r="N206" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O206" s="10" t="n"/>
+    </row>
+    <row r="207" ht="12.6" customHeight="1" s="70">
       <c r="A207" s="5" t="n"/>
-      <c r="B207" s="60" t="s">
-        <v>173</v>
+      <c r="B207" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C207" s="23" t="n">
         <v>0</v>
@@ -9521,12 +9973,17 @@
       <c r="M207" s="23" t="n">
         <v>96.76861</v>
       </c>
-      <c r="N207" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="208" s="70" spans="1:14">
+      <c r="N207" s="23" t="n">
+        <v>100.734</v>
+      </c>
+      <c r="O207" s="11" t="n"/>
+    </row>
+    <row r="208" ht="12.6" customHeight="1" s="70">
       <c r="A208" s="8" t="n"/>
-      <c r="B208" s="59" t="s">
-        <v>174</v>
+      <c r="B208" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Severance Payments</t>
+        </is>
       </c>
       <c r="C208" s="22" t="n">
         <v>0</v>
@@ -9561,12 +10018,17 @@
       <c r="M208" s="22" t="n">
         <v>96.76861</v>
       </c>
-      <c r="N208" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="209" s="70" spans="1:14">
+      <c r="N208" s="22" t="n">
+        <v>100.734</v>
+      </c>
+      <c r="O208" s="10" t="n"/>
+    </row>
+    <row r="209" ht="12.6" customHeight="1" s="70">
       <c r="A209" s="5" t="n"/>
-      <c r="B209" s="59" t="s">
-        <v>175</v>
+      <c r="B209" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Provisions </t>
+        </is>
       </c>
       <c r="C209" s="22" t="n">
         <v>0</v>
@@ -9601,12 +10063,17 @@
       <c r="M209" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N209" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="210" s="70" spans="1:14">
+      <c r="N209" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O209" s="10" t="n"/>
+    </row>
+    <row r="210" ht="12.6" customHeight="1" s="70">
       <c r="A210" s="8" t="n"/>
-      <c r="B210" s="57" t="s">
-        <v>176</v>
+      <c r="B210" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C210" s="23" t="n">
         <v>0.68391</v>
@@ -9636,17 +10103,22 @@
         <v>14522.11937</v>
       </c>
       <c r="L210" s="23" t="n">
-        <v>6645.620970000001</v>
+        <v>6645.62097</v>
       </c>
       <c r="M210" s="23" t="n">
         <v>3958.7335</v>
       </c>
-      <c r="N210" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="211" s="70" spans="1:14">
+      <c r="N210" s="23" t="n">
+        <v>5306.206</v>
+      </c>
+      <c r="O210" s="11" t="n"/>
+    </row>
+    <row r="211" ht="12.6" customHeight="1" s="70">
       <c r="A211" s="8" t="n"/>
-      <c r="B211" s="64" t="s">
-        <v>177</v>
+      <c r="B211" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income</t>
+        </is>
       </c>
       <c r="C211" s="22" t="n">
         <v>0</v>
@@ -9670,23 +10142,28 @@
         <v>6042.13862</v>
       </c>
       <c r="J211" s="21" t="n">
-        <v>9007.897550000002</v>
+        <v>9007.89755</v>
       </c>
       <c r="K211" s="22" t="n">
         <v>14496.46937</v>
       </c>
       <c r="L211" s="22" t="n">
-        <v>6598.07887</v>
+        <v>6598.078869999999</v>
       </c>
       <c r="M211" s="22" t="n">
         <v>3920.65389</v>
       </c>
-      <c r="N211" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="212" s="70" spans="1:14">
+      <c r="N211" s="22" t="n">
+        <v>5190.607</v>
+      </c>
+      <c r="O211" s="10" t="n"/>
+    </row>
+    <row r="212" ht="12.6" customHeight="1" s="70">
       <c r="A212" s="8" t="n"/>
-      <c r="B212" s="64" t="s">
-        <v>158</v>
+      <c r="B212" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C212" s="22" t="n">
         <v>0.68391</v>
@@ -9721,12 +10198,17 @@
       <c r="M212" s="22" t="n">
         <v>38.07961</v>
       </c>
-      <c r="N212" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="213" s="70" spans="1:14">
+      <c r="N212" s="22" t="n">
+        <v>115.599</v>
+      </c>
+      <c r="O212" s="1" t="n"/>
+    </row>
+    <row r="213" ht="12.6" customHeight="1" s="70">
       <c r="A213" s="15" t="n"/>
-      <c r="B213" s="57" t="s">
-        <v>178</v>
+      <c r="B213" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
+        </is>
       </c>
       <c r="C213" s="23" t="n">
         <v>0</v>
@@ -9761,12 +10243,17 @@
       <c r="M213" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N213" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="214" s="70" spans="1:14">
+      <c r="N213" s="23" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="O213" s="6" t="n"/>
+    </row>
+    <row r="214" ht="12.6" customHeight="1" s="70">
       <c r="A214" s="15" t="n"/>
-      <c r="B214" s="64" t="s">
-        <v>179</v>
+      <c r="B214" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
+        </is>
       </c>
       <c r="C214" s="22" t="n">
         <v>0</v>
@@ -9801,12 +10288,17 @@
       <c r="M214" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N214" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="215" s="70" spans="1:14">
+      <c r="N214" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O214" s="1" t="n"/>
+    </row>
+    <row r="215" ht="12.6" customHeight="1" s="70">
       <c r="A215" s="16" t="n"/>
-      <c r="B215" s="64" t="s">
-        <v>180</v>
+      <c r="B215" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
+        </is>
       </c>
       <c r="C215" s="22" t="n">
         <v>0</v>
@@ -9841,12 +10333,17 @@
       <c r="M215" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N215" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="216" s="70" spans="1:14">
+      <c r="N215" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O215" s="1" t="n"/>
+    </row>
+    <row r="216" ht="12.6" customHeight="1" s="70">
       <c r="A216" s="16" t="n"/>
-      <c r="B216" s="65" t="s">
-        <v>181</v>
+      <c r="B216" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other </t>
+        </is>
       </c>
       <c r="C216" s="35" t="n">
         <v>0</v>
@@ -9881,12 +10378,17 @@
       <c r="M216" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N216" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="217" s="70" spans="1:14">
+      <c r="N216" s="35" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="O216" s="10" t="n"/>
+    </row>
+    <row r="217" ht="12.6" customHeight="1" s="70">
       <c r="A217" s="5" t="n"/>
-      <c r="B217" s="60" t="s">
-        <v>182</v>
+      <c r="B217" s="60" t="inlineStr">
+        <is>
+          <t>III- SHAREHOLDERS EQUITY</t>
+        </is>
       </c>
       <c r="C217" s="23" t="n">
         <v>32748.42105</v>
@@ -9907,26 +10409,31 @@
         <v>70161.72295</v>
       </c>
       <c r="I217" s="23" t="n">
-        <v>92531.34167000001</v>
+        <v>92783.43276</v>
       </c>
       <c r="J217" s="33" t="n">
-        <v>103811.84287</v>
+        <v>103809.66691</v>
       </c>
       <c r="K217" s="23" t="n">
         <v>115446.03746</v>
       </c>
       <c r="L217" s="23" t="n">
-        <v>108903.74949</v>
+        <v>109252.99528</v>
       </c>
       <c r="M217" s="23" t="n">
-        <v>137918.67837</v>
-      </c>
-      <c r="N217" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="218" s="70" spans="1:14">
+        <v>139525.73039</v>
+      </c>
+      <c r="N217" s="23" t="n">
+        <v>324729.639</v>
+      </c>
+      <c r="O217" s="11" t="n"/>
+    </row>
+    <row r="218" ht="12.6" customHeight="1" s="70">
       <c r="A218" s="8" t="n"/>
-      <c r="B218" s="60" t="s">
-        <v>183</v>
+      <c r="B218" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Paid-in Capital</t>
+        </is>
       </c>
       <c r="C218" s="23" t="n">
         <v>25358.25438</v>
@@ -9944,13 +10451,13 @@
         <v>54977.99978</v>
       </c>
       <c r="H218" s="33" t="n">
-        <v>57511.16658999999</v>
+        <v>57511.16659</v>
       </c>
       <c r="I218" s="23" t="n">
-        <v>52545.51635999999</v>
+        <v>53311.75414</v>
       </c>
       <c r="J218" s="33" t="n">
-        <v>58879.41026999999</v>
+        <v>58887.49822</v>
       </c>
       <c r="K218" s="23" t="n">
         <v>62337.76053</v>
@@ -9959,14 +10466,19 @@
         <v>58783.52768</v>
       </c>
       <c r="M218" s="23" t="n">
-        <v>65686.49156000001</v>
-      </c>
-      <c r="N218" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="219" s="70" spans="1:14">
+        <v>67014.94224999999</v>
+      </c>
+      <c r="N218" s="23" t="n">
+        <v>118590.412</v>
+      </c>
+      <c r="O218" s="11" t="n"/>
+    </row>
+    <row r="219" ht="12.6" customHeight="1" s="70">
       <c r="A219" s="8" t="n"/>
-      <c r="B219" s="64" t="s">
-        <v>184</v>
+      <c r="B219" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Subscribed Capital </t>
+        </is>
       </c>
       <c r="C219" s="22" t="n">
         <v>26634.30101</v>
@@ -9975,10 +10487,10 @@
         <v>32124.55</v>
       </c>
       <c r="E219" s="22" t="n">
-        <v>48932.35101</v>
+        <v>48932.35101000001</v>
       </c>
       <c r="F219" s="21" t="n">
-        <v>51637.21101</v>
+        <v>51637.21101000001</v>
       </c>
       <c r="G219" s="22" t="n">
         <v>56481.21</v>
@@ -9987,26 +10499,31 @@
         <v>57638.21</v>
       </c>
       <c r="I219" s="22" t="n">
-        <v>53797.947</v>
+        <v>54589.947</v>
       </c>
       <c r="J219" s="21" t="n">
-        <v>60928.947</v>
+        <v>60934.94701</v>
       </c>
       <c r="K219" s="22" t="n">
         <v>64492.52301</v>
       </c>
       <c r="L219" s="22" t="n">
-        <v>61142.522</v>
+        <v>62162.522</v>
       </c>
       <c r="M219" s="22" t="n">
-        <v>68702.522</v>
-      </c>
-      <c r="N219" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="220" s="70" spans="1:14">
+        <v>71990.772</v>
+      </c>
+      <c r="N219" s="22" t="n">
+        <v>125177.022</v>
+      </c>
+      <c r="O219" s="10" t="n"/>
+    </row>
+    <row r="220" ht="12.6" customHeight="1" s="70">
       <c r="A220" s="5" t="n"/>
-      <c r="B220" s="59" t="s">
-        <v>185</v>
+      <c r="B220" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
+        </is>
       </c>
       <c r="C220" s="22" t="n">
         <v>4061.07007</v>
@@ -10027,7 +10544,7 @@
         <v>3103.12972</v>
       </c>
       <c r="I220" s="22" t="n">
-        <v>2826.77972</v>
+        <v>2856.77972</v>
       </c>
       <c r="J220" s="21" t="n">
         <v>3845.76113</v>
@@ -10036,17 +10553,22 @@
         <v>3986.11081</v>
       </c>
       <c r="L220" s="22" t="n">
-        <v>4312.92846</v>
+        <v>5332.92846</v>
       </c>
       <c r="M220" s="22" t="n">
-        <v>4978.62583</v>
-      </c>
-      <c r="N220" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="221" s="70" spans="1:14">
+        <v>6946.87583</v>
+      </c>
+      <c r="N220" s="22" t="n">
+        <v>8473.893</v>
+      </c>
+      <c r="O220" s="10" t="n"/>
+    </row>
+    <row r="221" ht="12.6" customHeight="1" s="70">
       <c r="A221" s="5" t="n"/>
-      <c r="B221" s="59" t="s">
-        <v>186</v>
+      <c r="B221" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
+        </is>
       </c>
       <c r="C221" s="22" t="n">
         <v>2837.32998</v>
@@ -10067,10 +10589,10 @@
         <v>3028.39285</v>
       </c>
       <c r="I221" s="22" t="n">
-        <v>1626.65562</v>
+        <v>1630.8934</v>
       </c>
       <c r="J221" s="21" t="n">
-        <v>1848.53094</v>
+        <v>1850.61888</v>
       </c>
       <c r="K221" s="22" t="n">
         <v>1883.65487</v>
@@ -10079,14 +10601,19 @@
         <v>1953.93414</v>
       </c>
       <c r="M221" s="22" t="n">
-        <v>1962.59539</v>
-      </c>
-      <c r="N221" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="222" s="70" spans="1:14">
+        <v>1971.04608</v>
+      </c>
+      <c r="N221" s="22" t="n">
+        <v>1887.283</v>
+      </c>
+      <c r="O221" s="11" t="n"/>
+    </row>
+    <row r="222" ht="12.6" customHeight="1" s="70">
       <c r="A222" s="8" t="n"/>
-      <c r="B222" s="59" t="s">
-        <v>187</v>
+      <c r="B222" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
+        </is>
       </c>
       <c r="C222" s="22" t="n">
         <v>52.30654</v>
@@ -10121,12 +10648,17 @@
       <c r="M222" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N222" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="223" s="70" spans="1:14">
+      <c r="N222" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O222" s="10" t="n"/>
+    </row>
+    <row r="223" ht="12.6" customHeight="1" s="70">
       <c r="A223" s="5" t="n"/>
-      <c r="B223" s="60" t="s">
-        <v>188</v>
+      <c r="B223" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Capital Reserves</t>
+        </is>
       </c>
       <c r="C223" s="23" t="n">
         <v>8120.89599</v>
@@ -10135,7 +10667,7 @@
         <v>8137.67409</v>
       </c>
       <c r="E223" s="23" t="n">
-        <v>539.6456100000001</v>
+        <v>539.64561</v>
       </c>
       <c r="F223" s="33" t="n">
         <v>1035.68002</v>
@@ -10161,12 +10693,17 @@
       <c r="M223" s="23" t="n">
         <v>1801.06063</v>
       </c>
-      <c r="N223" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="224" s="70" spans="1:14">
+      <c r="N223" s="23" t="n">
+        <v>5430.582</v>
+      </c>
+      <c r="O223" s="10" t="n"/>
+    </row>
+    <row r="224" ht="12.6" customHeight="1" s="70">
       <c r="A224" s="5" t="n"/>
-      <c r="B224" s="59" t="s">
-        <v>189</v>
+      <c r="B224" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Share Premium Account</t>
+        </is>
       </c>
       <c r="C224" s="22" t="n">
         <v>5587.5</v>
@@ -10201,12 +10738,17 @@
       <c r="M224" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N224" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="225" s="70" spans="1:14">
+      <c r="N224" s="22" t="n">
+        <v>2881.15</v>
+      </c>
+      <c r="O224" s="10" t="n"/>
+    </row>
+    <row r="225" ht="12.6" customHeight="1" s="70">
       <c r="A225" s="5" t="n"/>
-      <c r="B225" s="64" t="s">
-        <v>190</v>
+      <c r="B225" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
+        </is>
       </c>
       <c r="C225" s="22" t="n">
         <v>0</v>
@@ -10241,12 +10783,17 @@
       <c r="M225" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N225" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="226" s="70" spans="1:14">
+      <c r="N225" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O225" s="10" t="n"/>
+    </row>
+    <row r="226" ht="12.6" customHeight="1" s="70">
       <c r="A226" s="5" t="n"/>
-      <c r="B226" s="64" t="s">
-        <v>191</v>
+      <c r="B226" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C226" s="22" t="n">
         <v>183.39599</v>
@@ -10281,12 +10828,17 @@
       <c r="M226" s="22" t="n">
         <v>201.26417</v>
       </c>
-      <c r="N226" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="227" s="70" spans="1:14">
+      <c r="N226" s="22" t="n">
+        <v>201.263</v>
+      </c>
+      <c r="O226" s="10" t="n"/>
+    </row>
+    <row r="227" ht="12.6" customHeight="1" s="70">
       <c r="A227" s="5" t="n"/>
-      <c r="B227" s="59" t="s">
-        <v>192</v>
+      <c r="B227" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation of Participations</t>
+        </is>
       </c>
       <c r="C227" s="22" t="n">
         <v>0</v>
@@ -10321,12 +10873,17 @@
       <c r="M227" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N227" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="228" s="70" spans="1:14">
+      <c r="N227" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O227" s="10" t="n"/>
+    </row>
+    <row r="228" ht="12.6" customHeight="1" s="70">
       <c r="A228" s="5" t="n"/>
-      <c r="B228" s="59" t="s">
-        <v>193</v>
+      <c r="B228" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
+        </is>
       </c>
       <c r="C228" s="22" t="n">
         <v>0</v>
@@ -10361,12 +10918,17 @@
       <c r="M228" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N228" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="229" s="70" spans="1:14">
+      <c r="N228" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O228" s="10" t="n"/>
+    </row>
+    <row r="229" ht="12.6" customHeight="1" s="70">
       <c r="A229" s="5" t="n"/>
-      <c r="B229" s="59" t="s">
-        <v>194</v>
+      <c r="B229" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
+        </is>
       </c>
       <c r="C229" s="22" t="n">
         <v>0</v>
@@ -10401,12 +10963,17 @@
       <c r="M229" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N229" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="230" s="70" spans="1:14">
+      <c r="N229" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O229" s="10" t="n"/>
+    </row>
+    <row r="230" ht="12.6" customHeight="1" s="70">
       <c r="A230" s="5" t="n"/>
-      <c r="B230" s="59" t="s">
-        <v>195</v>
+      <c r="B230" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Capital Reserves</t>
+        </is>
       </c>
       <c r="C230" s="22" t="n">
         <v>2350</v>
@@ -10441,15 +11008,20 @@
       <c r="M230" s="22" t="n">
         <v>1599.79646</v>
       </c>
-      <c r="N230" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="231" s="70" spans="1:14">
+      <c r="N230" s="22" t="n">
+        <v>2348.169</v>
+      </c>
+      <c r="O230" s="11" t="n"/>
+    </row>
+    <row r="231" ht="12.6" customHeight="1" s="70">
       <c r="A231" s="8" t="n"/>
-      <c r="B231" s="60" t="s">
-        <v>196</v>
+      <c r="B231" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
+        </is>
       </c>
       <c r="C231" s="23" t="n">
-        <v>5477.109620000001</v>
+        <v>5477.109619999999</v>
       </c>
       <c r="D231" s="23" t="n">
         <v>2127.19207</v>
@@ -10464,13 +11036,13 @@
         <v>8048.97147</v>
       </c>
       <c r="H231" s="33" t="n">
-        <v>8252.678590000001</v>
+        <v>8252.67859</v>
       </c>
       <c r="I231" s="23" t="n">
-        <v>11035.89955</v>
+        <v>11112.19693</v>
       </c>
       <c r="J231" s="33" t="n">
-        <v>6103.088489999999</v>
+        <v>6103.08849</v>
       </c>
       <c r="K231" s="23" t="n">
         <v>19508.81975</v>
@@ -10479,14 +11051,19 @@
         <v>28708.57803</v>
       </c>
       <c r="M231" s="23" t="n">
-        <v>44990.39087</v>
-      </c>
-      <c r="N231" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="232" s="70" spans="1:14">
+        <v>45015.22673</v>
+      </c>
+      <c r="N231" s="23" t="n">
+        <v>123169.443</v>
+      </c>
+      <c r="O231" s="10" t="n"/>
+    </row>
+    <row r="232" ht="12.6" customHeight="1" s="70">
       <c r="A232" s="5" t="n"/>
-      <c r="B232" s="64" t="s">
-        <v>197</v>
+      <c r="B232" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Legal Reserves</t>
+        </is>
       </c>
       <c r="C232" s="22" t="n">
         <v>533.7099899999999</v>
@@ -10507,7 +11084,7 @@
         <v>1387.59516</v>
       </c>
       <c r="I232" s="22" t="n">
-        <v>1730.75775</v>
+        <v>1743.47812</v>
       </c>
       <c r="J232" s="21" t="n">
         <v>1831.71384</v>
@@ -10519,14 +11096,19 @@
         <v>2176.62381</v>
       </c>
       <c r="M232" s="22" t="n">
-        <v>3112.40359</v>
-      </c>
-      <c r="N232" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="233" s="70" spans="1:14">
+        <v>3136.15375</v>
+      </c>
+      <c r="N232" s="22" t="n">
+        <v>3191.737</v>
+      </c>
+      <c r="O232" s="10" t="n"/>
+    </row>
+    <row r="233" ht="12.6" customHeight="1" s="70">
       <c r="A233" s="5" t="n"/>
-      <c r="B233" s="64" t="s">
-        <v>198</v>
+      <c r="B233" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
+        </is>
       </c>
       <c r="C233" s="22" t="n">
         <v>303.90072</v>
@@ -10544,29 +11126,34 @@
         <v>968.48119</v>
       </c>
       <c r="H233" s="21" t="n">
-        <v>849.59937</v>
+        <v>849.5993699999999</v>
       </c>
       <c r="I233" s="22" t="n">
-        <v>843.31366</v>
+        <v>843.3136599999999</v>
       </c>
       <c r="J233" s="21" t="n">
         <v>843.31366</v>
       </c>
       <c r="K233" s="22" t="n">
-        <v>843.31366</v>
+        <v>843.3136599999999</v>
       </c>
       <c r="L233" s="22" t="n">
-        <v>775.69485</v>
+        <v>775.6948500000001</v>
       </c>
       <c r="M233" s="22" t="n">
-        <v>775.85879</v>
-      </c>
-      <c r="N233" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="234" s="70" spans="1:14">
+        <v>775.8587899999999</v>
+      </c>
+      <c r="N233" s="22" t="n">
+        <v>687.535</v>
+      </c>
+      <c r="O233" s="10" t="n"/>
+    </row>
+    <row r="234" ht="12.6" customHeight="1" s="70">
       <c r="A234" s="5" t="n"/>
-      <c r="B234" s="64" t="s">
-        <v>199</v>
+      <c r="B234" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Extraordinary Reserves</t>
+        </is>
       </c>
       <c r="C234" s="22" t="n">
         <v>736.31889</v>
@@ -10584,13 +11171,13 @@
         <v>626.22275</v>
       </c>
       <c r="H234" s="21" t="n">
-        <v>684.9735099999999</v>
+        <v>684.97351</v>
       </c>
       <c r="I234" s="22" t="n">
-        <v>3134.74257</v>
+        <v>3198.31958</v>
       </c>
       <c r="J234" s="21" t="n">
-        <v>3051.56086</v>
+        <v>3051.560860000001</v>
       </c>
       <c r="K234" s="22" t="n">
         <v>16031.99717</v>
@@ -10599,14 +11186,19 @@
         <v>15826.95612</v>
       </c>
       <c r="M234" s="22" t="n">
-        <v>22898.22114</v>
-      </c>
-      <c r="N234" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="235" s="70" spans="1:14">
+        <v>22899.30684</v>
+      </c>
+      <c r="N234" s="22" t="n">
+        <v>23452.446</v>
+      </c>
+      <c r="O234" s="10" t="n"/>
+    </row>
+    <row r="235" ht="12.6" customHeight="1" s="70">
       <c r="A235" s="5" t="n"/>
-      <c r="B235" s="64" t="s">
-        <v>200</v>
+      <c r="B235" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Reserves</t>
+        </is>
       </c>
       <c r="C235" s="22" t="n">
         <v>89.71852</v>
@@ -10641,12 +11233,17 @@
       <c r="M235" s="22" t="n">
         <v>69.03825000000001</v>
       </c>
-      <c r="N235" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="236" s="70" spans="1:14">
+      <c r="N235" s="22" t="n">
+        <v>62.623</v>
+      </c>
+      <c r="O235" s="10" t="n"/>
+    </row>
+    <row r="236" ht="12.6" customHeight="1" s="70">
       <c r="A236" s="5" t="n"/>
-      <c r="B236" s="64" t="s">
-        <v>201</v>
+      <c r="B236" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Funds</t>
+        </is>
       </c>
       <c r="C236" s="22" t="n">
         <v>3813.4615</v>
@@ -10681,12 +11278,17 @@
       <c r="M236" s="22" t="n">
         <v>18134.8691</v>
       </c>
-      <c r="N236" s="10" t="n"/>
-    </row>
-    <row r="237" spans="1:14">
+      <c r="N236" s="22" t="n">
+        <v>95775.102</v>
+      </c>
+      <c r="O236" s="10" t="n"/>
+    </row>
+    <row r="237">
       <c r="A237" s="5" t="n"/>
-      <c r="B237" s="60" t="s">
-        <v>202</v>
+      <c r="B237" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Profit Brought Forward</t>
+        </is>
       </c>
       <c r="C237" s="23" t="n">
         <v>19908.90938</v>
@@ -10707,10 +11309,10 @@
         <v>59212.89533</v>
       </c>
       <c r="I237" s="23" t="n">
-        <v>65007.58217</v>
+        <v>65873.02022000001</v>
       </c>
       <c r="J237" s="33" t="n">
-        <v>80431.93728</v>
+        <v>80434.09110000001</v>
       </c>
       <c r="K237" s="23" t="n">
         <v>90188.24817000001</v>
@@ -10719,14 +11321,19 @@
         <v>95708.87727000001</v>
       </c>
       <c r="M237" s="23" t="n">
-        <v>104123.5271</v>
-      </c>
-      <c r="N237" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="238" s="70" spans="1:14">
+        <v>105126.85416</v>
+      </c>
+      <c r="N237" s="23" t="n">
+        <v>131290.988</v>
+      </c>
+      <c r="O237" s="11" t="n"/>
+    </row>
+    <row r="238">
       <c r="A238" s="8" t="n"/>
-      <c r="B238" s="57" t="s">
-        <v>203</v>
+      <c r="B238" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
+        </is>
       </c>
       <c r="C238" s="23" t="n">
         <v>-23489.72116</v>
@@ -10738,7 +11345,7 @@
         <v>-36838.71399</v>
       </c>
       <c r="F238" s="33" t="n">
-        <v>-61909.27229</v>
+        <v>-61909.27228999999</v>
       </c>
       <c r="G238" s="23" t="n">
         <v>-41330.10223</v>
@@ -10747,32 +11354,37 @@
         <v>-49601.32256999999</v>
       </c>
       <c r="I238" s="23" t="n">
-        <v>-47180.67851</v>
+        <v>-47910.69218999999</v>
       </c>
       <c r="J238" s="33" t="n">
-        <v>-54883.99583999999</v>
+        <v>-54858.88323</v>
       </c>
       <c r="K238" s="23" t="n">
         <v>-69542.53693999999</v>
       </c>
       <c r="L238" s="23" t="n">
-        <v>-75727.87929999999</v>
+        <v>-75727.87931</v>
       </c>
       <c r="M238" s="23" t="n">
-        <v>-94011.54957</v>
-      </c>
-      <c r="N238" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="239" s="70" spans="1:14">
+        <v>-94741.02146999999</v>
+      </c>
+      <c r="N238" s="23" t="n">
+        <v>-113314.912</v>
+      </c>
+      <c r="O238" s="11" t="n"/>
+    </row>
+    <row r="239">
       <c r="A239" s="8" t="n"/>
-      <c r="B239" s="60" t="s">
-        <v>204</v>
+      <c r="B239" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
+        </is>
       </c>
       <c r="C239" s="23" t="n">
         <v>-2627.02716</v>
       </c>
       <c r="D239" s="23" t="n">
-        <v>3901.115609999999</v>
+        <v>3901.11561</v>
       </c>
       <c r="E239" s="23" t="n">
         <v>-16961.5751</v>
@@ -10781,32 +11393,37 @@
         <v>2569.70616</v>
       </c>
       <c r="G239" s="23" t="n">
-        <v>2388.88273</v>
+        <v>2388.882729999999</v>
       </c>
       <c r="H239" s="33" t="n">
         <v>-5527.33701</v>
       </c>
       <c r="I239" s="23" t="n">
-        <v>10225.77913</v>
+        <v>9499.910689999999</v>
       </c>
       <c r="J239" s="33" t="n">
-        <v>11640.41583</v>
+        <v>11602.88549</v>
       </c>
       <c r="K239" s="23" t="n">
         <v>11451.19222</v>
       </c>
       <c r="L239" s="23" t="n">
-        <v>-81.80160000000056</v>
+        <v>267.4441999999997</v>
       </c>
       <c r="M239" s="23" t="n">
-        <v>15328.75778</v>
-      </c>
-      <c r="N239" s="11" t="n"/>
-    </row>
-    <row r="240" spans="1:14">
+        <v>15308.66809</v>
+      </c>
+      <c r="N239" s="23" t="n">
+        <v>59563.126</v>
+      </c>
+      <c r="O239" s="11" t="n"/>
+    </row>
+    <row r="240">
       <c r="A240" s="8" t="n"/>
-      <c r="B240" s="64" t="s">
-        <v>205</v>
+      <c r="B240" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Profit for the Financial Year</t>
+        </is>
       </c>
       <c r="C240" s="22" t="n">
         <v>7394.61681</v>
@@ -10827,26 +11444,31 @@
         <v>15307.52235</v>
       </c>
       <c r="I240" s="22" t="n">
-        <v>17241.98649</v>
+        <v>17887.07728</v>
       </c>
       <c r="J240" s="21" t="n">
-        <v>31811.18503</v>
+        <v>31859.7727</v>
       </c>
       <c r="K240" s="22" t="n">
         <v>24062.04815</v>
       </c>
       <c r="L240" s="22" t="n">
-        <v>22237.23956</v>
+        <v>22648.62546</v>
       </c>
       <c r="M240" s="22" t="n">
-        <v>34796.62398</v>
-      </c>
-      <c r="N240" s="10" t="n"/>
-    </row>
-    <row r="241" spans="1:14">
+        <v>35230.4545</v>
+      </c>
+      <c r="N240" s="22" t="n">
+        <v>76277.70699999999</v>
+      </c>
+      <c r="O240" s="10" t="n"/>
+    </row>
+    <row r="241">
       <c r="A241" s="5" t="n"/>
-      <c r="B241" s="64" t="s">
-        <v>206</v>
+      <c r="B241" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
+        </is>
       </c>
       <c r="C241" s="22" t="n">
         <v>10021.64397</v>
@@ -10858,7 +11480,7 @@
         <v>27657.82214</v>
       </c>
       <c r="F241" s="21" t="n">
-        <v>9770.071579999998</v>
+        <v>9770.07158</v>
       </c>
       <c r="G241" s="22" t="n">
         <v>12875.62957</v>
@@ -10867,26 +11489,31 @@
         <v>20834.85936</v>
       </c>
       <c r="I241" s="22" t="n">
-        <v>7016.20736</v>
+        <v>8387.166590000001</v>
       </c>
       <c r="J241" s="21" t="n">
-        <v>20170.7692</v>
+        <v>20256.88721</v>
       </c>
       <c r="K241" s="22" t="n">
         <v>12610.85593</v>
       </c>
       <c r="L241" s="22" t="n">
-        <v>22319.04116</v>
+        <v>22381.18126</v>
       </c>
       <c r="M241" s="22" t="n">
-        <v>19467.8662</v>
-      </c>
-      <c r="N241" s="10" t="n"/>
-    </row>
-    <row r="242" spans="1:14">
+        <v>19921.78641</v>
+      </c>
+      <c r="N241" s="22" t="n">
+        <v>16714.581</v>
+      </c>
+      <c r="O241" s="10" t="n"/>
+    </row>
+    <row r="242">
       <c r="A242" s="5" t="n"/>
-      <c r="B242" s="57" t="s">
-        <v>207</v>
+      <c r="B242" s="57" t="inlineStr">
+        <is>
+          <t>TOTAL LIABILITIES</t>
+        </is>
       </c>
       <c r="C242" s="47" t="n">
         <v>129620.46985</v>
@@ -10907,23 +11534,26 @@
         <v>231349.49441</v>
       </c>
       <c r="I242" s="47" t="n">
-        <v>274931.83974</v>
+        <v>289797.9984</v>
       </c>
       <c r="J242" s="48" t="n">
-        <v>336360.5486099999</v>
+        <v>336371.15653</v>
       </c>
       <c r="K242" s="47" t="n">
-        <v>401903.3010399999</v>
+        <v>401903.3010400001</v>
       </c>
       <c r="L242" s="47" t="n">
-        <v>439520.8256100001</v>
+        <v>440392.10191</v>
       </c>
       <c r="M242" s="47" t="n">
-        <v>504912.6361600001</v>
-      </c>
-      <c r="N242" s="11" t="n"/>
-    </row>
-    <row r="243" spans="1:14">
+        <v>514148.58754</v>
+      </c>
+      <c r="N242" s="47" t="n">
+        <v>775780.036</v>
+      </c>
+      <c r="O242" s="11" t="n"/>
+    </row>
+    <row r="243">
       <c r="A243" s="8" t="n"/>
       <c r="B243" s="51" t="n"/>
       <c r="C243" s="50" t="n"/>
@@ -10937,12 +11567,15 @@
       <c r="K243" s="50" t="n"/>
       <c r="L243" s="50" t="n"/>
       <c r="M243" s="50" t="n"/>
-      <c r="N243" s="10" t="n"/>
-    </row>
-    <row r="244" spans="1:14">
+      <c r="N243" s="50" t="n"/>
+      <c r="O243" s="10" t="n"/>
+    </row>
+    <row r="244">
       <c r="A244" s="5" t="n"/>
-      <c r="B244" s="69" t="s">
-        <v>208</v>
+      <c r="B244" s="69" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C244" s="52" t="n">
         <v>198</v>
@@ -10963,23 +11596,26 @@
         <v>266</v>
       </c>
       <c r="I244" s="52" t="n">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="J244" s="53" t="n">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="K244" s="52" t="n">
         <v>299</v>
       </c>
       <c r="L244" s="52" t="n">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="M244" s="52" t="n">
-        <v>322</v>
-      </c>
-      <c r="N244" s="12" t="n"/>
-    </row>
-    <row r="245" spans="1:14">
+        <v>350</v>
+      </c>
+      <c r="N244" s="52" t="n">
+        <v>382</v>
+      </c>
+      <c r="O244" s="12" t="n"/>
+    </row>
+    <row r="245">
       <c r="A245" s="12" t="n"/>
       <c r="B245" s="54" t="n"/>
       <c r="C245" s="54" t="n"/>
@@ -10993,288 +11629,289 @@
       <c r="K245" s="54" t="n"/>
       <c r="L245" s="54" t="n"/>
       <c r="M245" s="54" t="n"/>
-      <c r="N245" s="10" t="n"/>
-    </row>
-    <row hidden="1" r="246" s="70" spans="1:14"/>
-    <row hidden="1" r="247" s="70" spans="1:14"/>
-    <row hidden="1" r="248" s="70" spans="1:14"/>
-    <row hidden="1" r="249" s="70" spans="1:14"/>
-    <row hidden="1" r="250" s="70" spans="1:14"/>
-    <row hidden="1" r="251" s="70" spans="1:14"/>
-    <row hidden="1" r="252" s="70" spans="1:14"/>
-    <row hidden="1" r="253" s="70" spans="1:14"/>
-    <row hidden="1" r="254" s="70" spans="1:14"/>
-    <row hidden="1" r="255" s="70" spans="1:14"/>
-    <row hidden="1" r="256" s="70" spans="1:14"/>
-    <row hidden="1" r="257" s="70" spans="1:14"/>
-    <row hidden="1" r="258" s="70" spans="1:14"/>
-    <row hidden="1" r="259" s="70" spans="1:14"/>
-    <row hidden="1" r="260" s="70" spans="1:14"/>
-    <row hidden="1" r="261" s="70" spans="1:14"/>
-    <row hidden="1" r="262" s="70" spans="1:14"/>
-    <row hidden="1" r="263" s="70" spans="1:14"/>
-    <row hidden="1" r="264" s="70" spans="1:14"/>
-    <row hidden="1" r="265" s="70" spans="1:14"/>
-    <row hidden="1" r="266" s="70" spans="1:14"/>
-    <row hidden="1" r="267" s="70" spans="1:14"/>
-    <row hidden="1" r="268" s="70" spans="1:14"/>
-    <row hidden="1" r="269" s="70" spans="1:14"/>
-    <row hidden="1" r="270" s="70" spans="1:14"/>
-    <row hidden="1" r="271" s="70" spans="1:14"/>
-    <row hidden="1" r="272" s="70" spans="1:14"/>
-    <row hidden="1" r="273" s="70" spans="1:14"/>
-    <row hidden="1" r="274" s="70" spans="1:14"/>
-    <row hidden="1" r="275" s="70" spans="1:14"/>
-    <row hidden="1" r="276" s="70" spans="1:14"/>
-    <row hidden="1" r="277" s="70" spans="1:14"/>
-    <row hidden="1" r="278" s="70" spans="1:14"/>
-    <row hidden="1" r="279" s="70" spans="1:14"/>
-    <row hidden="1" r="280" s="70" spans="1:14"/>
-    <row hidden="1" r="281" s="70" spans="1:14"/>
-    <row hidden="1" r="282" s="70" spans="1:14"/>
-    <row hidden="1" r="283" s="70" spans="1:14"/>
-    <row hidden="1" r="284" s="70" spans="1:14"/>
-    <row hidden="1" r="285" s="70" spans="1:14"/>
-    <row hidden="1" r="286" s="70" spans="1:14"/>
-    <row hidden="1" r="287" s="70" spans="1:14"/>
-    <row hidden="1" r="288" s="70" spans="1:14"/>
-    <row hidden="1" r="289" s="70" spans="1:14"/>
-    <row hidden="1" r="290" s="70" spans="1:14"/>
-    <row hidden="1" r="291" s="70" spans="1:14"/>
-    <row hidden="1" r="292" s="70" spans="1:14"/>
-    <row hidden="1" r="293" s="70" spans="1:14"/>
-    <row hidden="1" r="294" s="70" spans="1:14"/>
-    <row hidden="1" r="295" s="70" spans="1:14"/>
-    <row hidden="1" r="296" s="70" spans="1:14"/>
-    <row hidden="1" r="297" s="70" spans="1:14"/>
-    <row hidden="1" r="298" s="70" spans="1:14"/>
-    <row hidden="1" r="299" s="70" spans="1:14"/>
-    <row hidden="1" r="300" s="70" spans="1:14"/>
-    <row hidden="1" r="301" s="70" spans="1:14"/>
-    <row hidden="1" r="302" s="70" spans="1:14"/>
-    <row hidden="1" r="303" s="70" spans="1:14"/>
-    <row hidden="1" r="304" s="70" spans="1:14"/>
-    <row hidden="1" r="305" s="70" spans="1:14"/>
-    <row hidden="1" r="306" s="70" spans="1:14"/>
-    <row hidden="1" r="307" s="70" spans="1:14"/>
-    <row hidden="1" r="308" s="70" spans="1:14"/>
-    <row hidden="1" r="309" s="70" spans="1:14"/>
-    <row hidden="1" r="310" s="70" spans="1:14"/>
-    <row hidden="1" r="311" s="70" spans="1:14"/>
-    <row hidden="1" r="312" s="70" spans="1:14"/>
-    <row hidden="1" r="313" s="70" spans="1:14"/>
-    <row hidden="1" r="314" s="70" spans="1:14"/>
-    <row hidden="1" r="315" s="70" spans="1:14"/>
-    <row hidden="1" r="316" s="70" spans="1:14"/>
-    <row hidden="1" r="317" s="70" spans="1:14"/>
-    <row hidden="1" r="318" s="70" spans="1:14"/>
-    <row hidden="1" r="319" s="70" spans="1:14"/>
-    <row hidden="1" r="320" s="70" spans="1:14"/>
-    <row hidden="1" r="321" s="70" spans="1:14"/>
-    <row hidden="1" r="322" s="70" spans="1:14"/>
-    <row hidden="1" r="323" s="70" spans="1:14"/>
-    <row hidden="1" r="324" s="70" spans="1:14"/>
-    <row hidden="1" r="325" s="70" spans="1:14"/>
-    <row hidden="1" r="326" s="70" spans="1:14"/>
-    <row hidden="1" r="327" s="70" spans="1:14"/>
-    <row hidden="1" r="328" s="70" spans="1:14"/>
-    <row hidden="1" r="329" s="70" spans="1:14"/>
-    <row hidden="1" r="330" s="70" spans="1:14"/>
-    <row hidden="1" r="331" s="70" spans="1:14"/>
-    <row hidden="1" r="332" s="70" spans="1:14"/>
-    <row hidden="1" r="333" s="70" spans="1:14"/>
-    <row hidden="1" r="334" s="70" spans="1:14"/>
-    <row hidden="1" r="335" s="70" spans="1:14"/>
-    <row hidden="1" r="336" s="70" spans="1:14"/>
-    <row hidden="1" r="337" s="70" spans="1:14"/>
-    <row hidden="1" r="338" s="70" spans="1:14"/>
-    <row hidden="1" r="339" s="70" spans="1:14"/>
-    <row hidden="1" r="340" s="70" spans="1:14"/>
-    <row hidden="1" r="341" s="70" spans="1:14"/>
-    <row hidden="1" r="342" s="70" spans="1:14"/>
-    <row hidden="1" r="343" s="70" spans="1:14"/>
-    <row hidden="1" r="344" s="70" spans="1:14"/>
-    <row hidden="1" r="345" s="70" spans="1:14"/>
-    <row hidden="1" r="346" s="70" spans="1:14"/>
-    <row hidden="1" r="347" s="70" spans="1:14"/>
-    <row hidden="1" r="348" s="70" spans="1:14"/>
-    <row hidden="1" r="349" s="70" spans="1:14"/>
-    <row hidden="1" r="350" s="70" spans="1:14"/>
-    <row hidden="1" r="351" s="70" spans="1:14"/>
-    <row hidden="1" r="352" s="70" spans="1:14"/>
-    <row hidden="1" r="353" s="70" spans="1:14"/>
-    <row hidden="1" r="354" s="70" spans="1:14"/>
-    <row hidden="1" r="355" s="70" spans="1:14"/>
-    <row hidden="1" r="356" s="70" spans="1:14"/>
-    <row hidden="1" r="357" s="70" spans="1:14"/>
-    <row hidden="1" r="358" s="70" spans="1:14"/>
-    <row hidden="1" r="359" s="70" spans="1:14"/>
-    <row hidden="1" r="360" s="70" spans="1:14"/>
-    <row hidden="1" r="361" s="70" spans="1:14"/>
-    <row hidden="1" r="362" s="70" spans="1:14"/>
-    <row hidden="1" r="363" s="70" spans="1:14"/>
-    <row hidden="1" r="364" s="70" spans="1:14"/>
-    <row hidden="1" r="365" s="70" spans="1:14"/>
-    <row hidden="1" r="366" s="70" spans="1:14"/>
-    <row hidden="1" r="367" s="70" spans="1:14"/>
-    <row hidden="1" r="368" s="70" spans="1:14"/>
-    <row hidden="1" r="369" s="70" spans="1:14"/>
-    <row hidden="1" r="370" s="70" spans="1:14"/>
-    <row hidden="1" r="371" s="70" spans="1:14"/>
-    <row hidden="1" r="372" s="70" spans="1:14"/>
-    <row hidden="1" r="373" s="70" spans="1:14"/>
-    <row hidden="1" r="374" s="70" spans="1:14"/>
-    <row hidden="1" r="375" s="70" spans="1:14"/>
-    <row hidden="1" r="376" s="70" spans="1:14"/>
-    <row hidden="1" r="377" s="70" spans="1:14"/>
-    <row hidden="1" r="378" s="70" spans="1:14"/>
-    <row hidden="1" r="379" s="70" spans="1:14"/>
-    <row hidden="1" r="380" s="70" spans="1:14"/>
-    <row hidden="1" r="381" s="70" spans="1:14"/>
-    <row hidden="1" r="382" s="70" spans="1:14"/>
-    <row hidden="1" r="383" s="70" spans="1:14"/>
-    <row hidden="1" r="384" s="70" spans="1:14"/>
-    <row hidden="1" r="385" s="70" spans="1:14"/>
-    <row hidden="1" r="386" s="70" spans="1:14"/>
-    <row hidden="1" r="387" s="70" spans="1:14"/>
-    <row hidden="1" r="388" s="70" spans="1:14"/>
-    <row hidden="1" r="389" s="70" spans="1:14"/>
-    <row hidden="1" r="390" s="70" spans="1:14"/>
-    <row hidden="1" r="391" s="70" spans="1:14"/>
-    <row hidden="1" r="392" s="70" spans="1:14"/>
-    <row hidden="1" r="393" s="70" spans="1:14"/>
-    <row hidden="1" r="394" s="70" spans="1:14"/>
-    <row hidden="1" r="395" s="70" spans="1:14"/>
-    <row hidden="1" r="396" s="70" spans="1:14"/>
-    <row hidden="1" r="397" s="70" spans="1:14"/>
-    <row hidden="1" r="398" s="70" spans="1:14"/>
-    <row hidden="1" r="399" s="70" spans="1:14"/>
-    <row hidden="1" r="400" s="70" spans="1:14"/>
-    <row hidden="1" r="401" s="70" spans="1:14"/>
-    <row hidden="1" r="402" s="70" spans="1:14"/>
-    <row hidden="1" r="403" s="70" spans="1:14"/>
-    <row hidden="1" r="404" s="70" spans="1:14"/>
-    <row hidden="1" r="405" s="70" spans="1:14"/>
-    <row hidden="1" r="406" s="70" spans="1:14"/>
-    <row hidden="1" r="407" s="70" spans="1:14"/>
-    <row hidden="1" r="408" s="70" spans="1:14"/>
-    <row hidden="1" r="409" s="70" spans="1:14"/>
-    <row hidden="1" r="410" s="70" spans="1:14"/>
-    <row hidden="1" r="411" s="70" spans="1:14"/>
-    <row hidden="1" r="412" s="70" spans="1:14"/>
-    <row hidden="1" r="413" s="70" spans="1:14"/>
-    <row hidden="1" r="414" s="70" spans="1:14"/>
-    <row hidden="1" r="415" s="70" spans="1:14"/>
-    <row hidden="1" r="416" s="70" spans="1:14"/>
-    <row hidden="1" r="417" s="70" spans="1:14"/>
-    <row hidden="1" r="418" s="70" spans="1:14"/>
-    <row hidden="1" r="419" s="70" spans="1:14"/>
-    <row hidden="1" r="420" s="70" spans="1:14"/>
-    <row hidden="1" r="421" s="70" spans="1:14"/>
-    <row hidden="1" r="422" s="70" spans="1:14"/>
-    <row hidden="1" r="423" s="70" spans="1:14"/>
-    <row hidden="1" r="424" s="70" spans="1:14"/>
-    <row hidden="1" r="425" s="70" spans="1:14"/>
-    <row hidden="1" r="426" s="70" spans="1:14"/>
-    <row hidden="1" r="427" s="70" spans="1:14"/>
-    <row hidden="1" r="428" s="70" spans="1:14"/>
-    <row hidden="1" r="429" s="70" spans="1:14"/>
-    <row hidden="1" r="430" s="70" spans="1:14"/>
-    <row hidden="1" r="431" s="70" spans="1:14"/>
-    <row hidden="1" r="432" s="70" spans="1:14"/>
-    <row hidden="1" r="433" s="70" spans="1:14"/>
-    <row hidden="1" r="434" s="70" spans="1:14"/>
-    <row hidden="1" r="435" s="70" spans="1:14"/>
-    <row hidden="1" r="436" s="70" spans="1:14"/>
-    <row hidden="1" r="437" s="70" spans="1:14"/>
-    <row hidden="1" r="438" s="70" spans="1:14"/>
-    <row hidden="1" r="439" s="70" spans="1:14"/>
-    <row hidden="1" r="440" s="70" spans="1:14"/>
-    <row hidden="1" r="441" s="70" spans="1:14"/>
-    <row hidden="1" r="442" s="70" spans="1:14"/>
-    <row hidden="1" r="443" s="70" spans="1:14"/>
-    <row hidden="1" r="444" s="70" spans="1:14"/>
-    <row hidden="1" r="445" s="70" spans="1:14"/>
-    <row hidden="1" r="446" s="70" spans="1:14"/>
-    <row hidden="1" r="447" s="70" spans="1:14"/>
-    <row hidden="1" r="448" s="70" spans="1:14"/>
-    <row hidden="1" r="449" s="70" spans="1:14"/>
-    <row hidden="1" r="450" s="70" spans="1:14"/>
-    <row hidden="1" r="451" s="70" spans="1:14"/>
-    <row hidden="1" r="452" s="70" spans="1:14"/>
-    <row hidden="1" r="453" s="70" spans="1:14"/>
-    <row hidden="1" r="454" s="70" spans="1:14"/>
-    <row hidden="1" r="455" s="70" spans="1:14"/>
-    <row hidden="1" r="456" s="70" spans="1:14"/>
-    <row hidden="1" r="457" s="70" spans="1:14"/>
-    <row hidden="1" r="458" s="70" spans="1:14"/>
-    <row hidden="1" r="459" s="70" spans="1:14"/>
-    <row hidden="1" r="460" s="70" spans="1:14"/>
-    <row hidden="1" r="461" s="70" spans="1:14"/>
-    <row hidden="1" r="462" s="70" spans="1:14"/>
-    <row hidden="1" r="463" s="70" spans="1:14"/>
-    <row hidden="1" r="464" s="70" spans="1:14"/>
-    <row hidden="1" r="465" s="70" spans="1:14"/>
-    <row hidden="1" r="466" s="70" spans="1:14"/>
-    <row hidden="1" r="467" s="70" spans="1:14"/>
-    <row hidden="1" r="468" s="70" spans="1:14"/>
-    <row hidden="1" r="469" s="70" spans="1:14"/>
-    <row hidden="1" r="470" s="70" spans="1:14"/>
-    <row hidden="1" r="471" s="70" spans="1:14"/>
-    <row hidden="1" r="472" s="70" spans="1:14"/>
-    <row hidden="1" r="473" s="70" spans="1:14"/>
-    <row hidden="1" r="474" s="70" spans="1:14"/>
-    <row hidden="1" r="475" s="70" spans="1:14"/>
-    <row hidden="1" r="476" s="70" spans="1:14"/>
-    <row hidden="1" r="477" s="70" spans="1:14"/>
-    <row hidden="1" r="478" s="70" spans="1:14"/>
-    <row hidden="1" r="479" s="70" spans="1:14"/>
-    <row hidden="1" r="480" s="70" spans="1:14"/>
-    <row hidden="1" r="481" s="70" spans="1:14"/>
-    <row hidden="1" r="482" s="70" spans="1:14"/>
-    <row hidden="1" r="483" s="70" spans="1:14"/>
-    <row hidden="1" r="484" s="70" spans="1:14"/>
-    <row hidden="1" r="485" s="70" spans="1:14"/>
-    <row hidden="1" r="486" s="70" spans="1:14"/>
-    <row hidden="1" r="487" s="70" spans="1:14"/>
-    <row hidden="1" r="488" s="70" spans="1:14"/>
-    <row hidden="1" r="489" s="70" spans="1:14"/>
-    <row hidden="1" r="490" s="70" spans="1:14"/>
-    <row hidden="1" r="491" s="70" spans="1:14"/>
-    <row hidden="1" r="492" s="70" spans="1:14"/>
-    <row hidden="1" r="493" s="70" spans="1:14"/>
-    <row hidden="1" r="494" s="70" spans="1:14"/>
-    <row hidden="1" r="495" s="70" spans="1:14"/>
-    <row hidden="1" r="496" s="70" spans="1:14"/>
-    <row hidden="1" r="497" s="70" spans="1:14"/>
-    <row hidden="1" r="498" s="70" spans="1:14"/>
-    <row hidden="1" r="499" s="70" spans="1:14"/>
-    <row hidden="1" r="500" s="70" spans="1:14"/>
-    <row hidden="1" r="501" s="70" spans="1:14"/>
-    <row hidden="1" r="502" s="70" spans="1:14"/>
-    <row hidden="1" r="503" s="70" spans="1:14"/>
-    <row hidden="1" r="504" s="70" spans="1:14"/>
-    <row hidden="1" r="505" s="70" spans="1:14"/>
-    <row hidden="1" r="506" s="70" spans="1:14"/>
-    <row hidden="1" r="507" s="70" spans="1:14"/>
-    <row hidden="1" r="508" s="70" spans="1:14"/>
-    <row hidden="1" r="509" s="70" spans="1:14"/>
-    <row hidden="1" r="510" s="70" spans="1:14"/>
-    <row hidden="1" r="511" s="70" spans="1:14"/>
-    <row hidden="1" r="512" s="70" spans="1:14"/>
-    <row hidden="1" r="513" s="70" spans="1:14"/>
-    <row hidden="1" r="514" s="70" spans="1:14"/>
-    <row hidden="1" r="515" s="70" spans="1:14"/>
-    <row hidden="1" r="516" s="70" spans="1:14"/>
-    <row hidden="1" r="517" s="70" spans="1:14"/>
-    <row hidden="1" r="518" s="70" spans="1:14"/>
-    <row hidden="1" r="519" s="70" spans="1:14"/>
-    <row hidden="1" r="520" s="70" spans="1:14"/>
-    <row hidden="1" r="521" s="70" spans="1:14"/>
-    <row hidden="1" r="522" s="70" spans="1:14"/>
+      <c r="N245" s="54" t="n"/>
+      <c r="O245" s="10" t="n"/>
+    </row>
+    <row r="246" hidden="1" s="70"/>
+    <row r="247" hidden="1" s="70"/>
+    <row r="248" hidden="1" s="70"/>
+    <row r="249" hidden="1" s="70"/>
+    <row r="250" hidden="1" s="70"/>
+    <row r="251" hidden="1" s="70"/>
+    <row r="252" hidden="1" s="70"/>
+    <row r="253" hidden="1" s="70"/>
+    <row r="254" hidden="1" s="70"/>
+    <row r="255" hidden="1" s="70"/>
+    <row r="256" hidden="1" s="70"/>
+    <row r="257" hidden="1" s="70"/>
+    <row r="258" hidden="1" s="70"/>
+    <row r="259" hidden="1" s="70"/>
+    <row r="260" hidden="1" s="70"/>
+    <row r="261" hidden="1" s="70"/>
+    <row r="262" hidden="1" s="70"/>
+    <row r="263" hidden="1" s="70"/>
+    <row r="264" hidden="1" s="70"/>
+    <row r="265" hidden="1" s="70"/>
+    <row r="266" hidden="1" s="70"/>
+    <row r="267" hidden="1" s="70"/>
+    <row r="268" hidden="1" s="70"/>
+    <row r="269" hidden="1" s="70"/>
+    <row r="270" hidden="1" s="70"/>
+    <row r="271" hidden="1" s="70"/>
+    <row r="272" hidden="1" s="70"/>
+    <row r="273" hidden="1" s="70"/>
+    <row r="274" hidden="1" s="70"/>
+    <row r="275" hidden="1" s="70"/>
+    <row r="276" hidden="1" s="70"/>
+    <row r="277" hidden="1" s="70"/>
+    <row r="278" hidden="1" s="70"/>
+    <row r="279" hidden="1" s="70"/>
+    <row r="280" hidden="1" s="70"/>
+    <row r="281" hidden="1" s="70"/>
+    <row r="282" hidden="1" s="70"/>
+    <row r="283" hidden="1" s="70"/>
+    <row r="284" hidden="1" s="70"/>
+    <row r="285" hidden="1" s="70"/>
+    <row r="286" hidden="1" s="70"/>
+    <row r="287" hidden="1" s="70"/>
+    <row r="288" hidden="1" s="70"/>
+    <row r="289" hidden="1" s="70"/>
+    <row r="290" hidden="1" s="70"/>
+    <row r="291" hidden="1" s="70"/>
+    <row r="292" hidden="1" s="70"/>
+    <row r="293" hidden="1" s="70"/>
+    <row r="294" hidden="1" s="70"/>
+    <row r="295" hidden="1" s="70"/>
+    <row r="296" hidden="1" s="70"/>
+    <row r="297" hidden="1" s="70"/>
+    <row r="298" hidden="1" s="70"/>
+    <row r="299" hidden="1" s="70"/>
+    <row r="300" hidden="1" s="70"/>
+    <row r="301" hidden="1" s="70"/>
+    <row r="302" hidden="1" s="70"/>
+    <row r="303" hidden="1" s="70"/>
+    <row r="304" hidden="1" s="70"/>
+    <row r="305" hidden="1" s="70"/>
+    <row r="306" hidden="1" s="70"/>
+    <row r="307" hidden="1" s="70"/>
+    <row r="308" hidden="1" s="70"/>
+    <row r="309" hidden="1" s="70"/>
+    <row r="310" hidden="1" s="70"/>
+    <row r="311" hidden="1" s="70"/>
+    <row r="312" hidden="1" s="70"/>
+    <row r="313" hidden="1" s="70"/>
+    <row r="314" hidden="1" s="70"/>
+    <row r="315" hidden="1" s="70"/>
+    <row r="316" hidden="1" s="70"/>
+    <row r="317" hidden="1" s="70"/>
+    <row r="318" hidden="1" s="70"/>
+    <row r="319" hidden="1" s="70"/>
+    <row r="320" hidden="1" s="70"/>
+    <row r="321" hidden="1" s="70"/>
+    <row r="322" hidden="1" s="70"/>
+    <row r="323" hidden="1" s="70"/>
+    <row r="324" hidden="1" s="70"/>
+    <row r="325" hidden="1" s="70"/>
+    <row r="326" hidden="1" s="70"/>
+    <row r="327" hidden="1" s="70"/>
+    <row r="328" hidden="1" s="70"/>
+    <row r="329" hidden="1" s="70"/>
+    <row r="330" hidden="1" s="70"/>
+    <row r="331" hidden="1" s="70"/>
+    <row r="332" hidden="1" s="70"/>
+    <row r="333" hidden="1" s="70"/>
+    <row r="334" hidden="1" s="70"/>
+    <row r="335" hidden="1" s="70"/>
+    <row r="336" hidden="1" s="70"/>
+    <row r="337" hidden="1" s="70"/>
+    <row r="338" hidden="1" s="70"/>
+    <row r="339" hidden="1" s="70"/>
+    <row r="340" hidden="1" s="70"/>
+    <row r="341" hidden="1" s="70"/>
+    <row r="342" hidden="1" s="70"/>
+    <row r="343" hidden="1" s="70"/>
+    <row r="344" hidden="1" s="70"/>
+    <row r="345" hidden="1" s="70"/>
+    <row r="346" hidden="1" s="70"/>
+    <row r="347" hidden="1" s="70"/>
+    <row r="348" hidden="1" s="70"/>
+    <row r="349" hidden="1" s="70"/>
+    <row r="350" hidden="1" s="70"/>
+    <row r="351" hidden="1" s="70"/>
+    <row r="352" hidden="1" s="70"/>
+    <row r="353" hidden="1" s="70"/>
+    <row r="354" hidden="1" s="70"/>
+    <row r="355" hidden="1" s="70"/>
+    <row r="356" hidden="1" s="70"/>
+    <row r="357" hidden="1" s="70"/>
+    <row r="358" hidden="1" s="70"/>
+    <row r="359" hidden="1" s="70"/>
+    <row r="360" hidden="1" s="70"/>
+    <row r="361" hidden="1" s="70"/>
+    <row r="362" hidden="1" s="70"/>
+    <row r="363" hidden="1" s="70"/>
+    <row r="364" hidden="1" s="70"/>
+    <row r="365" hidden="1" s="70"/>
+    <row r="366" hidden="1" s="70"/>
+    <row r="367" hidden="1" s="70"/>
+    <row r="368" hidden="1" s="70"/>
+    <row r="369" hidden="1" s="70"/>
+    <row r="370" hidden="1" s="70"/>
+    <row r="371" hidden="1" s="70"/>
+    <row r="372" hidden="1" s="70"/>
+    <row r="373" hidden="1" s="70"/>
+    <row r="374" hidden="1" s="70"/>
+    <row r="375" hidden="1" s="70"/>
+    <row r="376" hidden="1" s="70"/>
+    <row r="377" hidden="1" s="70"/>
+    <row r="378" hidden="1" s="70"/>
+    <row r="379" hidden="1" s="70"/>
+    <row r="380" hidden="1" s="70"/>
+    <row r="381" hidden="1" s="70"/>
+    <row r="382" hidden="1" s="70"/>
+    <row r="383" hidden="1" s="70"/>
+    <row r="384" hidden="1" s="70"/>
+    <row r="385" hidden="1" s="70"/>
+    <row r="386" hidden="1" s="70"/>
+    <row r="387" hidden="1" s="70"/>
+    <row r="388" hidden="1" s="70"/>
+    <row r="389" hidden="1" s="70"/>
+    <row r="390" hidden="1" s="70"/>
+    <row r="391" hidden="1" s="70"/>
+    <row r="392" hidden="1" s="70"/>
+    <row r="393" hidden="1" s="70"/>
+    <row r="394" hidden="1" s="70"/>
+    <row r="395" hidden="1" s="70"/>
+    <row r="396" hidden="1" s="70"/>
+    <row r="397" hidden="1" s="70"/>
+    <row r="398" hidden="1" s="70"/>
+    <row r="399" hidden="1" s="70"/>
+    <row r="400" hidden="1" s="70"/>
+    <row r="401" hidden="1" s="70"/>
+    <row r="402" hidden="1" s="70"/>
+    <row r="403" hidden="1" s="70"/>
+    <row r="404" hidden="1" s="70"/>
+    <row r="405" hidden="1" s="70"/>
+    <row r="406" hidden="1" s="70"/>
+    <row r="407" hidden="1" s="70"/>
+    <row r="408" hidden="1" s="70"/>
+    <row r="409" hidden="1" s="70"/>
+    <row r="410" hidden="1" s="70"/>
+    <row r="411" hidden="1" s="70"/>
+    <row r="412" hidden="1" s="70"/>
+    <row r="413" hidden="1" s="70"/>
+    <row r="414" hidden="1" s="70"/>
+    <row r="415" hidden="1" s="70"/>
+    <row r="416" hidden="1" s="70"/>
+    <row r="417" hidden="1" s="70"/>
+    <row r="418" hidden="1" s="70"/>
+    <row r="419" hidden="1" s="70"/>
+    <row r="420" hidden="1" s="70"/>
+    <row r="421" hidden="1" s="70"/>
+    <row r="422" hidden="1" s="70"/>
+    <row r="423" hidden="1" s="70"/>
+    <row r="424" hidden="1" s="70"/>
+    <row r="425" hidden="1" s="70"/>
+    <row r="426" hidden="1" s="70"/>
+    <row r="427" hidden="1" s="70"/>
+    <row r="428" hidden="1" s="70"/>
+    <row r="429" hidden="1" s="70"/>
+    <row r="430" hidden="1" s="70"/>
+    <row r="431" hidden="1" s="70"/>
+    <row r="432" hidden="1" s="70"/>
+    <row r="433" hidden="1" s="70"/>
+    <row r="434" hidden="1" s="70"/>
+    <row r="435" hidden="1" s="70"/>
+    <row r="436" hidden="1" s="70"/>
+    <row r="437" hidden="1" s="70"/>
+    <row r="438" hidden="1" s="70"/>
+    <row r="439" hidden="1" s="70"/>
+    <row r="440" hidden="1" s="70"/>
+    <row r="441" hidden="1" s="70"/>
+    <row r="442" hidden="1" s="70"/>
+    <row r="443" hidden="1" s="70"/>
+    <row r="444" hidden="1" s="70"/>
+    <row r="445" hidden="1" s="70"/>
+    <row r="446" hidden="1" s="70"/>
+    <row r="447" hidden="1" s="70"/>
+    <row r="448" hidden="1" s="70"/>
+    <row r="449" hidden="1" s="70"/>
+    <row r="450" hidden="1" s="70"/>
+    <row r="451" hidden="1" s="70"/>
+    <row r="452" hidden="1" s="70"/>
+    <row r="453" hidden="1" s="70"/>
+    <row r="454" hidden="1" s="70"/>
+    <row r="455" hidden="1" s="70"/>
+    <row r="456" hidden="1" s="70"/>
+    <row r="457" hidden="1" s="70"/>
+    <row r="458" hidden="1" s="70"/>
+    <row r="459" hidden="1" s="70"/>
+    <row r="460" hidden="1" s="70"/>
+    <row r="461" hidden="1" s="70"/>
+    <row r="462" hidden="1" s="70"/>
+    <row r="463" hidden="1" s="70"/>
+    <row r="464" hidden="1" s="70"/>
+    <row r="465" hidden="1" s="70"/>
+    <row r="466" hidden="1" s="70"/>
+    <row r="467" hidden="1" s="70"/>
+    <row r="468" hidden="1" s="70"/>
+    <row r="469" hidden="1" s="70"/>
+    <row r="470" hidden="1" s="70"/>
+    <row r="471" hidden="1" s="70"/>
+    <row r="472" hidden="1" s="70"/>
+    <row r="473" hidden="1" s="70"/>
+    <row r="474" hidden="1" s="70"/>
+    <row r="475" hidden="1" s="70"/>
+    <row r="476" hidden="1" s="70"/>
+    <row r="477" hidden="1" s="70"/>
+    <row r="478" hidden="1" s="70"/>
+    <row r="479" hidden="1" s="70"/>
+    <row r="480" hidden="1" s="70"/>
+    <row r="481" hidden="1" s="70"/>
+    <row r="482" hidden="1" s="70"/>
+    <row r="483" hidden="1" s="70"/>
+    <row r="484" hidden="1" s="70"/>
+    <row r="485" hidden="1" s="70"/>
+    <row r="486" hidden="1" s="70"/>
+    <row r="487" hidden="1" s="70"/>
+    <row r="488" hidden="1" s="70"/>
+    <row r="489" hidden="1" s="70"/>
+    <row r="490" hidden="1" s="70"/>
+    <row r="491" hidden="1" s="70"/>
+    <row r="492" hidden="1" s="70"/>
+    <row r="493" hidden="1" s="70"/>
+    <row r="494" hidden="1" s="70"/>
+    <row r="495" hidden="1" s="70"/>
+    <row r="496" hidden="1" s="70"/>
+    <row r="497" hidden="1" s="70"/>
+    <row r="498" hidden="1" s="70"/>
+    <row r="499" hidden="1" s="70"/>
+    <row r="500" hidden="1" s="70"/>
+    <row r="501" hidden="1" s="70"/>
+    <row r="502" hidden="1" s="70"/>
+    <row r="503" hidden="1" s="70"/>
+    <row r="504" hidden="1" s="70"/>
+    <row r="505" hidden="1" s="70"/>
+    <row r="506" hidden="1" s="70"/>
+    <row r="507" hidden="1" s="70"/>
+    <row r="508" hidden="1" s="70"/>
+    <row r="509" hidden="1" s="70"/>
+    <row r="510" hidden="1" s="70"/>
+    <row r="511" hidden="1" s="70"/>
+    <row r="512" hidden="1" s="70"/>
+    <row r="513" hidden="1" s="70"/>
+    <row r="514" hidden="1" s="70"/>
+    <row r="515" hidden="1" s="70"/>
+    <row r="516" hidden="1" s="70"/>
+    <row r="517" hidden="1" s="70"/>
+    <row r="518" hidden="1" s="70"/>
+    <row r="519" hidden="1" s="70"/>
+    <row r="520" hidden="1" s="70"/>
+    <row r="521" hidden="1" s="70"/>
+    <row r="522" hidden="1" s="70"/>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="29" verticalDpi="300"/>
+  <pageMargins left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="29" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>